--- a/verification.xlsx
+++ b/verification.xlsx
@@ -19,14 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
-  <si>
-    <t>FSS手法によるフィーチャエンジニアリング</t>
-    <rPh sb="3" eb="5">
-      <t>シュホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>特徴量</t>
     <rPh sb="0" eb="2">
@@ -78,10 +71,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ekutsu</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Segmentation</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -90,51 +79,119 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Frame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFCC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DTW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mfcc_mlp_2020-04-08_final08_95.6%.h5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>score_mlp_2020-04-08_final01_62.2%.h5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dtw_mlp_2020-04-09_final01_84.4%.h5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>frame_mlp_2020-04-08_final01_62.2%.h5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>segmentation_mlp_2020-04-08_final01_68.9%.h5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>formant_mlp_2020-04-09_final04_77.8%.h5</t>
+  </si>
+  <si>
+    <t>epoch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Segmentation+MFCC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Segmentation+Score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Segmentation+Frame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Segmentation+DTW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Segmentation+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>epoch = 500, folds = 10</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Frame</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MFCC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DTW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Formant</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mfcc_mlp_2020-04-08_final08_95.6%.h5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>score_mlp_2020-04-08_final01_62.2%.h5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dtw_mlp_2020-04-09_final01_84.4%.h5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>frame_mlp_2020-04-08_final01_62.2%.h5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>segmentation_mlp_2020-04-08_final01_68.9%.h5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>formant_mlp_2020-04-09_final04_77.8%.h5</t>
-  </si>
-  <si>
-    <t>epoch</t>
-    <phoneticPr fontId="1"/>
+    <t>FSS手法（ekutsu）</t>
+    <rPh sb="3" eb="5">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>segmentation+mfcc_mlp_2020-04-09_final01_73.3%.h5</t>
+  </si>
+  <si>
+    <t>training data=449, test data=50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>segmentation+score_mlp_2020-04-09_final04_75.6%.h5</t>
+  </si>
+  <si>
+    <t>segmentation+frame_mlp_2020-04-09_final02_71.1%.h5</t>
+  </si>
+  <si>
+    <t>segmentation+formant_mlp_2020-04-09_final02_68.9%.h5</t>
+  </si>
+  <si>
+    <t>segmentation+dtw_mlp_2020-04-09_final01_77.8%.h5</t>
+  </si>
+  <si>
+    <t>Segmentation+Frame+MFCC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Segmentation+Frame+Score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Segmentation+Frame+DTW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Segmentation+Frame+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>segmentation+frame+score_mlp_2020-04-09_final02_75.6%.h5</t>
+  </si>
+  <si>
+    <t>segmentation+frame+mfcc_mlp_2020-04-09_final07_97.8%.h5</t>
   </si>
 </sst>
 </file>
@@ -257,10 +314,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -268,14 +324,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -551,15 +650,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="41.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
@@ -570,7 +669,7 @@
     <col min="9" max="9" width="5.875" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="60.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="47.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="33.875" customWidth="1"/>
@@ -584,404 +683,621 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="9">
+        <v>97.221582999999995</v>
+      </c>
+      <c r="C4" s="9">
+        <v>417</v>
+      </c>
+      <c r="D4" s="9">
+        <v>95.994950000000003</v>
+      </c>
+      <c r="E4" s="9">
+        <v>230</v>
+      </c>
+      <c r="F4" s="9">
+        <v>7.3009000000000004E-2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>485</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.109137</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4">
+        <v>67.346935999999999</v>
+      </c>
+      <c r="K4" s="4">
+        <v>4.6312959999999999</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9">
+        <v>61.160724999999999</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>61.161617999999997</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.668068</v>
+      </c>
+      <c r="G5" s="9">
+        <v>82</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.66803500000000005</v>
+      </c>
+      <c r="I5" s="9">
+        <v>145</v>
+      </c>
+      <c r="J5" s="4">
+        <v>48.979591999999997</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.72189599999999998</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9">
+        <v>61.160724999999999</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>61.161617999999997</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.668068</v>
+      </c>
+      <c r="G6" s="9">
+        <v>391</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.66801900000000003</v>
+      </c>
+      <c r="I6" s="9">
+        <v>297</v>
+      </c>
+      <c r="J6" s="4">
+        <v>48.979591999999997</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.72239900000000001</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="B7" s="9">
+        <v>98.858929000000003</v>
+      </c>
+      <c r="C7" s="9">
+        <v>491</v>
+      </c>
+      <c r="D7" s="9">
+        <v>97.555555999999996</v>
+      </c>
+      <c r="E7" s="9">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9">
+        <v>3.3241E-2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>476</v>
+      </c>
+      <c r="H7" s="9">
+        <v>7.4478000000000003E-2</v>
+      </c>
+      <c r="I7" s="9">
+        <v>35</v>
+      </c>
+      <c r="J7" s="4">
+        <v>63.265306000000002</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.288619</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>96.005951999999994</v>
+      </c>
+      <c r="C8">
+        <v>471</v>
+      </c>
+      <c r="D8">
+        <v>92.883838999999995</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.108385</v>
+      </c>
+      <c r="G8">
+        <v>413</v>
+      </c>
+      <c r="H8">
+        <v>0.14951100000000001</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>67.346935999999999</v>
+      </c>
+      <c r="K8">
+        <v>3.2679819999999999</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>85.712784999999997</v>
+      </c>
+      <c r="C9" s="10">
+        <v>464</v>
+      </c>
+      <c r="D9" s="10">
+        <v>85.303031000000004</v>
+      </c>
+      <c r="E9" s="10">
+        <v>7</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.30230000000000001</v>
+      </c>
+      <c r="G9" s="10">
+        <v>490</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.32059300000000002</v>
+      </c>
+      <c r="I9" s="10">
+        <v>7</v>
+      </c>
+      <c r="J9" s="7">
+        <v>77.551018999999997</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.53705899999999995</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="11">
+        <v>98.362713999999997</v>
+      </c>
+      <c r="C11" s="11">
+        <v>459</v>
+      </c>
+      <c r="D11" s="11">
+        <v>96.666667000000004</v>
+      </c>
+      <c r="E11" s="11">
+        <v>228</v>
+      </c>
+      <c r="F11" s="11">
+        <v>4.8941999999999999E-2</v>
+      </c>
+      <c r="G11" s="11">
+        <v>459</v>
+      </c>
+      <c r="H11" s="11">
+        <v>7.2522000000000003E-2</v>
+      </c>
+      <c r="I11" s="11">
+        <v>96</v>
+      </c>
+      <c r="J11" s="11">
+        <v>69.387758000000005</v>
+      </c>
+      <c r="K11" s="11">
+        <v>2.1328369999999999</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4">
+        <v>83.133184999999997</v>
+      </c>
+      <c r="C12" s="4">
+        <v>430</v>
+      </c>
+      <c r="D12" s="4">
+        <v>81.727272999999997</v>
+      </c>
+      <c r="E12" s="4">
+        <v>198</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.34229700000000002</v>
+      </c>
+      <c r="G12" s="4">
+        <v>445</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.36981000000000003</v>
+      </c>
+      <c r="I12" s="4">
+        <v>132</v>
+      </c>
+      <c r="J12" s="4">
+        <v>77.551018999999997</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.70924699999999996</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="9">
+        <v>86.282521000000003</v>
+      </c>
+      <c r="C13" s="9">
+        <v>449</v>
+      </c>
+      <c r="D13" s="9">
+        <v>85.737375</v>
+      </c>
+      <c r="E13" s="9">
+        <v>116</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.29183799999999999</v>
+      </c>
+      <c r="G13" s="9">
+        <v>449</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.31507600000000002</v>
+      </c>
+      <c r="I13" s="9">
+        <v>136</v>
+      </c>
+      <c r="J13" s="9">
+        <v>77.551018999999997</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0.53044800000000003</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="9">
+        <v>98.858677999999998</v>
+      </c>
+      <c r="C14" s="9">
+        <v>495</v>
+      </c>
+      <c r="D14" s="9">
+        <v>96.888889000000006</v>
+      </c>
+      <c r="E14" s="9">
+        <v>26</v>
+      </c>
+      <c r="F14" s="9">
+        <v>3.2417000000000001E-2</v>
+      </c>
+      <c r="G14" s="9">
+        <v>495</v>
+      </c>
+      <c r="H14" s="9">
+        <v>7.9118999999999995E-2</v>
+      </c>
+      <c r="I14" s="9">
+        <v>12</v>
+      </c>
+      <c r="J14" s="9">
+        <v>71.428573</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0.96091899999999997</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="7">
+        <v>95.435654999999997</v>
+      </c>
+      <c r="C15" s="7">
+        <v>492</v>
+      </c>
+      <c r="D15" s="7">
+        <v>92.217172000000005</v>
+      </c>
+      <c r="E15" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="11">
-        <v>97.221582999999995</v>
-      </c>
-      <c r="C5" s="11">
-        <v>417</v>
-      </c>
-      <c r="D5" s="11">
-        <v>95.994950000000003</v>
-      </c>
-      <c r="E5" s="11">
-        <v>230</v>
-      </c>
-      <c r="F5" s="11">
-        <v>7.3009000000000004E-2</v>
-      </c>
-      <c r="G5" s="11">
-        <v>485</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0.109137</v>
-      </c>
-      <c r="I5" s="11">
-        <v>3</v>
-      </c>
-      <c r="J5" s="5">
-        <v>67.346935999999999</v>
-      </c>
-      <c r="K5" s="5">
-        <v>4.6312959999999999</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="11">
-        <v>61.160724999999999</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="F15" s="7">
+        <v>0.119862</v>
+      </c>
+      <c r="G15" s="7">
+        <v>492</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.15495500000000001</v>
+      </c>
+      <c r="I15" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="5">
-        <v>61.161617999999997</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0.668068</v>
-      </c>
-      <c r="G6" s="11">
-        <v>82</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0.66803500000000005</v>
-      </c>
-      <c r="I6" s="11">
-        <v>145</v>
-      </c>
-      <c r="J6" s="5">
-        <v>48.979591999999997</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0.72189599999999998</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="11">
-        <v>61.160724999999999</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>61.161617999999997</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0.668068</v>
-      </c>
-      <c r="G7" s="11">
-        <v>391</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0.66801900000000003</v>
-      </c>
-      <c r="I7" s="11">
-        <v>297</v>
-      </c>
-      <c r="J7" s="5">
-        <v>48.979591999999997</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0.72239900000000001</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="11">
-        <v>98.858929000000003</v>
-      </c>
-      <c r="C8" s="11">
-        <v>491</v>
-      </c>
-      <c r="D8" s="11">
-        <v>97.555555999999996</v>
-      </c>
-      <c r="E8" s="11">
-        <v>5</v>
-      </c>
-      <c r="F8" s="11">
-        <v>3.3241E-2</v>
-      </c>
-      <c r="G8" s="11">
-        <v>476</v>
-      </c>
-      <c r="H8" s="11">
-        <v>7.4478000000000003E-2</v>
-      </c>
-      <c r="I8" s="11">
-        <v>35</v>
-      </c>
-      <c r="J8" s="5">
-        <v>63.265306000000002</v>
-      </c>
-      <c r="K8" s="5">
-        <v>1.288619</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>96.005951999999994</v>
-      </c>
-      <c r="C9">
-        <v>471</v>
-      </c>
-      <c r="D9">
-        <v>92.883838999999995</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.108385</v>
-      </c>
-      <c r="G9">
-        <v>413</v>
-      </c>
-      <c r="H9">
-        <v>0.14951100000000001</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>67.346935999999999</v>
-      </c>
-      <c r="K9">
-        <v>3.2679819999999999</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="12">
-        <v>85.712784999999997</v>
-      </c>
-      <c r="C10" s="12">
-        <v>464</v>
-      </c>
-      <c r="D10" s="12">
-        <v>85.303031000000004</v>
-      </c>
-      <c r="E10" s="12">
-        <v>7</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0.30230000000000001</v>
-      </c>
-      <c r="G10" s="12">
-        <v>490</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0.32059300000000002</v>
-      </c>
-      <c r="I10" s="12">
-        <v>7</v>
-      </c>
-      <c r="J10" s="8">
-        <v>77.551018999999997</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0.53705899999999995</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="J15" s="7">
+        <v>59.183675000000001</v>
+      </c>
+      <c r="K15" s="7">
+        <v>3.011323</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="11">
+        <v>98.312776999999997</v>
+      </c>
+      <c r="C17" s="11">
+        <v>407</v>
+      </c>
+      <c r="D17" s="11">
+        <v>98</v>
+      </c>
+      <c r="E17" s="11">
+        <v>86</v>
+      </c>
+      <c r="F17" s="11">
+        <v>4.8058999999999998E-2</v>
+      </c>
+      <c r="G17" s="11">
+        <v>481</v>
+      </c>
+      <c r="H17" s="11">
+        <v>6.6169000000000006E-2</v>
+      </c>
+      <c r="I17" s="11">
+        <v>101</v>
+      </c>
+      <c r="J17" s="11">
+        <v>65.306121000000005</v>
+      </c>
+      <c r="K17" s="11">
+        <v>6.5645730000000002</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4">
+        <v>84.893750999999995</v>
+      </c>
+      <c r="C18" s="4">
+        <v>484</v>
+      </c>
+      <c r="D18" s="4">
+        <v>85.070707999999996</v>
+      </c>
+      <c r="E18" s="4">
+        <v>26</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.311282</v>
+      </c>
+      <c r="G18" s="4">
+        <v>401</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.33296300000000001</v>
+      </c>
+      <c r="I18" s="4">
+        <v>159</v>
+      </c>
+      <c r="J18" s="4">
+        <v>75.510204000000002</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.51439900000000005</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="J4:J9">
+    <cfRule type="top10" dxfId="5" priority="3" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J15">
+    <cfRule type="top10" dxfId="4" priority="2" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/verification.xlsx
+++ b/verification.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>特徴量</t>
     <rPh sb="0" eb="2">
@@ -192,6 +192,30 @@
   </si>
   <si>
     <t>segmentation+frame+mfcc_mlp_2020-04-09_final07_97.8%.h5</t>
+  </si>
+  <si>
+    <t>segmentation+frame+formant_mlp_2020-04-10_final03_71.1%.h5</t>
+  </si>
+  <si>
+    <t>segmentation+frame+dtw_mlp_2020-04-10_final05_100.0%.h5</t>
+  </si>
+  <si>
+    <t>Segmentation+Frame+Score+MFCC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Segmentation+Frame+Score+DTW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Segmentation+Frame+Score+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>segmentation+frame+score+mfcc_mlp_2020-04-10_final05_97.8%.h5</t>
+  </si>
+  <si>
+    <t>segmentation+frame+score+formant_mlp_2020-04-10_final06_84.4%.h5</t>
   </si>
 </sst>
 </file>
@@ -331,7 +355,35 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -650,15 +702,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
@@ -1262,41 +1314,180 @@
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="5"/>
+      <c r="B19" s="9">
+        <v>99.032383999999993</v>
+      </c>
+      <c r="C19" s="9">
+        <v>457</v>
+      </c>
+      <c r="D19" s="9">
+        <v>97.333332999999996</v>
+      </c>
+      <c r="E19" s="9">
+        <v>43</v>
+      </c>
+      <c r="F19" s="9">
+        <v>2.7237999999999998E-2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>468</v>
+      </c>
+      <c r="H19" s="9">
+        <v>7.1801000000000004E-2</v>
+      </c>
+      <c r="I19" s="9">
+        <v>124</v>
+      </c>
+      <c r="J19" s="9">
+        <v>65.306121000000005</v>
+      </c>
+      <c r="K19" s="9">
+        <v>3.7951929999999998</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="8"/>
+      <c r="B20" s="7">
+        <v>95.336217000000005</v>
+      </c>
+      <c r="C20" s="7">
+        <v>492</v>
+      </c>
+      <c r="D20" s="7">
+        <v>92.661617000000007</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.119105</v>
+      </c>
+      <c r="G20" s="7">
+        <v>482</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.15870699999999999</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2</v>
+      </c>
+      <c r="J20" s="7">
+        <v>63.265306000000002</v>
+      </c>
+      <c r="K20" s="7">
+        <v>4.4128410000000002</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="11">
+        <v>98.089635000000001</v>
+      </c>
+      <c r="C22" s="11">
+        <v>469</v>
+      </c>
+      <c r="D22" s="11">
+        <v>97.333332999999996</v>
+      </c>
+      <c r="E22" s="11">
+        <v>116</v>
+      </c>
+      <c r="F22" s="11">
+        <v>5.1006999999999997E-2</v>
+      </c>
+      <c r="G22" s="11">
+        <v>469</v>
+      </c>
+      <c r="H22" s="11">
+        <v>7.4220999999999995E-2</v>
+      </c>
+      <c r="I22" s="11">
+        <v>116</v>
+      </c>
+      <c r="J22" s="11">
+        <v>63.265306000000002</v>
+      </c>
+      <c r="K22" s="11">
+        <v>5.8672240000000002</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="10">
+        <v>95.212155999999993</v>
+      </c>
+      <c r="C24" s="10">
+        <v>471</v>
+      </c>
+      <c r="D24" s="10">
+        <v>94.661617000000007</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0.1169</v>
+      </c>
+      <c r="G24" s="10">
+        <v>474</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0.14707999999999999</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <v>69.387758000000005</v>
+      </c>
+      <c r="K24" s="10">
+        <v>4.8948530000000003</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J4:J9">
-    <cfRule type="top10" dxfId="5" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J15">
-    <cfRule type="top10" dxfId="4" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:J20">
+    <cfRule type="top10" dxfId="7" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/verification.xlsx
+++ b/verification.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>特徴量</t>
     <rPh sb="0" eb="2">
@@ -216,6 +216,30 @@
   </si>
   <si>
     <t>segmentation+frame+score+formant_mlp_2020-04-10_final06_84.4%.h5</t>
+  </si>
+  <si>
+    <t>segmentation+frame+score+dtw_mlp_2020-04-10_final02_77.8%.h5</t>
+  </si>
+  <si>
+    <t>Segmentation+Frame+Score+DTW+MFCC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Segmentation+Frame+Score+DTW+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>segmentation+frame+score+dtw+mfcc_mlp_2020-04-10_final10_100.0%.h5</t>
+  </si>
+  <si>
+    <t>segmentation+frame+score+dtw+formant_mlp_2020-04-10_final03_100.0%.h5</t>
+  </si>
+  <si>
+    <t>Segmentation+Frame+Score+DTW+Formant+mfcc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>segmentation+frame+score+dtw+formant+mfcc_mlp_2020-04-11_final02_95.6%.h5</t>
   </si>
 </sst>
 </file>
@@ -246,7 +270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -334,11 +358,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -351,39 +412,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -702,15 +738,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
@@ -721,7 +757,7 @@
     <col min="9" max="9" width="5.875" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="60.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="81" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="47.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="33.875" customWidth="1"/>
@@ -1428,17 +1464,39 @@
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="5"/>
+      <c r="B23" s="9">
+        <v>98.958004000000003</v>
+      </c>
+      <c r="C23" s="4">
+        <v>440</v>
+      </c>
+      <c r="D23" s="4">
+        <v>96.444445000000002</v>
+      </c>
+      <c r="E23" s="4">
+        <v>15</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3.0374999999999999E-2</v>
+      </c>
+      <c r="G23" s="4">
+        <v>455</v>
+      </c>
+      <c r="H23" s="4">
+        <v>8.2133999999999999E-2</v>
+      </c>
+      <c r="I23" s="4">
+        <v>61</v>
+      </c>
+      <c r="J23" s="4">
+        <v>69.387758000000005</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2.3231769999999998</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
@@ -1478,16 +1536,139 @@
         <v>46</v>
       </c>
     </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="11">
+        <v>98.561161999999996</v>
+      </c>
+      <c r="C26" s="11">
+        <v>480</v>
+      </c>
+      <c r="D26" s="11">
+        <v>96.888889000000006</v>
+      </c>
+      <c r="E26" s="11">
+        <v>242</v>
+      </c>
+      <c r="F26" s="11">
+        <v>3.5714999999999997E-2</v>
+      </c>
+      <c r="G26" s="11">
+        <v>453</v>
+      </c>
+      <c r="H26" s="11">
+        <v>8.3918000000000006E-2</v>
+      </c>
+      <c r="I26" s="11">
+        <v>66</v>
+      </c>
+      <c r="J26" s="11">
+        <v>63.265306000000002</v>
+      </c>
+      <c r="K26" s="11">
+        <v>4.9578280000000001</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="10">
+        <v>99.950372999999999</v>
+      </c>
+      <c r="C27" s="7">
+        <v>411</v>
+      </c>
+      <c r="D27" s="7">
+        <v>98.444445000000002</v>
+      </c>
+      <c r="E27" s="7">
+        <v>75</v>
+      </c>
+      <c r="F27" s="7">
+        <v>3.8449999999999999E-3</v>
+      </c>
+      <c r="G27" s="7">
+        <v>483</v>
+      </c>
+      <c r="H27" s="7">
+        <v>4.5421000000000003E-2</v>
+      </c>
+      <c r="I27" s="7">
+        <v>75</v>
+      </c>
+      <c r="J27" s="7">
+        <v>69.387758000000005</v>
+      </c>
+      <c r="K27" s="7">
+        <v>3.6814360000000002</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A29" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="13">
+        <v>99.851113999999995</v>
+      </c>
+      <c r="C29" s="13">
+        <v>483</v>
+      </c>
+      <c r="D29" s="13">
+        <v>97.777777999999998</v>
+      </c>
+      <c r="E29" s="13">
+        <v>104</v>
+      </c>
+      <c r="F29" s="13">
+        <v>5.0480000000000004E-3</v>
+      </c>
+      <c r="G29" s="13">
+        <v>491</v>
+      </c>
+      <c r="H29" s="13">
+        <v>6.5882999999999997E-2</v>
+      </c>
+      <c r="I29" s="13">
+        <v>43</v>
+      </c>
+      <c r="J29" s="13">
+        <v>63.265306000000002</v>
+      </c>
+      <c r="K29" s="13">
+        <v>3.428239</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J4:J9">
-    <cfRule type="top10" dxfId="9" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J15">
-    <cfRule type="top10" dxfId="8" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J20">
-    <cfRule type="top10" dxfId="7" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:J24">
+    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J27">
+    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/verification.xlsx
+++ b/verification.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11955"/>
   </bookViews>
   <sheets>
-    <sheet name="FSS" sheetId="1" r:id="rId1"/>
+    <sheet name="FSS-ekutsu" sheetId="2" r:id="rId1"/>
+    <sheet name="FSS-ekutsu_first" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>特徴量</t>
     <rPh sb="0" eb="2">
@@ -240,6 +241,10 @@
   </si>
   <si>
     <t>segmentation+frame+score+dtw+formant+mfcc_mlp_2020-04-11_final02_95.6%.h5</t>
+  </si>
+  <si>
+    <t>epoch = 300, folds = 10</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -419,7 +424,49 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -740,9 +787,441 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.875" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="81" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.875" customWidth="1"/>
+    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" s="6"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A27" s="6"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="J4:J9">
+    <cfRule type="top10" dxfId="11" priority="6" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J15">
+    <cfRule type="top10" dxfId="10" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:J20">
+    <cfRule type="top10" dxfId="9" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:J24">
+    <cfRule type="top10" dxfId="8" priority="3" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J27">
+    <cfRule type="top10" dxfId="7" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="top10" dxfId="6" priority="1" rank="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>

--- a/verification.xlsx
+++ b/verification.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11955" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="FSS-ekutsu" sheetId="2" r:id="rId1"/>
-    <sheet name="FSS-ekutsu_first" sheetId="1" r:id="rId2"/>
+    <sheet name="Data" sheetId="3" r:id="rId1"/>
+    <sheet name="FSS-keshimi" sheetId="5" r:id="rId2"/>
+    <sheet name="FSS-gomata" sheetId="4" r:id="rId3"/>
+    <sheet name="FSS-ekutsu" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="143">
   <si>
     <t>特徴量</t>
     <rPh sb="0" eb="2">
@@ -72,10 +74,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Segmentation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Score</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -96,54 +94,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mfcc_mlp_2020-04-08_final08_95.6%.h5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>score_mlp_2020-04-08_final01_62.2%.h5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dtw_mlp_2020-04-09_final01_84.4%.h5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>frame_mlp_2020-04-08_final01_62.2%.h5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>segmentation_mlp_2020-04-08_final01_68.9%.h5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>formant_mlp_2020-04-09_final04_77.8%.h5</t>
-  </si>
-  <si>
     <t>epoch</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Segmentation+MFCC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Segmentation+Score</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Segmentation+Frame</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Segmentation+DTW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Segmentation+Formant</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>epoch = 500, folds = 10</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -154,96 +105,484 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>segmentation+mfcc_mlp_2020-04-09_final01_73.3%.h5</t>
-  </si>
-  <si>
-    <t>training data=449, test data=50</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>segmentation+score_mlp_2020-04-09_final04_75.6%.h5</t>
-  </si>
-  <si>
-    <t>segmentation+frame_mlp_2020-04-09_final02_71.1%.h5</t>
-  </si>
-  <si>
-    <t>segmentation+formant_mlp_2020-04-09_final02_68.9%.h5</t>
-  </si>
-  <si>
-    <t>segmentation+dtw_mlp_2020-04-09_final01_77.8%.h5</t>
-  </si>
-  <si>
-    <t>Segmentation+Frame+MFCC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Segmentation+Frame+Score</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Segmentation+Frame+DTW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Segmentation+Frame+Formant</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>segmentation+frame+score_mlp_2020-04-09_final02_75.6%.h5</t>
-  </si>
-  <si>
-    <t>segmentation+frame+mfcc_mlp_2020-04-09_final07_97.8%.h5</t>
-  </si>
-  <si>
-    <t>segmentation+frame+formant_mlp_2020-04-10_final03_71.1%.h5</t>
-  </si>
-  <si>
-    <t>segmentation+frame+dtw_mlp_2020-04-10_final05_100.0%.h5</t>
-  </si>
-  <si>
-    <t>Segmentation+Frame+Score+MFCC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Segmentation+Frame+Score+DTW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Segmentation+Frame+Score+Formant</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>segmentation+frame+score+mfcc_mlp_2020-04-10_final05_97.8%.h5</t>
-  </si>
-  <si>
-    <t>segmentation+frame+score+formant_mlp_2020-04-10_final06_84.4%.h5</t>
-  </si>
-  <si>
-    <t>segmentation+frame+score+dtw_mlp_2020-04-10_final02_77.8%.h5</t>
-  </si>
-  <si>
-    <t>Segmentation+Frame+Score+DTW+MFCC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Segmentation+Frame+Score+DTW+Formant</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>segmentation+frame+score+dtw+mfcc_mlp_2020-04-10_final10_100.0%.h5</t>
-  </si>
-  <si>
-    <t>segmentation+frame+score+dtw+formant_mlp_2020-04-10_final03_100.0%.h5</t>
-  </si>
-  <si>
-    <t>Segmentation+Frame+Score+DTW+Formant+mfcc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>segmentation+frame+score+dtw+formant+mfcc_mlp_2020-04-11_final02_95.6%.h5</t>
-  </si>
-  <si>
     <t>epoch = 300, folds = 10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mfcc_mlp_2020-04-11_final01_72.9%.h5</t>
+  </si>
+  <si>
+    <t>score_mlp_2020-04-11_final09_61.7%.h5</t>
+  </si>
+  <si>
+    <t>frame_mlp_2020-04-11_final09_61.7%.h5</t>
+  </si>
+  <si>
+    <t>dtw_mlp_2020-04-11_final01_79.2%.h5</t>
+  </si>
+  <si>
+    <t>formant_mlp_2020-04-11_final01_58.3%.h5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>segmentation_mlp_2020-04-11_final05_72.9%.h5</t>
+  </si>
+  <si>
+    <t>Segmentation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Segmentation+MFCC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Segmentation+Score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Segmentation+Frame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Segmentation+DTW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Segmentation+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>segmentation+mfcc_mlp_2020-04-11_final05_93.8%.h5</t>
+  </si>
+  <si>
+    <t>segmentation+score_mlp_2020-04-11_final08_81.2%.h5</t>
+  </si>
+  <si>
+    <t>segmentation+frame_mlp_2020-04-11_final02_81.2%.h5</t>
+  </si>
+  <si>
+    <t>segmentation+dtw_mlp_2020-04-11_final05_100.0%.h5</t>
+  </si>
+  <si>
+    <t>segmentation+formant_mlp_2020-04-11_final03_77.1%.h5</t>
+  </si>
+  <si>
+    <t>Segmentation+MFCC+Score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Segmentation+MFCC+DTW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Segmentation+MFCC+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>segmentation+mfcc+score_mlp_2020-04-11_final08_100.0%.h5</t>
+  </si>
+  <si>
+    <t>データ数内訳</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウチワケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>akagi.m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gokurakuji</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kadowaki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kadowaki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tadano</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>okamoto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>suzuki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>taniguchi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>training</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>training</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ekutsu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bad_wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bad_wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test_bad</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test_bad</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>diff_bad</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>diff_bad</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ok_wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test_ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>diff_ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>suzukisan</t>
+  </si>
+  <si>
+    <t>gomata</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ok_wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>keshimi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test_ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>diff_ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>akagi_mayu</t>
+  </si>
+  <si>
+    <t>miyashita</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tadano</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kutose</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test_ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aoto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KCo.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ohagi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sakurai</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>suzuki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mataa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>araki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iitsuka</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tatano</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meguta</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>diff_bad</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nochita</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bad_wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>training</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rameka</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>segmentation+mfcc+frame_mlp_2020-04-11_final02_89.6%.h5</t>
+  </si>
+  <si>
+    <t>segmentation+mfcc+dtw_mlp_2020-04-11_final04_85.4%.h5</t>
+  </si>
+  <si>
+    <t>segmentation+mfcc+formant_mlp_2020-04-11_final04_89.6%.h5</t>
+  </si>
+  <si>
+    <t>Segmentation+MFCC+Frame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Segmentation+MFCC+Frame+Score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Segmentation+MFCC+Frame+DTW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Segmentation+MFCC+Frame+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>segmentation+mfcc+frame+score_mlp_2020-04-11_final05_95.8%.h5</t>
+  </si>
+  <si>
+    <t>segmentation+mfcc+frame+dtw_mlp_2020-04-11_final03_91.7%.h5</t>
+  </si>
+  <si>
+    <t>Segmentation+MFCC+Frame+Score+DTW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Segmentation+MFCC+Frame+Score+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>segmentation+mfcc+frame+score+dtw_mlp_2020-04-11_final05_95.8%.h5</t>
+  </si>
+  <si>
+    <t>segmentation+mfcc+frame+formant_mlp_2020-04-11_final03_83.3%.h5</t>
+  </si>
+  <si>
+    <t>segmentation+mfcc+frame+score+formant_mlp_2020-04-11_final09_93.6%.h5</t>
+  </si>
+  <si>
+    <t>Segmentation+MFCC+Frame+Score+DTW+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>segmentation+mfcc+frame+score+dtw+formant_mlp_2020-04-11_final01_68.8%.h5</t>
+  </si>
+  <si>
+    <t>FSS手法（gomata）</t>
+    <rPh sb="3" eb="5">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mfcc_mlp_2020-04-11_final04_100.0%.h5</t>
+  </si>
+  <si>
+    <t>score_mlp_2020-04-11_final07_77.8%.h5</t>
+  </si>
+  <si>
+    <t>frame_mlp_2020-04-11_final01_70.0%.h5</t>
+  </si>
+  <si>
+    <t>dtw_mlp_2020-04-11_final02_90.0%.h5</t>
+  </si>
+  <si>
+    <t>formant_mlp_2020-04-11_final04_100.0%.h5</t>
+  </si>
+  <si>
+    <t>segmentation_mlp_2020-04-11_final04_80.0%.h5</t>
+  </si>
+  <si>
+    <t>MFCC+Score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFCC+Frame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFCC+DTW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFCC+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFCC+Segmentation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mfcc+score_mlp_2020-04-11_final03_90.0%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+frame_mlp_2020-04-11_final03_70.0%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+dtw_mlp_2020-04-11_final03_80.0%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+formant_mlp_2020-04-11_final01_70.0%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+segmentation_mlp_2020-04-11_final04_90.0%.h5</t>
+  </si>
+  <si>
+    <t>MFCC+Frame+Score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFCC+Frame+DTW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFCC+Frame+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFCC+Frame+Segmentation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mfcc+frame+dtw_mlp_2020-04-12_final02_80.0%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+frame+score_mlp_2020-04-12_final10_100.0%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+frame+formant_mlp_2020-04-12_final01_90.0%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+frame+segmentation_mlp_2020-04-12_final02_90.0%.h5</t>
+  </si>
+  <si>
+    <t>MFCC+Frame+Segmentation+Score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFCC+Frame+Segmentation+DTW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFCC+Frame+Segmentation+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mfcc+frame+segmentation+score_mlp_2020-04-12_final04_100.0%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+frame+segmentation+dtw_mlp_2020-04-12_final03_100.0%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+frame+segmentation+formant_mlp_2020-04-12_final04_100.0%.h5</t>
+  </si>
+  <si>
+    <t>MFCC+Frame+Segmentation+Score+DTW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFCC+Frame+Segmentation+Score+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mfcc+frame+segmentation+score+dtw_mlp_2020-04-12_final06_100.0%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+frame+segmentation+score+formant_mlp_2020-04-12_final03_100.0%.h5</t>
+  </si>
+  <si>
+    <t>MFCC+Frame+Segmentation+Score+DTW+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mfcc+frame+segmentation+score+dtw+formant_mlp_2020-04-12_final04_100.0%.h5</t>
+  </si>
+  <si>
+    <t>FSS手法（keshimi）</t>
+    <rPh sb="3" eb="5">
+      <t>シュホウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -424,7 +763,49 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -785,15 +1166,1308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2">
+        <f>SUM(D2:J2)</f>
+        <v>300</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>156</v>
+      </c>
+      <c r="H2">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>41</v>
+      </c>
+      <c r="J2">
+        <v>40</v>
+      </c>
+      <c r="L2">
+        <f>C2+C5</f>
+        <v>499</v>
+      </c>
+      <c r="M2">
+        <f>L2-N2</f>
+        <v>479</v>
+      </c>
+      <c r="N2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <f>SUM(D3:J3)</f>
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4">
+        <f>C2-C3</f>
+        <v>290</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:J4" si="0">D2-D3</f>
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <f>SUM(D5:J5)</f>
+        <v>199</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>139</v>
+      </c>
+      <c r="H5">
+        <v>22</v>
+      </c>
+      <c r="I5">
+        <v>13</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6">
+        <f>SUM(D6:J6)</f>
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <f>C5-C6</f>
+        <v>189</v>
+      </c>
+      <c r="D7">
+        <f>D5-D6</f>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:J7" si="1">E5-E6</f>
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <f>SUM(D10:E10)</f>
+        <v>78</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>38</v>
+      </c>
+      <c r="G10">
+        <f>C10+C13</f>
+        <v>117</v>
+      </c>
+      <c r="H10">
+        <f>G10-I10</f>
+        <v>97</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11">
+        <f>SUM(D11:E11)</f>
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12">
+        <f>C10-C11</f>
+        <v>68</v>
+      </c>
+      <c r="D12">
+        <f>D10-D11</f>
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <f>E10-E11</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13">
+        <f>SUM(D13:E13)</f>
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14">
+        <f>SUM(D14:E14)</f>
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <f>C13-C14</f>
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <f>D13-D14</f>
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15" si="2">E13-E14</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <f>SUM(D18:E18)</f>
+        <v>43</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>37</v>
+      </c>
+      <c r="G18">
+        <f>C18+C21</f>
+        <v>84</v>
+      </c>
+      <c r="H18">
+        <f>G18-I18</f>
+        <v>64</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19">
+        <f>SUM(D19:E19)</f>
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <f>C18-C19</f>
+        <v>33</v>
+      </c>
+      <c r="D20">
+        <f>D18-D19</f>
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <f>E18-E19</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21">
+        <f>SUM(D21:E21)</f>
+        <v>41</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22">
+        <f>SUM(D22:E22)</f>
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23">
+        <f>C21-C22</f>
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <f>D21-D22</f>
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23" si="3">E21-E22</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <f>SUM(D26:F26)</f>
+        <v>58</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="H26">
+        <f>C26+C29</f>
+        <v>96</v>
+      </c>
+      <c r="I26">
+        <f>H26-J26</f>
+        <v>76</v>
+      </c>
+      <c r="J26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
+        <f>SUM(D27:F27)</f>
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <f>C26-C27</f>
+        <v>48</v>
+      </c>
+      <c r="D28">
+        <f>D26-D27</f>
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <f>E26-E27</f>
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <f>F26-F27</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29">
+        <f>SUM(D29:F29)</f>
+        <v>38</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30">
+        <f>SUM(D30:F30)</f>
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31">
+        <f>C29-C30</f>
+        <v>28</v>
+      </c>
+      <c r="D31">
+        <f>D29-D30</f>
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:F31" si="4">E29-E30</f>
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M33" t="s">
+        <v>48</v>
+      </c>
+      <c r="N33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34">
+        <f>SUM(D34:J34)</f>
+        <v>101</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>15</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>9</v>
+      </c>
+      <c r="I34">
+        <v>30</v>
+      </c>
+      <c r="J34">
+        <v>37</v>
+      </c>
+      <c r="L34">
+        <f>C34+C37</f>
+        <v>190</v>
+      </c>
+      <c r="M34">
+        <f>L34-N34</f>
+        <v>170</v>
+      </c>
+      <c r="N34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35">
+        <f>SUM(D35:J35)</f>
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36">
+        <f>C34-C35</f>
+        <v>91</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36:J36" si="5">D34-D35</f>
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37">
+        <f>SUM(D37:J37)</f>
+        <v>89</v>
+      </c>
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>14</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38">
+        <f>SUM(D38:J38)</f>
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39">
+        <f>C37-C38</f>
+        <v>79</v>
+      </c>
+      <c r="D39">
+        <f>D37-D38</f>
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:J39" si="6">E37-E38</f>
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" t="s">
+        <v>48</v>
+      </c>
+      <c r="J41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42">
+        <f>SUM(D42:F42)</f>
+        <v>57</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>44</v>
+      </c>
+      <c r="H42">
+        <f>C42+C45</f>
+        <v>105</v>
+      </c>
+      <c r="I42">
+        <f>H42-J42</f>
+        <v>85</v>
+      </c>
+      <c r="J42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43">
+        <f>SUM(D43:F43)</f>
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44">
+        <f>C42-C43</f>
+        <v>47</v>
+      </c>
+      <c r="D44">
+        <f>D42-D43</f>
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <f>E42-E43</f>
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <f>F42-F43</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45">
+        <f>SUM(D45:F45)</f>
+        <v>48</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <f>SUM(D46:F46)</f>
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47">
+        <f>C45-C46</f>
+        <v>38</v>
+      </c>
+      <c r="D47">
+        <f>D45-D46</f>
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47:F47" si="7">E45-E46</f>
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50">
+        <f>SUM(D50)</f>
+        <v>35</v>
+      </c>
+      <c r="D50">
+        <v>35</v>
+      </c>
+      <c r="F50">
+        <f>C50+C53</f>
+        <v>68</v>
+      </c>
+      <c r="G50">
+        <f>F50-H50</f>
+        <v>48</v>
+      </c>
+      <c r="H50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51">
+        <f>SUM(D51)</f>
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52">
+        <f>C50-C51</f>
+        <v>25</v>
+      </c>
+      <c r="D52">
+        <f>D50-D51</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53">
+        <f>SUM(D53)</f>
+        <v>33</v>
+      </c>
+      <c r="D53">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54">
+        <f>SUM(D54)</f>
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55">
+        <f>C53-C54</f>
+        <v>23</v>
+      </c>
+      <c r="D55">
+        <f>D53-D54</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" t="s">
+        <v>87</v>
+      </c>
+      <c r="H57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58">
+        <f>SUM(D58)</f>
+        <v>46</v>
+      </c>
+      <c r="D58">
+        <v>46</v>
+      </c>
+      <c r="F58">
+        <f>C58+C61</f>
+        <v>83</v>
+      </c>
+      <c r="G58">
+        <f>F58-H58</f>
+        <v>63</v>
+      </c>
+      <c r="H58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59">
+        <f>SUM(D59)</f>
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60">
+        <f>C58-C59</f>
+        <v>36</v>
+      </c>
+      <c r="D60">
+        <f>D58-D59</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61">
+        <f>SUM(D61)</f>
+        <v>37</v>
+      </c>
+      <c r="D61">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62">
+        <f>SUM(D62)</f>
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63">
+        <f>C61-C62</f>
+        <v>27</v>
+      </c>
+      <c r="D63">
+        <f>D61-D62</f>
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
@@ -818,12 +2492,12 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
@@ -834,25 +2508,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>5</v>
@@ -866,7 +2540,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -882,7 +2556,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -898,7 +2572,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -914,7 +2588,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -930,13 +2604,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1195,37 +2869,39 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J4:J9">
-    <cfRule type="top10" dxfId="11" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J15">
-    <cfRule type="top10" dxfId="10" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J20">
-    <cfRule type="top10" dxfId="9" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J24">
-    <cfRule type="top10" dxfId="8" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:J27">
-    <cfRule type="top10" dxfId="7" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="top10" dxfId="6" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="49.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
@@ -1250,15 +2926,12 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
@@ -1269,25 +2942,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>5</v>
@@ -1301,308 +2974,308 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="9">
-        <v>97.221582999999995</v>
+        <v>95.236558000000002</v>
       </c>
       <c r="C4" s="9">
-        <v>417</v>
+        <v>281</v>
       </c>
       <c r="D4" s="9">
-        <v>95.994950000000003</v>
+        <v>96</v>
       </c>
       <c r="E4" s="9">
-        <v>230</v>
+        <v>25</v>
       </c>
       <c r="F4" s="9">
-        <v>7.3009000000000004E-2</v>
+        <v>0.117326</v>
       </c>
       <c r="G4" s="9">
-        <v>485</v>
+        <v>294</v>
       </c>
       <c r="H4" s="9">
-        <v>0.109137</v>
+        <v>0.13598499999999999</v>
       </c>
       <c r="I4" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" s="4">
-        <v>67.346935999999999</v>
+        <v>84.210526999999999</v>
       </c>
       <c r="K4" s="4">
-        <v>4.6312959999999999</v>
+        <v>0.53394900000000001</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="9">
-        <v>61.160724999999999</v>
+        <v>69.791495999999995</v>
       </c>
       <c r="C5" s="9">
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>61.161617999999997</v>
+        <v>69.777777999999998</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
       </c>
       <c r="F5" s="9">
-        <v>0.668068</v>
+        <v>0.61263900000000004</v>
       </c>
       <c r="G5" s="9">
-        <v>82</v>
+        <v>297</v>
       </c>
       <c r="H5" s="9">
-        <v>0.66803500000000005</v>
+        <v>0.61315900000000001</v>
       </c>
       <c r="I5" s="9">
-        <v>145</v>
+        <v>254</v>
       </c>
       <c r="J5" s="4">
-        <v>48.979591999999997</v>
+        <v>47.368422000000002</v>
       </c>
       <c r="K5" s="4">
-        <v>0.72189599999999998</v>
+        <v>0.79265600000000003</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="9">
-        <v>61.160724999999999</v>
+        <v>69.791495999999995</v>
       </c>
       <c r="C6" s="9">
         <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>61.161617999999997</v>
+        <v>69.777777999999998</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
       </c>
       <c r="F6" s="9">
-        <v>0.668068</v>
+        <v>0.612649</v>
       </c>
       <c r="G6" s="9">
-        <v>391</v>
+        <v>297</v>
       </c>
       <c r="H6" s="9">
-        <v>0.66801900000000003</v>
+        <v>0.61312299999999997</v>
       </c>
       <c r="I6" s="9">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J6" s="4">
-        <v>48.979591999999997</v>
+        <v>47.368422000000002</v>
       </c>
       <c r="K6" s="4">
-        <v>0.72239900000000001</v>
+        <v>0.794211</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="9">
-        <v>98.858929000000003</v>
+        <v>98.953485000000001</v>
       </c>
       <c r="C7" s="9">
-        <v>491</v>
+        <v>298</v>
       </c>
       <c r="D7" s="9">
-        <v>97.555555999999996</v>
+        <v>97</v>
       </c>
       <c r="E7" s="9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F7" s="9">
-        <v>3.3241E-2</v>
+        <v>3.7182E-2</v>
       </c>
       <c r="G7" s="9">
-        <v>476</v>
+        <v>298</v>
       </c>
       <c r="H7" s="9">
-        <v>7.4478000000000003E-2</v>
+        <v>7.2679999999999995E-2</v>
       </c>
       <c r="I7" s="9">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="J7" s="4">
-        <v>63.265306000000002</v>
+        <v>73.684209999999993</v>
       </c>
       <c r="K7" s="4">
-        <v>1.288619</v>
+        <v>0.58810499999999999</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>96.005951999999994</v>
+        <v>100</v>
       </c>
       <c r="C8">
-        <v>471</v>
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>92.883838999999995</v>
+        <v>99</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>0.108385</v>
+        <v>6.8800000000000003E-4</v>
       </c>
       <c r="G8">
-        <v>413</v>
+        <v>272</v>
       </c>
       <c r="H8">
-        <v>0.14951100000000001</v>
+        <v>4.4833999999999999E-2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J8">
-        <v>67.346935999999999</v>
+        <v>52.631580999999997</v>
       </c>
       <c r="K8">
-        <v>3.2679819999999999</v>
+        <v>7.4492510000000003</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B9" s="10">
-        <v>85.712784999999997</v>
+        <v>89.335740000000001</v>
       </c>
       <c r="C9" s="10">
-        <v>464</v>
+        <v>292</v>
       </c>
       <c r="D9" s="10">
-        <v>85.303031000000004</v>
+        <v>89.777777</v>
       </c>
       <c r="E9" s="10">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="F9" s="10">
-        <v>0.30230000000000001</v>
+        <v>0.228856</v>
       </c>
       <c r="G9" s="10">
-        <v>490</v>
+        <v>292</v>
       </c>
       <c r="H9" s="10">
-        <v>0.32059300000000002</v>
+        <v>0.26944400000000002</v>
       </c>
       <c r="I9" s="10">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J9" s="7">
-        <v>77.551018999999997</v>
+        <v>73.684209999999993</v>
       </c>
       <c r="K9" s="7">
-        <v>0.53705899999999995</v>
+        <v>0.52161500000000005</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="B11" s="11">
-        <v>98.362713999999997</v>
+        <v>94.419938000000002</v>
       </c>
       <c r="C11" s="11">
-        <v>459</v>
+        <v>249</v>
       </c>
       <c r="D11" s="11">
-        <v>96.666667000000004</v>
+        <v>93</v>
       </c>
       <c r="E11" s="11">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="F11" s="11">
-        <v>4.8941999999999999E-2</v>
+        <v>0.13523399999999999</v>
       </c>
       <c r="G11" s="11">
-        <v>459</v>
+        <v>293</v>
       </c>
       <c r="H11" s="11">
-        <v>7.2522000000000003E-2</v>
+        <v>0.17826800000000001</v>
       </c>
       <c r="I11" s="11">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="J11" s="11">
-        <v>69.387758000000005</v>
+        <v>84.210526999999999</v>
       </c>
       <c r="K11" s="11">
-        <v>2.1328369999999999</v>
+        <v>0.34977000000000003</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="B12" s="4">
-        <v>83.133184999999997</v>
+        <v>96.162784000000002</v>
       </c>
       <c r="C12" s="4">
-        <v>430</v>
+        <v>287</v>
       </c>
       <c r="D12" s="4">
-        <v>81.727272999999997</v>
+        <v>95</v>
       </c>
       <c r="E12" s="4">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="F12" s="4">
-        <v>0.34229700000000002</v>
+        <v>9.7348000000000004E-2</v>
       </c>
       <c r="G12" s="4">
-        <v>445</v>
+        <v>297</v>
       </c>
       <c r="H12" s="4">
-        <v>0.36981000000000003</v>
+        <v>0.14088800000000001</v>
       </c>
       <c r="I12" s="4">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="J12" s="4">
-        <v>77.551018999999997</v>
+        <v>89.473682999999994</v>
       </c>
       <c r="K12" s="4">
-        <v>0.70924699999999996</v>
+        <v>0.37684699999999999</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -1610,40 +3283,40 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="B13" s="9">
-        <v>86.282521000000003</v>
+        <v>99.069767999999996</v>
       </c>
       <c r="C13" s="9">
-        <v>449</v>
+        <v>280</v>
       </c>
       <c r="D13" s="9">
-        <v>85.737375</v>
+        <v>97</v>
       </c>
       <c r="E13" s="9">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="F13" s="9">
-        <v>0.29183799999999999</v>
+        <v>4.1849999999999998E-2</v>
       </c>
       <c r="G13" s="9">
-        <v>449</v>
+        <v>289</v>
       </c>
       <c r="H13" s="9">
-        <v>0.31507600000000002</v>
+        <v>9.3853000000000006E-2</v>
       </c>
       <c r="I13" s="9">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="J13" s="9">
-        <v>77.551018999999997</v>
+        <v>68.421053999999998</v>
       </c>
       <c r="K13" s="9">
-        <v>0.53044800000000003</v>
+        <v>1.7060379999999999</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -1651,40 +3324,40 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="B14" s="9">
-        <v>98.858677999999998</v>
+        <v>100</v>
       </c>
       <c r="C14" s="9">
-        <v>495</v>
+        <v>108</v>
       </c>
       <c r="D14" s="9">
-        <v>96.888889000000006</v>
+        <v>98</v>
       </c>
       <c r="E14" s="9">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F14" s="9">
-        <v>3.2417000000000001E-2</v>
+        <v>1.4189999999999999E-3</v>
       </c>
       <c r="G14" s="9">
-        <v>495</v>
+        <v>262</v>
       </c>
       <c r="H14" s="9">
-        <v>7.9118999999999995E-2</v>
+        <v>4.3550999999999999E-2</v>
       </c>
       <c r="I14" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J14" s="9">
-        <v>71.428573</v>
+        <v>52.631580999999997</v>
       </c>
       <c r="K14" s="9">
-        <v>0.96091899999999997</v>
+        <v>4.8526689999999997</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1692,40 +3365,40 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="B15" s="7">
-        <v>95.435654999999997</v>
+        <v>97.560805000000002</v>
       </c>
       <c r="C15" s="7">
-        <v>492</v>
+        <v>299</v>
       </c>
       <c r="D15" s="7">
-        <v>92.217172000000005</v>
+        <v>93</v>
       </c>
       <c r="E15" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="F15" s="7">
-        <v>0.119862</v>
+        <v>7.1971999999999994E-2</v>
       </c>
       <c r="G15" s="7">
-        <v>492</v>
+        <v>299</v>
       </c>
       <c r="H15" s="7">
-        <v>0.15495500000000001</v>
+        <v>0.14202799999999999</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J15" s="7">
-        <v>59.183675000000001</v>
+        <v>84.210526999999999</v>
       </c>
       <c r="K15" s="7">
-        <v>3.011323</v>
+        <v>0.62523300000000004</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1749,405 +3422,1339 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="B17" s="11">
-        <v>98.312776999999997</v>
+        <v>95.813953999999995</v>
       </c>
       <c r="C17" s="11">
-        <v>407</v>
+        <v>279</v>
       </c>
       <c r="D17" s="11">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E17" s="11">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="F17" s="11">
-        <v>4.8058999999999998E-2</v>
+        <v>0.10241599999999999</v>
       </c>
       <c r="G17" s="11">
-        <v>481</v>
+        <v>290</v>
       </c>
       <c r="H17" s="11">
-        <v>6.6169000000000006E-2</v>
+        <v>0.13927300000000001</v>
       </c>
       <c r="I17" s="11">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="J17" s="11">
-        <v>65.306121000000005</v>
+        <v>94.736844000000005</v>
       </c>
       <c r="K17" s="11">
-        <v>6.5645730000000002</v>
+        <v>1.032915</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="B18" s="4">
-        <v>84.893750999999995</v>
+        <v>98.604648999999995</v>
       </c>
       <c r="C18" s="4">
-        <v>484</v>
+        <v>283</v>
       </c>
       <c r="D18" s="4">
-        <v>85.070707999999996</v>
+        <v>97</v>
       </c>
       <c r="E18" s="4">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F18" s="4">
-        <v>0.311282</v>
+        <v>4.4262000000000003E-2</v>
       </c>
       <c r="G18" s="4">
-        <v>401</v>
+        <v>283</v>
       </c>
       <c r="H18" s="4">
-        <v>0.33296300000000001</v>
+        <v>9.4238000000000002E-2</v>
       </c>
       <c r="I18" s="4">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="J18" s="4">
-        <v>75.510204000000002</v>
+        <v>73.684209999999993</v>
       </c>
       <c r="K18" s="4">
-        <v>0.51439900000000005</v>
+        <v>0.45724700000000001</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="B19" s="9">
-        <v>99.032383999999993</v>
+        <v>100</v>
       </c>
       <c r="C19" s="9">
-        <v>457</v>
+        <v>114</v>
       </c>
       <c r="D19" s="9">
-        <v>97.333332999999996</v>
+        <v>99</v>
       </c>
       <c r="E19" s="9">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="F19" s="9">
-        <v>2.7237999999999998E-2</v>
+        <v>5.8799999999999998E-4</v>
       </c>
       <c r="G19" s="9">
-        <v>468</v>
+        <v>297</v>
       </c>
       <c r="H19" s="9">
-        <v>7.1801000000000004E-2</v>
+        <v>4.0351999999999999E-2</v>
       </c>
       <c r="I19" s="9">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="J19" s="9">
-        <v>65.306121000000005</v>
+        <v>47.368422000000002</v>
       </c>
       <c r="K19" s="9">
-        <v>3.7951929999999998</v>
+        <v>4.7878720000000001</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="B20" s="7">
-        <v>95.336217000000005</v>
+        <v>97.443199000000007</v>
       </c>
       <c r="C20" s="7">
-        <v>492</v>
+        <v>299</v>
       </c>
       <c r="D20" s="7">
-        <v>92.661617000000007</v>
+        <v>97</v>
       </c>
       <c r="E20" s="7">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7">
-        <v>0.119105</v>
+        <v>6.9636000000000003E-2</v>
       </c>
       <c r="G20" s="7">
-        <v>482</v>
+        <v>291</v>
       </c>
       <c r="H20" s="7">
-        <v>0.15870699999999999</v>
+        <v>9.7415000000000002E-2</v>
       </c>
       <c r="I20" s="7">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="J20" s="7">
-        <v>63.265306000000002</v>
+        <v>94.736844000000005</v>
       </c>
       <c r="K20" s="7">
-        <v>4.4128410000000002</v>
+        <v>0.20342499999999999</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="B22" s="11">
-        <v>98.089635000000001</v>
+        <v>97.094363000000001</v>
       </c>
       <c r="C22" s="11">
-        <v>469</v>
+        <v>293</v>
       </c>
       <c r="D22" s="11">
-        <v>97.333332999999996</v>
+        <v>97</v>
       </c>
       <c r="E22" s="11">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="F22" s="11">
-        <v>5.1006999999999997E-2</v>
+        <v>7.6775999999999997E-2</v>
       </c>
       <c r="G22" s="11">
-        <v>469</v>
+        <v>299</v>
       </c>
       <c r="H22" s="11">
-        <v>7.4220999999999995E-2</v>
+        <v>0.10831300000000001</v>
       </c>
       <c r="I22" s="11">
-        <v>116</v>
+        <v>258</v>
       </c>
       <c r="J22" s="11">
-        <v>63.265306000000002</v>
+        <v>94.736844000000005</v>
       </c>
       <c r="K22" s="11">
-        <v>5.8672240000000002</v>
+        <v>0.37784499999999999</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="B23" s="9">
-        <v>98.958004000000003</v>
+        <v>98.953485000000001</v>
       </c>
       <c r="C23" s="4">
-        <v>440</v>
+        <v>227</v>
       </c>
       <c r="D23" s="4">
-        <v>96.444445000000002</v>
+        <v>98</v>
       </c>
       <c r="E23" s="4">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="F23" s="4">
-        <v>3.0374999999999999E-2</v>
+        <v>3.7257999999999999E-2</v>
       </c>
       <c r="G23" s="4">
-        <v>455</v>
+        <v>286</v>
       </c>
       <c r="H23" s="4">
-        <v>8.2133999999999999E-2</v>
+        <v>7.9795000000000005E-2</v>
       </c>
       <c r="I23" s="4">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="J23" s="4">
-        <v>69.387758000000005</v>
+        <v>73.684209999999993</v>
       </c>
       <c r="K23" s="4">
-        <v>2.3231769999999998</v>
+        <v>1.660722</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="B24" s="10">
-        <v>95.212155999999993</v>
+        <v>100</v>
       </c>
       <c r="C24" s="10">
-        <v>471</v>
+        <v>105</v>
       </c>
       <c r="D24" s="10">
-        <v>94.661617000000007</v>
+        <v>99</v>
       </c>
       <c r="E24" s="10">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F24" s="10">
-        <v>0.1169</v>
+        <v>8.1899999999999996E-4</v>
       </c>
       <c r="G24" s="10">
-        <v>474</v>
+        <v>271</v>
       </c>
       <c r="H24" s="10">
-        <v>0.14707999999999999</v>
+        <v>4.4643000000000002E-2</v>
       </c>
       <c r="I24" s="10">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J24" s="10">
-        <v>69.387758000000005</v>
+        <v>52.631580999999997</v>
       </c>
       <c r="K24" s="10">
-        <v>4.8948530000000003</v>
+        <v>8.7655320000000003</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="B26" s="11">
-        <v>98.561161999999996</v>
+        <v>98.722267000000002</v>
       </c>
       <c r="C26" s="11">
-        <v>480</v>
+        <v>269</v>
       </c>
       <c r="D26" s="11">
-        <v>96.888889000000006</v>
+        <v>95</v>
       </c>
       <c r="E26" s="11">
-        <v>242</v>
+        <v>2</v>
       </c>
       <c r="F26" s="11">
-        <v>3.5714999999999997E-2</v>
+        <v>3.8685999999999998E-2</v>
       </c>
       <c r="G26" s="11">
-        <v>453</v>
+        <v>290</v>
       </c>
       <c r="H26" s="11">
-        <v>8.3918000000000006E-2</v>
+        <v>0.10469000000000001</v>
       </c>
       <c r="I26" s="11">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="J26" s="11">
-        <v>63.265306000000002</v>
+        <v>73.684209999999993</v>
       </c>
       <c r="K26" s="11">
-        <v>4.9578280000000001</v>
+        <v>1.7172799999999999</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="B27" s="10">
-        <v>99.950372999999999</v>
+        <v>100</v>
       </c>
       <c r="C27" s="7">
-        <v>411</v>
+        <v>131</v>
       </c>
       <c r="D27" s="7">
-        <v>98.444445000000002</v>
+        <v>99</v>
       </c>
       <c r="E27" s="7">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F27" s="7">
-        <v>3.8449999999999999E-3</v>
+        <v>1.029E-3</v>
       </c>
       <c r="G27" s="7">
-        <v>483</v>
+        <v>283</v>
       </c>
       <c r="H27" s="7">
-        <v>4.5421000000000003E-2</v>
+        <v>5.2417999999999999E-2</v>
       </c>
       <c r="I27" s="7">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="J27" s="7">
-        <v>69.387758000000005</v>
+        <v>47.368422000000002</v>
       </c>
       <c r="K27" s="7">
-        <v>3.6814360000000002</v>
+        <v>7.6514730000000002</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="B29" s="13">
-        <v>99.851113999999995</v>
+        <v>100</v>
       </c>
       <c r="C29" s="13">
-        <v>483</v>
+        <v>189</v>
       </c>
       <c r="D29" s="13">
-        <v>97.777777999999998</v>
+        <v>99</v>
       </c>
       <c r="E29" s="13">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F29" s="13">
-        <v>5.0480000000000004E-3</v>
+        <v>2.317E-3</v>
       </c>
       <c r="G29" s="13">
-        <v>491</v>
+        <v>296</v>
       </c>
       <c r="H29" s="13">
-        <v>6.5882999999999997E-2</v>
+        <v>2.5642999999999999E-2</v>
       </c>
       <c r="I29" s="13">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="J29" s="13">
-        <v>63.265306000000002</v>
+        <v>68.421053999999998</v>
       </c>
       <c r="K29" s="13">
-        <v>3.428239</v>
+        <v>3.6227870000000002</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J4:J9">
-    <cfRule type="top10" dxfId="5" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="17" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J15">
-    <cfRule type="top10" dxfId="4" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J20">
-    <cfRule type="top10" dxfId="3" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="15" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J24">
-    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:J27">
-    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="13" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="1" rank="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.875" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="81" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.875" customWidth="1"/>
+    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9">
+        <v>95.466196999999994</v>
+      </c>
+      <c r="C4" s="9">
+        <v>299</v>
+      </c>
+      <c r="D4" s="9">
+        <v>93.958333999999994</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.111677</v>
+      </c>
+      <c r="G4" s="9">
+        <v>299</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.14343600000000001</v>
+      </c>
+      <c r="I4" s="9">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4">
+        <v>78.947371000000004</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.1415679999999999</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9">
+        <v>60.460258000000003</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>60.460993999999999</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.671149</v>
+      </c>
+      <c r="G5" s="9">
+        <v>296</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.67110499999999995</v>
+      </c>
+      <c r="I5" s="9">
+        <v>200</v>
+      </c>
+      <c r="J5" s="4">
+        <v>47.368422000000002</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.72624299999999997</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9">
+        <v>60.460258000000003</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>60.460993999999999</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.67115100000000005</v>
+      </c>
+      <c r="G6" s="9">
+        <v>81</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.67110700000000001</v>
+      </c>
+      <c r="I6" s="9">
+        <v>208</v>
+      </c>
+      <c r="J6" s="4">
+        <v>47.368422000000002</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.72601899999999997</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9">
+        <v>97.488528000000002</v>
+      </c>
+      <c r="C7" s="9">
+        <v>288</v>
+      </c>
+      <c r="D7" s="9">
+        <v>96.666667000000004</v>
+      </c>
+      <c r="E7" s="9">
+        <v>65</v>
+      </c>
+      <c r="F7" s="9">
+        <v>6.6736000000000004E-2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>280</v>
+      </c>
+      <c r="H7" s="9">
+        <v>9.6264000000000002E-2</v>
+      </c>
+      <c r="I7" s="9">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4">
+        <v>68.421053999999998</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.016051</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>94.675766999999993</v>
+      </c>
+      <c r="C8">
+        <v>286</v>
+      </c>
+      <c r="D8">
+        <v>92.912233999999998</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.13527600000000001</v>
+      </c>
+      <c r="G8">
+        <v>296</v>
+      </c>
+      <c r="H8">
+        <v>0.16001799999999999</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>52.631580999999997</v>
+      </c>
+      <c r="K8">
+        <v>2.0308380000000001</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10">
+        <v>81.564938999999995</v>
+      </c>
+      <c r="C9" s="10">
+        <v>238</v>
+      </c>
+      <c r="D9" s="10">
+        <v>83.266845000000004</v>
+      </c>
+      <c r="E9" s="10">
+        <v>185</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.363479</v>
+      </c>
+      <c r="G9" s="10">
+        <v>271</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.37092399999999998</v>
+      </c>
+      <c r="I9" s="10">
+        <v>117</v>
+      </c>
+      <c r="J9" s="7">
+        <v>78.947371000000004</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1.0784560000000001</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="11">
+        <v>96.535473999999994</v>
+      </c>
+      <c r="C11" s="11">
+        <v>282</v>
+      </c>
+      <c r="D11" s="11">
+        <v>96.032802000000004</v>
+      </c>
+      <c r="E11" s="11">
+        <v>46</v>
+      </c>
+      <c r="F11" s="11">
+        <v>8.8541999999999996E-2</v>
+      </c>
+      <c r="G11" s="11">
+        <v>297</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.104698</v>
+      </c>
+      <c r="I11" s="11">
+        <v>82</v>
+      </c>
+      <c r="J11" s="11">
+        <v>89.473682999999994</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0.65088299999999999</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4">
+        <v>81.030159999999995</v>
+      </c>
+      <c r="C12" s="4">
+        <v>289</v>
+      </c>
+      <c r="D12" s="4">
+        <v>80.766844000000006</v>
+      </c>
+      <c r="E12" s="4">
+        <v>142</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.37537100000000001</v>
+      </c>
+      <c r="G12" s="4">
+        <v>289</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.39810800000000002</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>78.947371000000004</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.88980700000000001</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="9">
+        <v>82.703935999999999</v>
+      </c>
+      <c r="C13" s="9">
+        <v>269</v>
+      </c>
+      <c r="D13" s="9">
+        <v>82.021276999999998</v>
+      </c>
+      <c r="E13" s="9">
+        <v>5</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.34492899999999999</v>
+      </c>
+      <c r="G13" s="9">
+        <v>273</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.35622399999999999</v>
+      </c>
+      <c r="I13" s="9">
+        <v>5</v>
+      </c>
+      <c r="J13" s="9">
+        <v>73.684209999999993</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0.61769200000000002</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="9">
+        <v>98.000108999999995</v>
+      </c>
+      <c r="C14" s="9">
+        <v>288</v>
+      </c>
+      <c r="D14" s="9">
+        <v>95.833332999999996</v>
+      </c>
+      <c r="E14" s="9">
+        <v>9</v>
+      </c>
+      <c r="F14" s="9">
+        <v>5.4882E-2</v>
+      </c>
+      <c r="G14" s="9">
+        <v>299</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.103754</v>
+      </c>
+      <c r="I14" s="9">
+        <v>9</v>
+      </c>
+      <c r="J14" s="9">
+        <v>68.421053999999998</v>
+      </c>
+      <c r="K14" s="9">
+        <v>3.7447379999999999</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="7">
+        <v>94.303732999999994</v>
+      </c>
+      <c r="C15" s="7">
+        <v>292</v>
+      </c>
+      <c r="D15" s="7">
+        <v>92.907801000000006</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.136542</v>
+      </c>
+      <c r="G15" s="7">
+        <v>292</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.15836700000000001</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>63.157891999999997</v>
+      </c>
+      <c r="K15" s="7">
+        <v>2.7281219999999999</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="11">
+        <v>96.674853999999996</v>
+      </c>
+      <c r="C17" s="11">
+        <v>298</v>
+      </c>
+      <c r="D17" s="11">
+        <v>96.250000999999997</v>
+      </c>
+      <c r="E17" s="11">
+        <v>59</v>
+      </c>
+      <c r="F17" s="11">
+        <v>8.0447000000000005E-2</v>
+      </c>
+      <c r="G17" s="11">
+        <v>278</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.106421</v>
+      </c>
+      <c r="I17" s="11">
+        <v>77</v>
+      </c>
+      <c r="J17" s="11">
+        <v>84.210526999999999</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0.695689</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="4">
+        <v>96.837746999999993</v>
+      </c>
+      <c r="C18" s="4">
+        <v>285</v>
+      </c>
+      <c r="D18" s="4">
+        <v>95.625</v>
+      </c>
+      <c r="E18" s="4">
+        <v>81</v>
+      </c>
+      <c r="F18" s="4">
+        <v>8.0449000000000007E-2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>285</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.11538</v>
+      </c>
+      <c r="I18" s="4">
+        <v>164</v>
+      </c>
+      <c r="J18" s="4">
+        <v>89.473682999999994</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.30845800000000001</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="9">
+        <v>96.628283999999994</v>
+      </c>
+      <c r="C19" s="9">
+        <v>285</v>
+      </c>
+      <c r="D19" s="9">
+        <v>95.625</v>
+      </c>
+      <c r="E19" s="9">
+        <v>43</v>
+      </c>
+      <c r="F19" s="9">
+        <v>8.7028999999999995E-2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>289</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.115006</v>
+      </c>
+      <c r="I19" s="9">
+        <v>93</v>
+      </c>
+      <c r="J19" s="9">
+        <v>68.421053999999998</v>
+      </c>
+      <c r="K19" s="9">
+        <v>2.3704830000000001</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="7">
+        <v>95.698815999999994</v>
+      </c>
+      <c r="C20" s="7">
+        <v>275</v>
+      </c>
+      <c r="D20" s="7">
+        <v>94.375</v>
+      </c>
+      <c r="E20" s="7">
+        <v>8</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.101717</v>
+      </c>
+      <c r="G20" s="7">
+        <v>275</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.138936</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>63.157891999999997</v>
+      </c>
+      <c r="K20" s="7">
+        <v>3.2855919999999998</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="11">
+        <v>96.814661999999998</v>
+      </c>
+      <c r="C22" s="11">
+        <v>278</v>
+      </c>
+      <c r="D22" s="11">
+        <v>96.245568000000006</v>
+      </c>
+      <c r="E22" s="11">
+        <v>144</v>
+      </c>
+      <c r="F22" s="11">
+        <v>7.9959000000000002E-2</v>
+      </c>
+      <c r="G22" s="11">
+        <v>297</v>
+      </c>
+      <c r="H22" s="11">
+        <v>9.6239000000000005E-2</v>
+      </c>
+      <c r="I22" s="11">
+        <v>78</v>
+      </c>
+      <c r="J22" s="11">
+        <v>94.736844000000005</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0.23222999999999999</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="9">
+        <v>97.628068999999996</v>
+      </c>
+      <c r="C23" s="4">
+        <v>296</v>
+      </c>
+      <c r="D23" s="4">
+        <v>95</v>
+      </c>
+      <c r="E23" s="4">
+        <v>13</v>
+      </c>
+      <c r="F23" s="4">
+        <v>6.0308E-2</v>
+      </c>
+      <c r="G23" s="4">
+        <v>295</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.11043</v>
+      </c>
+      <c r="I23" s="4">
+        <v>8</v>
+      </c>
+      <c r="J23" s="4">
+        <v>68.421053999999998</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1.8386819999999999</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="10">
+        <v>96.326505999999995</v>
+      </c>
+      <c r="C24" s="10">
+        <v>289</v>
+      </c>
+      <c r="D24" s="10">
+        <v>93.125000999999997</v>
+      </c>
+      <c r="E24" s="10">
+        <v>64</v>
+      </c>
+      <c r="F24" s="10">
+        <v>9.7920999999999994E-2</v>
+      </c>
+      <c r="G24" s="10">
+        <v>293</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0.13261100000000001</v>
+      </c>
+      <c r="I24" s="10">
+        <v>6</v>
+      </c>
+      <c r="J24" s="10">
+        <v>68.421053999999998</v>
+      </c>
+      <c r="K24" s="10">
+        <v>3.1164719999999999</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="11">
+        <v>97.023803000000001</v>
+      </c>
+      <c r="C26" s="11">
+        <v>290</v>
+      </c>
+      <c r="D26" s="11">
+        <v>95.833332999999996</v>
+      </c>
+      <c r="E26" s="11">
+        <v>6</v>
+      </c>
+      <c r="F26" s="11">
+        <v>7.2937000000000002E-2</v>
+      </c>
+      <c r="G26" s="11">
+        <v>287</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0.111632</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <v>78.947371000000004</v>
+      </c>
+      <c r="K26" s="11">
+        <v>3.6173790000000001</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A27" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="10">
+        <v>96.117037999999994</v>
+      </c>
+      <c r="C27" s="7">
+        <v>299</v>
+      </c>
+      <c r="D27" s="7">
+        <v>93.541667000000004</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2</v>
+      </c>
+      <c r="F27" s="7">
+        <v>9.7206000000000001E-2</v>
+      </c>
+      <c r="G27" s="7">
+        <v>296</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0.140766</v>
+      </c>
+      <c r="I27" s="7">
+        <v>2</v>
+      </c>
+      <c r="J27" s="7">
+        <v>68.421053999999998</v>
+      </c>
+      <c r="K27" s="7">
+        <v>4.3403729999999996</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A29" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="13">
+        <v>99.814003999999997</v>
+      </c>
+      <c r="C29" s="13">
+        <v>272</v>
+      </c>
+      <c r="D29" s="13">
+        <v>97.708332999999996</v>
+      </c>
+      <c r="E29" s="13">
+        <v>90</v>
+      </c>
+      <c r="F29" s="13">
+        <v>1.0984000000000001E-2</v>
+      </c>
+      <c r="G29" s="13">
+        <v>279</v>
+      </c>
+      <c r="H29" s="13">
+        <v>5.7235000000000001E-2</v>
+      </c>
+      <c r="I29" s="13">
+        <v>97</v>
+      </c>
+      <c r="J29" s="13">
+        <v>68.421053999999998</v>
+      </c>
+      <c r="K29" s="13">
+        <v>1.196421</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="J4:J9">
+    <cfRule type="top10" dxfId="11" priority="6" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J15">
+    <cfRule type="top10" dxfId="10" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:J20">
+    <cfRule type="top10" dxfId="9" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:J24">
+    <cfRule type="top10" dxfId="8" priority="3" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J27">
+    <cfRule type="top10" dxfId="7" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="top10" dxfId="6" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/verification.xlsx
+++ b/verification.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
-    <sheet name="FSS-keshimi" sheetId="5" r:id="rId2"/>
-    <sheet name="FSS-gomata" sheetId="4" r:id="rId3"/>
-    <sheet name="FSS-ekutsu" sheetId="2" r:id="rId4"/>
+    <sheet name="FSS-kutose" sheetId="6" r:id="rId2"/>
+    <sheet name="FSS-keshimi" sheetId="5" r:id="rId3"/>
+    <sheet name="FSS-gomata" sheetId="4" r:id="rId4"/>
+    <sheet name="FSS-ekutsu" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="194">
   <si>
     <t>特徴量</t>
     <rPh sb="0" eb="2">
@@ -584,6 +585,180 @@
       <t>シュホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mfcc_mlp_2020-04-12_final01_71.4%.h5</t>
+  </si>
+  <si>
+    <t>score_mlp_2020-04-12_final03_42.9%.h5</t>
+  </si>
+  <si>
+    <t>frame_mlp_2020-04-12_final03_42.9%.h5</t>
+  </si>
+  <si>
+    <t>dtw_mlp_2020-04-12_final01_28.6%.h5</t>
+  </si>
+  <si>
+    <t>formant_mlp_2020-04-12_final01_57.1%.h5</t>
+  </si>
+  <si>
+    <t>segmentation_mlp_2020-04-12_final03_71.4%.h5</t>
+  </si>
+  <si>
+    <t>Frame+MFCC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Frame+Score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Frame+DTW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Frame+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Frame+Segmentation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> frame+mfcc_mlp_2020-04-12_final08_100.0%.h5</t>
+  </si>
+  <si>
+    <t>frame+score_mlp_2020-04-12_final03_42.9%.h5</t>
+  </si>
+  <si>
+    <t>frame+dtw_mlp_2020-04-12_final04_100.0%.h5</t>
+  </si>
+  <si>
+    <t>frame+formant_mlp_2020-04-12_final09_83.3%.h5</t>
+  </si>
+  <si>
+    <t>frame+segmentation_mlp_2020-04-12_final02_100.0%.h5</t>
+  </si>
+  <si>
+    <t>Frame+Score+MFCC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Frame+Score+DTW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Frame+Score+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Frame+Score+Segmentation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>frame+score+mfcc_mlp_2020-04-12_final01_71.4%.h5</t>
+  </si>
+  <si>
+    <t>frame+score+dtw_mlp_2020-04-12_final01_57.1%.h5</t>
+  </si>
+  <si>
+    <t>frame+score+formant_mlp_2020-04-12_final02_57.1%.h5</t>
+  </si>
+  <si>
+    <t>frame+score+segmentation_mlp_2020-04-12_final07_83.3%.h5</t>
+  </si>
+  <si>
+    <t>Frame+Score+Segmentation+MFCC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Frame+Score+Segmentation+DTW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Frame+Score+Segmentation+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>frame+score+segmentation+mfcc_mlp_2020-04-12_final01_85.7%.h5</t>
+  </si>
+  <si>
+    <t>frame+score+segmentation+dtw_mlp_2020-04-12_final05_100.0%.h5</t>
+  </si>
+  <si>
+    <t>frame+score+segmentation+formant_mlp_2020-04-12_final02_71.4%.h5</t>
+  </si>
+  <si>
+    <t>Frame+Score+Segmentation+MFCC+DTW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Frame+Score+Segmentation+MFCC+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>frame+score+segmentation+mfcc+dtw_mlp_2020-04-12_final01_42.9%.h5</t>
+  </si>
+  <si>
+    <t>frame+score+segmentation+mfcc+formant_mlp_2020-04-12_final04_66.7%.h5</t>
+  </si>
+  <si>
+    <t>Frame+Score+Segmentation+MFCC+DTW+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> frame+score+segmentation+mfcc+dtw+formant_mlp_2020-04-12_final02_100.0%.h5</t>
+  </si>
+  <si>
+    <t>FSS手法（kutose）</t>
+    <rPh sb="3" eb="5">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mfcc_mlp_2020-04-12_final02_75.0%.h5</t>
+  </si>
+  <si>
+    <t>score_mlp_2020-04-12_final01_62.5%.h5</t>
+  </si>
+  <si>
+    <t>frame_mlp_2020-04-12_final01_62.5%.h5</t>
+  </si>
+  <si>
+    <t>dtw_mlp_2020-04-12_final08_100.0%.h5</t>
+  </si>
+  <si>
+    <t>formant_mlp_2020-04-12_final02_100.0%.h5</t>
+  </si>
+  <si>
+    <t>segmentation_mlp_2020-04-12_final01_87.5%.h5</t>
+  </si>
+  <si>
+    <t>MFCC+Score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> mfcc+score_mlp_2020-04-12_final02_75.0%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+frame_mlp_2020-04-12_final01_50.0%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+dtw_mlp_2020-04-12_final05_100.0%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+formant_mlp_2020-04-12_final04_100.0%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+segmentation_mlp_2020-04-12_final01_50.0%.h5</t>
+  </si>
+  <si>
+    <t>MFCC+Frame+Segmentation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mfcc+frame+score_mlp_2020-04-12_final02_62.5%.h5</t>
   </si>
 </sst>
 </file>
@@ -763,7 +938,49 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2461,8 +2678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2492,7 +2709,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
@@ -2542,168 +2759,430 @@
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5"/>
+      <c r="B4" s="9">
+        <v>93.880594000000002</v>
+      </c>
+      <c r="C4" s="9">
+        <v>294</v>
+      </c>
+      <c r="D4" s="9">
+        <v>88.75</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.151448</v>
+      </c>
+      <c r="G4" s="9">
+        <v>281</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.231438</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>73.684209999999993</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.53095899999999996</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="5"/>
+      <c r="B5" s="9">
+        <v>62.666809999999998</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>62.678573</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.66071899999999995</v>
+      </c>
+      <c r="G5" s="9">
+        <v>285</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.66150399999999998</v>
+      </c>
+      <c r="I5" s="9">
+        <v>206</v>
+      </c>
+      <c r="J5" s="4">
+        <v>47.368422000000002</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.730881</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
+      <c r="B6" s="9">
+        <v>62.666809999999998</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>62.678573</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.66073700000000002</v>
+      </c>
+      <c r="G6" s="9">
+        <v>296</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.66177699999999995</v>
+      </c>
+      <c r="I6" s="9">
+        <v>263</v>
+      </c>
+      <c r="J6" s="4">
+        <v>47.368422000000002</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.73018300000000003</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
+      <c r="B7" s="9">
+        <v>98.658912999999998</v>
+      </c>
+      <c r="C7" s="9">
+        <v>279</v>
+      </c>
+      <c r="D7" s="9">
+        <v>95</v>
+      </c>
+      <c r="E7" s="9">
+        <v>71</v>
+      </c>
+      <c r="F7" s="9">
+        <v>4.4415000000000003E-2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>296</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.117849</v>
+      </c>
+      <c r="I7" s="9">
+        <v>6</v>
+      </c>
+      <c r="J7" s="4">
+        <v>63.157891999999997</v>
+      </c>
+      <c r="K7" s="4">
+        <v>4.5217460000000003</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="5"/>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>94</v>
+      </c>
+      <c r="D8">
+        <v>98.75</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>1.513E-3</v>
+      </c>
+      <c r="G8">
+        <v>295</v>
+      </c>
+      <c r="H8">
+        <v>4.0429E-2</v>
+      </c>
+      <c r="I8">
+        <v>78</v>
+      </c>
+      <c r="J8">
+        <v>68.421053999999998</v>
+      </c>
+      <c r="K8">
+        <v>2.7366670000000002</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
+      <c r="B9" s="10">
+        <v>88.867425999999995</v>
+      </c>
+      <c r="C9" s="10">
+        <v>227</v>
+      </c>
+      <c r="D9" s="10">
+        <v>86.071428999999995</v>
+      </c>
+      <c r="E9" s="10">
+        <v>3</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.25607000000000002</v>
+      </c>
+      <c r="G9" s="10">
+        <v>260</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.282636</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>68.421053999999998</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.59016199999999996</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="11">
+        <v>94.034243000000004</v>
+      </c>
+      <c r="C11" s="11">
+        <v>290</v>
+      </c>
+      <c r="D11" s="11">
+        <v>93.75</v>
+      </c>
+      <c r="E11" s="11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.15401400000000001</v>
+      </c>
+      <c r="G11" s="11">
+        <v>278</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.190105</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>73.684209999999993</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0.53987700000000005</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="5"/>
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="4">
+        <v>95.673834999999997</v>
+      </c>
+      <c r="C12" s="4">
+        <v>279</v>
+      </c>
+      <c r="D12" s="4">
+        <v>92.5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.11970699999999999</v>
+      </c>
+      <c r="G12" s="4">
+        <v>279</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.19437299999999999</v>
+      </c>
+      <c r="I12" s="4">
+        <v>9</v>
+      </c>
+      <c r="J12" s="4">
+        <v>84.210526999999999</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.50683800000000001</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="5"/>
+      <c r="A13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="9">
+        <v>99.402981999999994</v>
+      </c>
+      <c r="C13" s="9">
+        <v>290</v>
+      </c>
+      <c r="D13" s="9">
+        <v>96.25</v>
+      </c>
+      <c r="E13" s="9">
+        <v>132</v>
+      </c>
+      <c r="F13" s="9">
+        <v>3.4668999999999998E-2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>290</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.105894</v>
+      </c>
+      <c r="I13" s="9">
+        <v>10</v>
+      </c>
+      <c r="J13" s="9">
+        <v>63.157891999999997</v>
+      </c>
+      <c r="K13" s="9">
+        <v>3.9723869999999999</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="5"/>
+      <c r="A14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="9">
+        <v>100</v>
+      </c>
+      <c r="C14" s="9">
+        <v>119</v>
+      </c>
+      <c r="D14" s="9">
+        <v>97.5</v>
+      </c>
+      <c r="E14" s="9">
+        <v>3</v>
+      </c>
+      <c r="F14" s="9">
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="G14" s="9">
+        <v>295</v>
+      </c>
+      <c r="H14" s="9">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="I14" s="9">
+        <v>4</v>
+      </c>
+      <c r="J14" s="9">
+        <v>68.421053999999998</v>
+      </c>
+      <c r="K14" s="9">
+        <v>3.640549</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="8"/>
+      <c r="A15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="7">
+        <v>96.417916000000005</v>
+      </c>
+      <c r="C15" s="7">
+        <v>293</v>
+      </c>
+      <c r="D15" s="7">
+        <v>92.5</v>
+      </c>
+      <c r="E15" s="7">
+        <v>31</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.10219399999999999</v>
+      </c>
+      <c r="G15" s="7">
+        <v>290</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.199013</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>78.947371000000004</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.52136000000000005</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>191</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -2725,23 +3204,49 @@
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="2"/>
+      <c r="A17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="11">
+        <v>93.884992999999994</v>
+      </c>
+      <c r="C17" s="11">
+        <v>299</v>
+      </c>
+      <c r="D17" s="11">
+        <v>91.25</v>
+      </c>
+      <c r="E17" s="11">
+        <v>63</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.14943799999999999</v>
+      </c>
+      <c r="G17" s="11">
+        <v>293</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.21970200000000001</v>
+      </c>
+      <c r="I17" s="11">
+        <v>4</v>
+      </c>
+      <c r="J17" s="11">
+        <v>89.473682999999994</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0.43857299999999999</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2755,7 +3260,9 @@
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -2769,7 +3276,9 @@
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="6"/>
+      <c r="A20" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2869,22 +3378,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J4:J9">
-    <cfRule type="top10" dxfId="5" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="23" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J15">
-    <cfRule type="top10" dxfId="4" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J20">
-    <cfRule type="top10" dxfId="3" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="21" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J24">
-    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:J27">
-    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="19" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2892,6 +3401,940 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.875" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="81" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.875" customWidth="1"/>
+    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9">
+        <v>97.321430000000007</v>
+      </c>
+      <c r="C4" s="9">
+        <v>274</v>
+      </c>
+      <c r="D4" s="9">
+        <v>98.571428999999995</v>
+      </c>
+      <c r="E4" s="9">
+        <v>20</v>
+      </c>
+      <c r="F4" s="9">
+        <v>7.8755000000000006E-2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>292</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.101102</v>
+      </c>
+      <c r="I4" s="9">
+        <v>68</v>
+      </c>
+      <c r="J4" s="4">
+        <v>66.666668999999999</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.67117199999999999</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9">
+        <v>50.792611000000001</v>
+      </c>
+      <c r="C5" s="9">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4">
+        <v>50.714286000000001</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.69300700000000004</v>
+      </c>
+      <c r="G5" s="9">
+        <v>146</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.69326399999999999</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>100</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.66207899999999997</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9">
+        <v>50.792611000000001</v>
+      </c>
+      <c r="C6" s="9">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4">
+        <v>50.714286000000001</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.69300600000000001</v>
+      </c>
+      <c r="G6" s="9">
+        <v>284</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.69330400000000003</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>100</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.65888500000000005</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9">
+        <v>99.821436000000006</v>
+      </c>
+      <c r="C7" s="9">
+        <v>272</v>
+      </c>
+      <c r="D7" s="9">
+        <v>98.571428999999995</v>
+      </c>
+      <c r="E7" s="9">
+        <v>8</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1.3932E-2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>295</v>
+      </c>
+      <c r="H7" s="9">
+        <v>6.1252000000000001E-2</v>
+      </c>
+      <c r="I7" s="9">
+        <v>68</v>
+      </c>
+      <c r="J7" s="4">
+        <v>66.666668999999999</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.69619699999999995</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>99.464285000000004</v>
+      </c>
+      <c r="C8">
+        <v>186</v>
+      </c>
+      <c r="D8">
+        <v>94.285714999999996</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>2.6311999999999999E-2</v>
+      </c>
+      <c r="G8">
+        <v>278</v>
+      </c>
+      <c r="H8">
+        <v>0.11330800000000001</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>55.555557999999998</v>
+      </c>
+      <c r="K8">
+        <v>4.2817530000000001</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10">
+        <v>86.541354999999996</v>
+      </c>
+      <c r="C9" s="10">
+        <v>211</v>
+      </c>
+      <c r="D9" s="10">
+        <v>84.523809999999997</v>
+      </c>
+      <c r="E9" s="10">
+        <v>30</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.32611699999999999</v>
+      </c>
+      <c r="G9" s="10">
+        <v>293</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.40124399999999999</v>
+      </c>
+      <c r="I9" s="10">
+        <v>10</v>
+      </c>
+      <c r="J9" s="7">
+        <v>88.888890000000004</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.39247799999999999</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="11">
+        <v>97.152251000000007</v>
+      </c>
+      <c r="C11" s="11">
+        <v>271</v>
+      </c>
+      <c r="D11" s="11">
+        <v>97.142857000000006</v>
+      </c>
+      <c r="E11" s="11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="11">
+        <v>8.2825999999999997E-2</v>
+      </c>
+      <c r="G11" s="11">
+        <v>283</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.117122</v>
+      </c>
+      <c r="I11" s="11">
+        <v>4</v>
+      </c>
+      <c r="J11" s="11">
+        <v>66.666668999999999</v>
+      </c>
+      <c r="K11" s="11">
+        <v>2.1336979999999999</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="4">
+        <v>52.756894000000003</v>
+      </c>
+      <c r="C12" s="4">
+        <v>150</v>
+      </c>
+      <c r="D12" s="4">
+        <v>50.714286000000001</v>
+      </c>
+      <c r="E12" s="4">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.69219399999999998</v>
+      </c>
+      <c r="G12" s="4">
+        <v>41</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.69284900000000005</v>
+      </c>
+      <c r="I12" s="4">
+        <v>25</v>
+      </c>
+      <c r="J12" s="4">
+        <v>100</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.65734999999999999</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="9">
+        <v>99.464285000000004</v>
+      </c>
+      <c r="C13" s="9">
+        <v>292</v>
+      </c>
+      <c r="D13" s="9">
+        <v>98.571428999999995</v>
+      </c>
+      <c r="E13" s="9">
+        <v>3</v>
+      </c>
+      <c r="F13" s="9">
+        <v>2.3614E-2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>292</v>
+      </c>
+      <c r="H13" s="9">
+        <v>9.1331999999999997E-2</v>
+      </c>
+      <c r="I13" s="9">
+        <v>7</v>
+      </c>
+      <c r="J13" s="9">
+        <v>55.555557999999998</v>
+      </c>
+      <c r="K13" s="9">
+        <v>3.217438</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="9">
+        <v>99.288844999999995</v>
+      </c>
+      <c r="C14" s="9">
+        <v>299</v>
+      </c>
+      <c r="D14" s="9">
+        <v>94.285714999999996</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>3.3494999999999997E-2</v>
+      </c>
+      <c r="G14" s="9">
+        <v>299</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.10927000000000001</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>66.666668999999999</v>
+      </c>
+      <c r="K14" s="9">
+        <v>13.23906</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="7">
+        <v>86.015034</v>
+      </c>
+      <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>86.428571000000005</v>
+      </c>
+      <c r="E15" s="7">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.31864599999999998</v>
+      </c>
+      <c r="G15" s="7">
+        <v>285</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.32757700000000001</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2</v>
+      </c>
+      <c r="J15" s="7">
+        <v>88.888890000000004</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.506073</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="11">
+        <v>98.035717000000005</v>
+      </c>
+      <c r="C17" s="11">
+        <v>288</v>
+      </c>
+      <c r="D17" s="11">
+        <v>97.142857000000006</v>
+      </c>
+      <c r="E17" s="11">
+        <v>37</v>
+      </c>
+      <c r="F17" s="11">
+        <v>8.1018000000000007E-2</v>
+      </c>
+      <c r="G17" s="11">
+        <v>288</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.15609600000000001</v>
+      </c>
+      <c r="I17" s="11">
+        <v>22</v>
+      </c>
+      <c r="J17" s="11">
+        <v>77.777778999999995</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0.39181500000000002</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="4">
+        <v>99.288844999999995</v>
+      </c>
+      <c r="C18" s="4">
+        <v>294</v>
+      </c>
+      <c r="D18" s="4">
+        <v>95.714286000000001</v>
+      </c>
+      <c r="E18" s="4">
+        <v>68</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3.2508000000000002E-2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>280</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.111023</v>
+      </c>
+      <c r="I18" s="4">
+        <v>8</v>
+      </c>
+      <c r="J18" s="4">
+        <v>66.666668999999999</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.76087700000000003</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="9">
+        <v>99.291979999999995</v>
+      </c>
+      <c r="C19" s="9">
+        <v>290</v>
+      </c>
+      <c r="D19" s="9">
+        <v>95.714286000000001</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <v>3.1078999999999999E-2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>276</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.111719</v>
+      </c>
+      <c r="I19" s="9">
+        <v>2</v>
+      </c>
+      <c r="J19" s="9">
+        <v>55.555557999999998</v>
+      </c>
+      <c r="K19" s="9">
+        <v>5.1164969999999999</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="7">
+        <v>87.268174000000002</v>
+      </c>
+      <c r="C20" s="7">
+        <v>297</v>
+      </c>
+      <c r="D20" s="7">
+        <v>83.809523999999996</v>
+      </c>
+      <c r="E20" s="7">
+        <v>103</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.31570300000000001</v>
+      </c>
+      <c r="G20" s="7">
+        <v>277</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.31822499999999998</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>88.888890000000004</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0.37719799999999998</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="11">
+        <v>98.035717000000005</v>
+      </c>
+      <c r="C22" s="11">
+        <v>288</v>
+      </c>
+      <c r="D22" s="11">
+        <v>95.714286000000001</v>
+      </c>
+      <c r="E22" s="11">
+        <v>67</v>
+      </c>
+      <c r="F22" s="11">
+        <v>7.2132000000000002E-2</v>
+      </c>
+      <c r="G22" s="11">
+        <v>288</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0.126531</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <v>66.666668999999999</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0.76552799999999999</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="9">
+        <v>99.285715999999994</v>
+      </c>
+      <c r="C23" s="4">
+        <v>270</v>
+      </c>
+      <c r="D23" s="4">
+        <v>100</v>
+      </c>
+      <c r="E23" s="4">
+        <v>153</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3.7297999999999998E-2</v>
+      </c>
+      <c r="G23" s="4">
+        <v>289</v>
+      </c>
+      <c r="H23" s="4">
+        <v>4.6434000000000003E-2</v>
+      </c>
+      <c r="I23" s="4">
+        <v>298</v>
+      </c>
+      <c r="J23" s="4">
+        <v>66.666668999999999</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2.0414759999999998</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="10">
+        <v>99.467421000000002</v>
+      </c>
+      <c r="C24" s="10">
+        <v>227</v>
+      </c>
+      <c r="D24" s="10">
+        <v>95.714286000000001</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
+        <v>2.4492E-2</v>
+      </c>
+      <c r="G24" s="10">
+        <v>266</v>
+      </c>
+      <c r="H24" s="10">
+        <v>8.7351999999999999E-2</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <v>66.666668999999999</v>
+      </c>
+      <c r="K24" s="10">
+        <v>5.8941730000000003</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="11">
+        <v>99.821436000000006</v>
+      </c>
+      <c r="C26" s="11">
+        <v>299</v>
+      </c>
+      <c r="D26" s="11">
+        <v>94.285714999999996</v>
+      </c>
+      <c r="E26" s="11">
+        <v>4</v>
+      </c>
+      <c r="F26" s="11">
+        <v>2.6776000000000001E-2</v>
+      </c>
+      <c r="G26" s="11">
+        <v>268</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0.108463</v>
+      </c>
+      <c r="I26" s="11">
+        <v>42</v>
+      </c>
+      <c r="J26" s="11">
+        <v>77.777778999999995</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0.320766</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A27" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="10">
+        <v>99.642860999999996</v>
+      </c>
+      <c r="C27" s="7">
+        <v>225</v>
+      </c>
+      <c r="D27" s="7">
+        <v>95.714286000000001</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1.7798000000000001E-2</v>
+      </c>
+      <c r="G27" s="7">
+        <v>274</v>
+      </c>
+      <c r="H27" s="7">
+        <v>9.5001000000000002E-2</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
+        <v>66.666668999999999</v>
+      </c>
+      <c r="K27" s="7">
+        <v>5.2759840000000002</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A29" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="13">
+        <v>100</v>
+      </c>
+      <c r="C29" s="13">
+        <v>140</v>
+      </c>
+      <c r="D29" s="13">
+        <v>97.142857000000006</v>
+      </c>
+      <c r="E29" s="13">
+        <v>3</v>
+      </c>
+      <c r="F29" s="13">
+        <v>6.4800000000000003E-4</v>
+      </c>
+      <c r="G29" s="13">
+        <v>285</v>
+      </c>
+      <c r="H29" s="13">
+        <v>6.9529999999999995E-2</v>
+      </c>
+      <c r="I29" s="13">
+        <v>4</v>
+      </c>
+      <c r="J29" s="13">
+        <v>66.666668999999999</v>
+      </c>
+      <c r="K29" s="13">
+        <v>5.0722449999999997</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="J4:J9">
+    <cfRule type="top10" dxfId="17" priority="6" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J15">
+    <cfRule type="top10" dxfId="16" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:J20">
+    <cfRule type="top10" dxfId="15" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:J24">
+    <cfRule type="top10" dxfId="14" priority="3" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J27">
+    <cfRule type="top10" dxfId="13" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="top10" dxfId="12" priority="1" rank="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
@@ -3805,29 +5248,29 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J4:J9">
-    <cfRule type="top10" dxfId="17" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="11" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J15">
-    <cfRule type="top10" dxfId="16" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J20">
-    <cfRule type="top10" dxfId="15" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J24">
-    <cfRule type="top10" dxfId="14" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:J27">
-    <cfRule type="top10" dxfId="13" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="top10" dxfId="12" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
@@ -4739,22 +6182,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J4:J9">
-    <cfRule type="top10" dxfId="11" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J15">
-    <cfRule type="top10" dxfId="10" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J20">
-    <cfRule type="top10" dxfId="9" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J24">
-    <cfRule type="top10" dxfId="8" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:J27">
-    <cfRule type="top10" dxfId="7" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="top10" dxfId="6" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/verification.xlsx
+++ b/verification.xlsx
@@ -8,10 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
-    <sheet name="FSS-kutose" sheetId="6" r:id="rId2"/>
-    <sheet name="FSS-keshimi" sheetId="5" r:id="rId3"/>
-    <sheet name="FSS-gomata" sheetId="4" r:id="rId4"/>
-    <sheet name="FSS-ekutsu" sheetId="2" r:id="rId5"/>
+    <sheet name="FSS-mataa" sheetId="7" r:id="rId2"/>
+    <sheet name="FSS-kutose" sheetId="6" r:id="rId3"/>
+    <sheet name="FSS-keshimi" sheetId="5" r:id="rId4"/>
+    <sheet name="FSS-gomata" sheetId="4" r:id="rId5"/>
+    <sheet name="FSS-ekutsu" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="230">
   <si>
     <t>特徴量</t>
     <rPh sb="0" eb="2">
@@ -570,9 +571,6 @@
     <t>mfcc+frame+segmentation+score+dtw_mlp_2020-04-12_final06_100.0%.h5</t>
   </si>
   <si>
-    <t>mfcc+frame+segmentation+score+formant_mlp_2020-04-12_final03_100.0%.h5</t>
-  </si>
-  <si>
     <t>MFCC+Frame+Segmentation+Score+DTW+Formant</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -602,9 +600,6 @@
     <t>formant_mlp_2020-04-12_final01_57.1%.h5</t>
   </si>
   <si>
-    <t>segmentation_mlp_2020-04-12_final03_71.4%.h5</t>
-  </si>
-  <si>
     <t>Frame+MFCC</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -759,6 +754,139 @@
   </si>
   <si>
     <t>mfcc+frame+score_mlp_2020-04-12_final02_62.5%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+frame+dtw_mlp_2020-04-13_final03_87.5%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+frame+formant_mlp_2020-04-13_final03_100.0%.h5</t>
+  </si>
+  <si>
+    <t>MFCC+Frame+Score+DTW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFCC+Frame+Score+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFCC+Frame+Score+Segmentation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mfcc+frame+score+dtw_mlp_2020-04-13_final02_62.5%.h5</t>
+  </si>
+  <si>
+    <t>MFCC+Frame+Score+Segmentation+DTW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFCC+Frame+Score+Segmentation+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mfcc+frame+score+segmentation+dtw_mlp_2020-04-13_final02_87.5%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+frame+segmentation_mlp_2020-04-13_final09_100.0%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+frame+score+formant_mlp_2020-04-13_final01_62.5%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+frame+score+segmentation_mlp_2020-04-13_final02_25.0%.h5</t>
+  </si>
+  <si>
+    <t>MFCC+Frame+Score+Segmentation+Formant+DTW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mfcc+frame+score+segmentation+formant+dtw_mlp_2020-04-13_final05_100.0%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+frame+score+segmentation+formant_mlp_2020-04-13_final06_100.0%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+frame+segmentation+score+formant_mlp_2020-04-13_final10_100.0%.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> segmentation_mlp_2020-04-13_final07_100.0%.h5</t>
+  </si>
+  <si>
+    <t>FSS手法（mataa）</t>
+    <rPh sb="3" eb="5">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mfcc_mlp_2020-04-13_final05_100.0%.h5</t>
+  </si>
+  <si>
+    <t>score_mlp_2020-04-13_final07_52.9%.h5</t>
+  </si>
+  <si>
+    <t>frame_mlp_2020-04-13_final10_56.2%.h5</t>
+  </si>
+  <si>
+    <t>dtw_mlp_2020-04-13_final08_100.0%.h5</t>
+  </si>
+  <si>
+    <t>formant_mlp_2020-04-13_final06_100.0%.h5</t>
+  </si>
+  <si>
+    <t>segmentation_mlp_2020-04-13_final05_94.1%.h5</t>
+  </si>
+  <si>
+    <t>MFCC+Score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFCC+Frame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFCC+DTW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFCC+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFCC+Segmentation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mfcc+score_mlp_2020-04-13_final02_76.5%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+frame_mlp_2020-04-13_final02_88.2%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+dtw_mlp_2020-04-13_final06_100.0%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+formant_mlp_2020-04-13_final07_100.0%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+segmentation_mlp_2020-04-13_final01_70.6%.h5</t>
+  </si>
+  <si>
+    <t>MFCC+Frame+Score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFCC+Frame+DTW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFCC+Frame+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFCC+Frame+Segmentation</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -918,7 +1046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -934,11 +1062,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2678,8 +2851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2709,7 +2882,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
@@ -2760,37 +2933,37 @@
         <v>10</v>
       </c>
       <c r="B4" s="9">
-        <v>93.880594000000002</v>
+        <v>97.500432000000004</v>
       </c>
       <c r="C4" s="9">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D4" s="9">
-        <v>88.75</v>
+        <v>95.882352999999995</v>
       </c>
       <c r="E4" s="9">
-        <v>1</v>
+        <v>279</v>
       </c>
       <c r="F4" s="9">
-        <v>0.151448</v>
+        <v>6.7228999999999997E-2</v>
       </c>
       <c r="G4" s="9">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="H4" s="9">
-        <v>0.231438</v>
+        <v>0.110337</v>
       </c>
       <c r="I4" s="9">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="J4" s="4">
-        <v>73.684209999999993</v>
+        <v>84.210526999999999</v>
       </c>
       <c r="K4" s="4">
-        <v>0.53095899999999996</v>
+        <v>0.42875999999999997</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
@@ -2798,37 +2971,37 @@
         <v>8</v>
       </c>
       <c r="B5" s="9">
-        <v>62.666809999999998</v>
+        <v>53.254640000000002</v>
       </c>
       <c r="C5" s="9">
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>62.678573</v>
+        <v>53.272061000000001</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
       </c>
       <c r="F5" s="9">
-        <v>0.66071899999999995</v>
+        <v>0.69106199999999995</v>
       </c>
       <c r="G5" s="9">
-        <v>285</v>
+        <v>112</v>
       </c>
       <c r="H5" s="9">
-        <v>0.66150399999999998</v>
+        <v>0.69101000000000001</v>
       </c>
       <c r="I5" s="9">
-        <v>206</v>
+        <v>50</v>
       </c>
       <c r="J5" s="4">
         <v>47.368422000000002</v>
       </c>
       <c r="K5" s="4">
-        <v>0.730881</v>
+        <v>0.69853399999999999</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
@@ -2836,37 +3009,37 @@
         <v>9</v>
       </c>
       <c r="B6" s="9">
-        <v>62.666809999999998</v>
+        <v>53.254640000000002</v>
       </c>
       <c r="C6" s="9">
         <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>62.678573</v>
+        <v>53.272061000000001</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
       </c>
       <c r="F6" s="9">
-        <v>0.66073700000000002</v>
+        <v>0.69107099999999999</v>
       </c>
       <c r="G6" s="9">
-        <v>296</v>
+        <v>160</v>
       </c>
       <c r="H6" s="9">
-        <v>0.66177699999999995</v>
+        <v>0.69103700000000001</v>
       </c>
       <c r="I6" s="9">
-        <v>263</v>
+        <v>61</v>
       </c>
       <c r="J6" s="4">
         <v>47.368422000000002</v>
       </c>
       <c r="K6" s="4">
-        <v>0.73018300000000003</v>
+        <v>0.69802200000000003</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
@@ -2874,37 +3047,37 @@
         <v>11</v>
       </c>
       <c r="B7" s="9">
-        <v>98.658912999999998</v>
+        <v>98.289472000000004</v>
       </c>
       <c r="C7" s="9">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="D7" s="9">
-        <v>95</v>
+        <v>95.882352999999995</v>
       </c>
       <c r="E7" s="9">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F7" s="9">
-        <v>4.4415000000000003E-2</v>
+        <v>5.1365000000000001E-2</v>
       </c>
       <c r="G7" s="9">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="H7" s="9">
-        <v>0.117849</v>
+        <v>0.106845</v>
       </c>
       <c r="I7" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>63.157891999999997</v>
+        <v>73.684209999999993</v>
       </c>
       <c r="K7" s="4">
-        <v>4.5217460000000003</v>
+        <v>2.8107129999999998</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
@@ -2912,37 +3085,37 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>99.736845000000002</v>
       </c>
       <c r="C8">
-        <v>94</v>
+        <v>249</v>
       </c>
       <c r="D8">
-        <v>98.75</v>
-      </c>
-      <c r="E8">
-        <v>14</v>
+        <v>95.882352999999995</v>
+      </c>
+      <c r="E8" s="9">
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>1.513E-3</v>
+        <v>1.5886000000000001E-2</v>
       </c>
       <c r="G8">
         <v>295</v>
       </c>
       <c r="H8">
-        <v>4.0429E-2</v>
+        <v>7.5493000000000005E-2</v>
       </c>
       <c r="I8">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>68.421053999999998</v>
+        <v>63.157891999999997</v>
       </c>
       <c r="K8">
-        <v>2.7366670000000002</v>
+        <v>4.673826</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
@@ -2950,115 +3123,115 @@
         <v>22</v>
       </c>
       <c r="B9" s="10">
-        <v>88.867425999999995</v>
+        <v>78.889751000000004</v>
       </c>
       <c r="C9" s="10">
-        <v>227</v>
+        <v>296</v>
       </c>
       <c r="D9" s="10">
-        <v>86.071428999999995</v>
+        <v>79.926472000000004</v>
       </c>
       <c r="E9" s="10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F9" s="10">
-        <v>0.25607000000000002</v>
+        <v>0.441139</v>
       </c>
       <c r="G9" s="10">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="H9" s="10">
-        <v>0.282636</v>
+        <v>0.455731</v>
       </c>
       <c r="I9" s="10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J9" s="7">
-        <v>68.421053999999998</v>
+        <v>73.684209999999993</v>
       </c>
       <c r="K9" s="7">
-        <v>0.59016199999999996</v>
+        <v>0.553149</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="B11" s="11">
-        <v>94.034243000000004</v>
+        <v>97.632014999999996</v>
       </c>
       <c r="C11" s="11">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D11" s="11">
-        <v>93.75</v>
+        <v>96.470588000000006</v>
       </c>
       <c r="E11" s="11">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="F11" s="11">
-        <v>0.15401400000000001</v>
+        <v>6.0267000000000001E-2</v>
       </c>
       <c r="G11" s="11">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H11" s="11">
-        <v>0.190105</v>
+        <v>9.8621E-2</v>
       </c>
       <c r="I11" s="11">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="J11" s="11">
-        <v>73.684209999999993</v>
+        <v>84.210526999999999</v>
       </c>
       <c r="K11" s="11">
-        <v>0.53987700000000005</v>
+        <v>0.42116599999999998</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c r="B12" s="4">
-        <v>95.673834999999997</v>
+        <v>98.223686000000001</v>
       </c>
       <c r="C12" s="4">
         <v>279</v>
       </c>
       <c r="D12" s="4">
-        <v>92.5</v>
+        <v>95.882352999999995</v>
       </c>
       <c r="E12" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F12" s="4">
-        <v>0.11970699999999999</v>
+        <v>5.0729000000000003E-2</v>
       </c>
       <c r="G12" s="4">
         <v>279</v>
       </c>
       <c r="H12" s="4">
-        <v>0.19437299999999999</v>
+        <v>9.8077999999999999E-2</v>
       </c>
       <c r="I12" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J12" s="4">
-        <v>84.210526999999999</v>
+        <v>94.736844000000005</v>
       </c>
       <c r="K12" s="4">
-        <v>0.50683800000000001</v>
+        <v>0.33693299999999998</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -3066,40 +3239,40 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>114</v>
+        <v>218</v>
       </c>
       <c r="B13" s="9">
-        <v>99.402981999999994</v>
+        <v>97.960960999999998</v>
       </c>
       <c r="C13" s="9">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D13" s="9">
-        <v>96.25</v>
+        <v>95.882352999999995</v>
       </c>
       <c r="E13" s="9">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="F13" s="9">
-        <v>3.4668999999999998E-2</v>
+        <v>5.8012000000000001E-2</v>
       </c>
       <c r="G13" s="9">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="H13" s="9">
-        <v>0.105894</v>
+        <v>0.104412</v>
       </c>
       <c r="I13" s="9">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="J13" s="9">
-        <v>63.157891999999997</v>
+        <v>68.421053999999998</v>
       </c>
       <c r="K13" s="9">
-        <v>3.9723869999999999</v>
+        <v>2.7743890000000002</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -3107,40 +3280,40 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>115</v>
+        <v>219</v>
       </c>
       <c r="B14" s="9">
-        <v>100</v>
+        <v>99.802625000000006</v>
       </c>
       <c r="C14" s="9">
-        <v>119</v>
+        <v>255</v>
       </c>
       <c r="D14" s="9">
-        <v>97.5</v>
+        <v>95.294117999999997</v>
       </c>
       <c r="E14" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F14" s="9">
-        <v>6.8000000000000005E-4</v>
+        <v>1.349E-2</v>
       </c>
       <c r="G14" s="9">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="H14" s="9">
-        <v>6.5699999999999995E-2</v>
+        <v>8.0610000000000001E-2</v>
       </c>
       <c r="I14" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" s="9">
-        <v>68.421053999999998</v>
+        <v>63.157891999999997</v>
       </c>
       <c r="K14" s="9">
-        <v>3.640549</v>
+        <v>8.0651600000000006</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -3148,40 +3321,40 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>116</v>
+        <v>220</v>
       </c>
       <c r="B15" s="7">
-        <v>96.417916000000005</v>
+        <v>98.421060999999995</v>
       </c>
       <c r="C15" s="7">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D15" s="7">
-        <v>92.5</v>
+        <v>97.058824000000001</v>
       </c>
       <c r="E15" s="7">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="F15" s="7">
-        <v>0.10219399999999999</v>
+        <v>4.8696000000000003E-2</v>
       </c>
       <c r="G15" s="7">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H15" s="7">
-        <v>0.199013</v>
+        <v>9.3834000000000001E-2</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="J15" s="7">
         <v>78.947371000000004</v>
       </c>
       <c r="K15" s="7">
-        <v>0.52136000000000005</v>
+        <v>0.513486</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -3205,47 +3378,25 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="11">
-        <v>93.884992999999994</v>
-      </c>
-      <c r="C17" s="11">
-        <v>299</v>
-      </c>
-      <c r="D17" s="11">
-        <v>91.25</v>
-      </c>
-      <c r="E17" s="11">
-        <v>63</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0.14943799999999999</v>
-      </c>
-      <c r="G17" s="11">
-        <v>293</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0.21970200000000001</v>
-      </c>
-      <c r="I17" s="11">
-        <v>4</v>
-      </c>
-      <c r="J17" s="11">
-        <v>89.473682999999994</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0.43857299999999999</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>193</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>123</v>
+        <v>227</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3261,7 +3412,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>124</v>
+        <v>228</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -3277,7 +3428,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3374,6 +3525,942 @@
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="J4:J9">
+    <cfRule type="top10" dxfId="29" priority="6" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J15">
+    <cfRule type="top10" dxfId="28" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:J20">
+    <cfRule type="top10" dxfId="27" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:J24">
+    <cfRule type="top10" dxfId="26" priority="3" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J27">
+    <cfRule type="top10" dxfId="25" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="top10" dxfId="24" priority="1" rank="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.875" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="81" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.875" customWidth="1"/>
+    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9">
+        <v>93.880594000000002</v>
+      </c>
+      <c r="C4" s="9">
+        <v>294</v>
+      </c>
+      <c r="D4" s="9">
+        <v>88.75</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.151448</v>
+      </c>
+      <c r="G4" s="9">
+        <v>281</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.231438</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>73.684209999999993</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.53095899999999996</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9">
+        <v>62.666809999999998</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>62.678573</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.66071899999999995</v>
+      </c>
+      <c r="G5" s="9">
+        <v>285</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.66150399999999998</v>
+      </c>
+      <c r="I5" s="9">
+        <v>206</v>
+      </c>
+      <c r="J5" s="4">
+        <v>47.368422000000002</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.730881</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9">
+        <v>62.666809999999998</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>62.678573</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.66073700000000002</v>
+      </c>
+      <c r="G6" s="9">
+        <v>296</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.66177699999999995</v>
+      </c>
+      <c r="I6" s="9">
+        <v>263</v>
+      </c>
+      <c r="J6" s="4">
+        <v>47.368422000000002</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.73018300000000003</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9">
+        <v>98.658912999999998</v>
+      </c>
+      <c r="C7" s="9">
+        <v>279</v>
+      </c>
+      <c r="D7" s="9">
+        <v>95</v>
+      </c>
+      <c r="E7" s="9">
+        <v>71</v>
+      </c>
+      <c r="F7" s="9">
+        <v>4.4415000000000003E-2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>296</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.117849</v>
+      </c>
+      <c r="I7" s="9">
+        <v>6</v>
+      </c>
+      <c r="J7" s="4">
+        <v>63.157891999999997</v>
+      </c>
+      <c r="K7" s="4">
+        <v>4.5217460000000003</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>94</v>
+      </c>
+      <c r="D8">
+        <v>98.75</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>1.513E-3</v>
+      </c>
+      <c r="G8">
+        <v>295</v>
+      </c>
+      <c r="H8">
+        <v>4.0429E-2</v>
+      </c>
+      <c r="I8">
+        <v>78</v>
+      </c>
+      <c r="J8">
+        <v>68.421053999999998</v>
+      </c>
+      <c r="K8">
+        <v>2.7366670000000002</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10">
+        <v>88.867425999999995</v>
+      </c>
+      <c r="C9" s="10">
+        <v>227</v>
+      </c>
+      <c r="D9" s="10">
+        <v>86.071428999999995</v>
+      </c>
+      <c r="E9" s="10">
+        <v>3</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.25607000000000002</v>
+      </c>
+      <c r="G9" s="10">
+        <v>260</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.282636</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>68.421053999999998</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.59016199999999996</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="11">
+        <v>94.034243000000004</v>
+      </c>
+      <c r="C11" s="11">
+        <v>290</v>
+      </c>
+      <c r="D11" s="11">
+        <v>93.75</v>
+      </c>
+      <c r="E11" s="11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.15401400000000001</v>
+      </c>
+      <c r="G11" s="11">
+        <v>278</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.190105</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>73.684209999999993</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0.53987700000000005</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="4">
+        <v>95.673834999999997</v>
+      </c>
+      <c r="C12" s="4">
+        <v>279</v>
+      </c>
+      <c r="D12" s="4">
+        <v>92.5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.11970699999999999</v>
+      </c>
+      <c r="G12" s="4">
+        <v>279</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.19437299999999999</v>
+      </c>
+      <c r="I12" s="4">
+        <v>9</v>
+      </c>
+      <c r="J12" s="4">
+        <v>84.210526999999999</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.50683800000000001</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="9">
+        <v>99.402981999999994</v>
+      </c>
+      <c r="C13" s="9">
+        <v>290</v>
+      </c>
+      <c r="D13" s="9">
+        <v>96.25</v>
+      </c>
+      <c r="E13" s="9">
+        <v>132</v>
+      </c>
+      <c r="F13" s="9">
+        <v>3.4668999999999998E-2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>290</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.105894</v>
+      </c>
+      <c r="I13" s="9">
+        <v>10</v>
+      </c>
+      <c r="J13" s="9">
+        <v>63.157891999999997</v>
+      </c>
+      <c r="K13" s="9">
+        <v>3.9723869999999999</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="9">
+        <v>100</v>
+      </c>
+      <c r="C14" s="9">
+        <v>119</v>
+      </c>
+      <c r="D14" s="9">
+        <v>97.5</v>
+      </c>
+      <c r="E14" s="9">
+        <v>3</v>
+      </c>
+      <c r="F14" s="9">
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="G14" s="9">
+        <v>295</v>
+      </c>
+      <c r="H14" s="9">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="I14" s="9">
+        <v>4</v>
+      </c>
+      <c r="J14" s="9">
+        <v>68.421053999999998</v>
+      </c>
+      <c r="K14" s="9">
+        <v>3.640549</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="7">
+        <v>96.417916000000005</v>
+      </c>
+      <c r="C15" s="7">
+        <v>293</v>
+      </c>
+      <c r="D15" s="7">
+        <v>92.5</v>
+      </c>
+      <c r="E15" s="7">
+        <v>31</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.10219399999999999</v>
+      </c>
+      <c r="G15" s="7">
+        <v>290</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.199013</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>78.947371000000004</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.52136000000000005</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="11">
+        <v>93.884992999999994</v>
+      </c>
+      <c r="C17" s="11">
+        <v>299</v>
+      </c>
+      <c r="D17" s="11">
+        <v>91.25</v>
+      </c>
+      <c r="E17" s="11">
+        <v>63</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.14943799999999999</v>
+      </c>
+      <c r="G17" s="11">
+        <v>293</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.21970200000000001</v>
+      </c>
+      <c r="I17" s="11">
+        <v>4</v>
+      </c>
+      <c r="J17" s="11">
+        <v>89.473682999999994</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0.43857299999999999</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="4">
+        <v>98.805970000000002</v>
+      </c>
+      <c r="C18" s="4">
+        <v>279</v>
+      </c>
+      <c r="D18" s="4">
+        <v>96.25</v>
+      </c>
+      <c r="E18" s="4">
+        <v>92</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4.4288000000000001E-2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>294</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.10335999999999999</v>
+      </c>
+      <c r="I18" s="4">
+        <v>260</v>
+      </c>
+      <c r="J18" s="4">
+        <v>63.157891999999997</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2.4198789999999999</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="9">
+        <v>100</v>
+      </c>
+      <c r="C19" s="9">
+        <v>118</v>
+      </c>
+      <c r="D19" s="9">
+        <v>97.5</v>
+      </c>
+      <c r="E19" s="9">
+        <v>41</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1.2160000000000001E-3</v>
+      </c>
+      <c r="G19" s="9">
+        <v>237</v>
+      </c>
+      <c r="H19" s="9">
+        <v>6.0651999999999998E-2</v>
+      </c>
+      <c r="I19" s="9">
+        <v>56</v>
+      </c>
+      <c r="J19" s="9">
+        <v>68.421053999999998</v>
+      </c>
+      <c r="K19" s="9">
+        <v>3.450186</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="7">
+        <v>96.417916000000005</v>
+      </c>
+      <c r="C20" s="7">
+        <v>290</v>
+      </c>
+      <c r="D20" s="7">
+        <v>95</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.10634</v>
+      </c>
+      <c r="G20" s="7">
+        <v>298</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.157115</v>
+      </c>
+      <c r="I20" s="7">
+        <v>5</v>
+      </c>
+      <c r="J20" s="7">
+        <v>73.684209999999993</v>
+      </c>
+      <c r="K20" s="7">
+        <v>2.7695829999999999</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="11">
+        <v>98.805970000000002</v>
+      </c>
+      <c r="C22" s="11">
+        <v>295</v>
+      </c>
+      <c r="D22" s="11">
+        <v>95</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
+        <v>4.5769999999999998E-2</v>
+      </c>
+      <c r="G22" s="11">
+        <v>292</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0.121568</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <v>68.421053999999998</v>
+      </c>
+      <c r="K22" s="11">
+        <v>1.9690240000000001</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23" s="9">
+        <v>100</v>
+      </c>
+      <c r="C23" s="4">
+        <v>101</v>
+      </c>
+      <c r="D23" s="4">
+        <v>96.25</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>7.6599999999999997E-4</v>
+      </c>
+      <c r="G23" s="4">
+        <v>293</v>
+      </c>
+      <c r="H23" s="4">
+        <v>6.8626999999999994E-2</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2</v>
+      </c>
+      <c r="J23" s="4">
+        <v>63.157891999999997</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2.2742390000000001</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" s="10">
+        <v>97.019309000000007</v>
+      </c>
+      <c r="C24" s="10">
+        <v>288</v>
+      </c>
+      <c r="D24" s="10">
+        <v>92.5</v>
+      </c>
+      <c r="E24" s="10">
+        <v>12</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0.100975</v>
+      </c>
+      <c r="G24" s="10">
+        <v>299</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0.16891500000000001</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <v>78.947371000000004</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0.60768999999999995</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26" s="11">
+        <v>98.959619000000004</v>
+      </c>
+      <c r="C26" s="11">
+        <v>296</v>
+      </c>
+      <c r="D26" s="11">
+        <v>100</v>
+      </c>
+      <c r="E26" s="11">
+        <v>64</v>
+      </c>
+      <c r="F26" s="11">
+        <v>3.9635999999999998E-2</v>
+      </c>
+      <c r="G26" s="11">
+        <v>296</v>
+      </c>
+      <c r="H26" s="11">
+        <v>7.3714000000000002E-2</v>
+      </c>
+      <c r="I26" s="11">
+        <v>132</v>
+      </c>
+      <c r="J26" s="11">
+        <v>57.894736999999999</v>
+      </c>
+      <c r="K26" s="11">
+        <v>1.5407839999999999</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A27" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" s="10">
+        <v>100</v>
+      </c>
+      <c r="C27" s="7">
+        <v>84</v>
+      </c>
+      <c r="D27" s="7">
+        <v>96.25</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>4.64E-4</v>
+      </c>
+      <c r="G27" s="7">
+        <v>280</v>
+      </c>
+      <c r="H27" s="7">
+        <v>6.6757999999999998E-2</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
+        <v>63.157891999999997</v>
+      </c>
+      <c r="K27" s="7">
+        <v>5.510815</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A29" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="13">
+        <v>100</v>
+      </c>
+      <c r="C29" s="13">
+        <v>183</v>
+      </c>
+      <c r="D29" s="13">
+        <v>98.75</v>
+      </c>
+      <c r="E29" s="13">
+        <v>171</v>
+      </c>
+      <c r="F29" s="13">
+        <v>1.7799999999999999E-3</v>
+      </c>
+      <c r="G29" s="13">
+        <v>295</v>
+      </c>
+      <c r="H29" s="13">
+        <v>6.9435999999999998E-2</v>
+      </c>
+      <c r="I29" s="13">
+        <v>10</v>
+      </c>
+      <c r="J29" s="13">
+        <v>63.157891999999997</v>
+      </c>
+      <c r="K29" s="13">
+        <v>3.7593480000000001</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>205</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3400,7 +4487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
@@ -3433,7 +4520,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
@@ -3514,7 +4601,7 @@
         <v>0.67117199999999999</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
@@ -3552,7 +4639,7 @@
         <v>0.66207899999999997</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
@@ -3590,7 +4677,7 @@
         <v>0.65888500000000005</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
@@ -3628,7 +4715,7 @@
         <v>0.69619699999999995</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
@@ -3666,7 +4753,7 @@
         <v>4.2817530000000001</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
@@ -3674,42 +4761,42 @@
         <v>22</v>
       </c>
       <c r="B9" s="10">
-        <v>86.541354999999996</v>
+        <v>87.086468999999994</v>
       </c>
       <c r="C9" s="10">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="D9" s="10">
-        <v>84.523809999999997</v>
+        <v>86.666667000000004</v>
       </c>
       <c r="E9" s="10">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="F9" s="10">
-        <v>0.32611699999999999</v>
+        <v>0.30984499999999998</v>
       </c>
       <c r="G9" s="10">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="H9" s="10">
-        <v>0.40124399999999999</v>
+        <v>0.33181899999999998</v>
       </c>
       <c r="I9" s="10">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="J9" s="7">
         <v>88.888890000000004</v>
       </c>
       <c r="K9" s="7">
-        <v>0.39247799999999999</v>
+        <v>0.26090999999999998</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B11" s="11">
         <v>97.152251000000007</v>
@@ -3742,14 +4829,14 @@
         <v>2.1336979999999999</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B12" s="4">
         <v>52.756894000000003</v>
@@ -3782,7 +4869,7 @@
         <v>0.65734999999999999</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -3790,7 +4877,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B13" s="9">
         <v>99.464285000000004</v>
@@ -3823,7 +4910,7 @@
         <v>3.217438</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -3831,7 +4918,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B14" s="9">
         <v>99.288844999999995</v>
@@ -3864,7 +4951,7 @@
         <v>13.23906</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -3872,7 +4959,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B15" s="7">
         <v>86.015034</v>
@@ -3905,7 +4992,7 @@
         <v>0.506073</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -3929,7 +5016,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B17" s="11">
         <v>98.035717000000005</v>
@@ -3962,14 +5049,14 @@
         <v>0.39181500000000002</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B18" s="4">
         <v>99.288844999999995</v>
@@ -4002,12 +5089,12 @@
         <v>0.76087700000000003</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B19" s="9">
         <v>99.291979999999995</v>
@@ -4040,12 +5127,12 @@
         <v>5.1164969999999999</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B20" s="7">
         <v>87.268174000000002</v>
@@ -4078,12 +5165,12 @@
         <v>0.37719799999999998</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B22" s="11">
         <v>98.035717000000005</v>
@@ -4116,12 +5203,12 @@
         <v>0.76552799999999999</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B23" s="9">
         <v>99.285715999999994</v>
@@ -4154,12 +5241,12 @@
         <v>2.0414759999999998</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B24" s="10">
         <v>99.467421000000002</v>
@@ -4192,12 +5279,12 @@
         <v>5.8941730000000003</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B26" s="11">
         <v>99.821436000000006</v>
@@ -4230,12 +5317,12 @@
         <v>0.320766</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B27" s="10">
         <v>99.642860999999996</v>
@@ -4268,12 +5355,12 @@
         <v>5.2759840000000002</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B29" s="13">
         <v>100</v>
@@ -4306,7 +5393,7 @@
         <v>5.0722449999999997</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4334,12 +5421,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4353,7 +5440,7 @@
     <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.875" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="81" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
@@ -5177,39 +6264,39 @@
         <v>100</v>
       </c>
       <c r="C27" s="7">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="D27" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E27" s="7">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F27" s="7">
-        <v>1.029E-3</v>
+        <v>7.9100000000000004E-4</v>
       </c>
       <c r="G27" s="7">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="H27" s="7">
-        <v>5.2417999999999999E-2</v>
+        <v>2.4218E-2</v>
       </c>
       <c r="I27" s="7">
-        <v>52</v>
-      </c>
-      <c r="J27" s="7">
-        <v>47.368422000000002</v>
+        <v>92</v>
+      </c>
+      <c r="J27" s="15">
+        <v>52.631580999999997</v>
       </c>
       <c r="K27" s="7">
-        <v>7.6514730000000002</v>
+        <v>10.352601999999999</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" s="13">
         <v>100</v>
@@ -5242,7 +6329,7 @@
         <v>3.6227870000000002</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5259,7 +6346,7 @@
   <conditionalFormatting sqref="J22:J24">
     <cfRule type="top10" dxfId="8" priority="3" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J27">
+  <conditionalFormatting sqref="J26">
     <cfRule type="top10" dxfId="7" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
@@ -5270,7 +6357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>

--- a/verification.xlsx
+++ b/verification.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="235">
   <si>
     <t>特徴量</t>
     <rPh sb="0" eb="2">
@@ -886,6 +886,22 @@
   </si>
   <si>
     <t>MFCC+Frame+Segmentation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mfcc+frame+score_mlp_2020-04-15_final02_88.2%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+frame+dtw_mlp_2020-04-15_final02_76.5%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+frame+formant_mlp_2020-04-15_final02_76.5%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+frame+segmentation_mlp_2020-04-15_final06_100.0%.h5</t>
+  </si>
+  <si>
+    <t>MFCC+Frame+Segmentation+DTW</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2851,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3380,17 +3396,39 @@
       <c r="A17" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="2"/>
+      <c r="B17" s="11">
+        <v>97.63158</v>
+      </c>
+      <c r="C17" s="11">
+        <v>291</v>
+      </c>
+      <c r="D17" s="11">
+        <v>94.705883</v>
+      </c>
+      <c r="E17" s="11">
+        <v>5</v>
+      </c>
+      <c r="F17" s="11">
+        <v>6.3011999999999999E-2</v>
+      </c>
+      <c r="G17" s="11">
+        <v>299</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.117731</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1</v>
+      </c>
+      <c r="J17" s="11">
+        <v>84.210526999999999</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0.42846099999999998</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
@@ -3398,52 +3436,120 @@
       <c r="A18" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="5"/>
+      <c r="B18" s="4">
+        <v>98.618859</v>
+      </c>
+      <c r="C18" s="4">
+        <v>284</v>
+      </c>
+      <c r="D18" s="4">
+        <v>97.647058999999999</v>
+      </c>
+      <c r="E18" s="4">
+        <v>92</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4.4771999999999999E-2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>284</v>
+      </c>
+      <c r="H18" s="4">
+        <v>8.2291000000000003E-2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>62</v>
+      </c>
+      <c r="J18" s="4">
+        <v>68.421053999999998</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1.4710430000000001</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="5"/>
+      <c r="B19" s="9">
+        <v>99.736845000000002</v>
+      </c>
+      <c r="C19" s="9">
+        <v>248</v>
+      </c>
+      <c r="D19" s="9">
+        <v>97.058824000000001</v>
+      </c>
+      <c r="E19" s="9">
+        <v>37</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1.4286999999999999E-2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>279</v>
+      </c>
+      <c r="H19" s="9">
+        <v>7.2248999999999994E-2</v>
+      </c>
+      <c r="I19" s="9">
+        <v>1</v>
+      </c>
+      <c r="J19" s="9">
+        <v>68.421053999999998</v>
+      </c>
+      <c r="K19" s="9">
+        <v>4.8232369999999998</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="8"/>
+      <c r="B20" s="7">
+        <v>98.356121999999999</v>
+      </c>
+      <c r="C20" s="7">
+        <v>278</v>
+      </c>
+      <c r="D20" s="7">
+        <v>96.470588000000006</v>
+      </c>
+      <c r="E20" s="7">
+        <v>127</v>
+      </c>
+      <c r="F20" s="7">
+        <v>4.1798000000000002E-2</v>
+      </c>
+      <c r="G20" s="7">
+        <v>277</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.104509</v>
+      </c>
+      <c r="I20" s="7">
+        <v>84</v>
+      </c>
+      <c r="J20" s="7">
+        <v>89.473682999999994</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0.72655700000000001</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -3457,7 +3563,9 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>234</v>
+      </c>
       <c r="B23" s="9"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -3471,7 +3579,9 @@
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="6"/>
+      <c r="A24" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>

--- a/verification.xlsx
+++ b/verification.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11955" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
-    <sheet name="FSS-mataa" sheetId="7" r:id="rId2"/>
-    <sheet name="FSS-kutose" sheetId="6" r:id="rId3"/>
-    <sheet name="FSS-keshimi" sheetId="5" r:id="rId4"/>
-    <sheet name="FSS-gomata" sheetId="4" r:id="rId5"/>
-    <sheet name="FSS-ekutsu" sheetId="2" r:id="rId6"/>
+    <sheet name="mataa" sheetId="7" r:id="rId2"/>
+    <sheet name="kutose" sheetId="6" r:id="rId3"/>
+    <sheet name="keshimi" sheetId="5" r:id="rId4"/>
+    <sheet name="gomata" sheetId="4" r:id="rId5"/>
+    <sheet name="ekutsu" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="244">
   <si>
     <t>特徴量</t>
     <rPh sb="0" eb="2">
@@ -903,6 +903,36 @@
   <si>
     <t>MFCC+Frame+Segmentation+DTW</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mfcc+frame+segmentation+score_mlp_2020-04-16_final01_70.6%.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mfcc+frame+segmentation+dtw_mlp_2020-04-17_final09_100.0%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+frame+segmentation+formant_mlp_2020-04-17_final05_94.1%.h5</t>
+  </si>
+  <si>
+    <t>MFCC+Frame+Segmentation+Score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFCC+Frame+Segmentation+Score+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mfcc+frame+segmentation+score+dtw_mlp_2020-04-28_final07_100.0%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+frame+segmentation+score+formant_mlp_2020-04-28_final10_100.0%.h5</t>
+  </si>
+  <si>
+    <t>MFCC+Frame+Segmentation+Score+DTW+Formant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mfcc+frame+segmentation+score+dtw+formant_mlp_2020-04-28_final03_94.1%.h5</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -2867,9 +2897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3548,93 +3576,231 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="B22" s="11">
+        <v>98.684216000000006</v>
+      </c>
+      <c r="C22" s="11">
+        <v>285</v>
+      </c>
+      <c r="D22" s="11">
+        <v>97.058824000000001</v>
+      </c>
+      <c r="E22" s="11">
+        <v>23</v>
+      </c>
+      <c r="F22" s="11">
+        <v>4.4615000000000002E-2</v>
+      </c>
+      <c r="G22" s="11">
+        <v>285</v>
+      </c>
+      <c r="H22" s="11">
+        <v>8.8475999999999999E-2</v>
+      </c>
+      <c r="I22" s="11">
+        <v>122</v>
+      </c>
+      <c r="J22" s="11">
+        <v>73.684209999999993</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0.57771499999999998</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="5"/>
+      <c r="B23" s="9">
+        <v>98.224114999999998</v>
+      </c>
+      <c r="C23" s="4">
+        <v>278</v>
+      </c>
+      <c r="D23" s="4">
+        <v>97.058824000000001</v>
+      </c>
+      <c r="E23" s="4">
+        <v>224</v>
+      </c>
+      <c r="F23" s="4">
+        <v>5.3330000000000002E-2</v>
+      </c>
+      <c r="G23" s="4">
+        <v>299</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.115774</v>
+      </c>
+      <c r="I23" s="4">
+        <v>3</v>
+      </c>
+      <c r="J23" s="4">
+        <v>68.421053999999998</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2.9746760000000001</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="8"/>
+      <c r="B24" s="10">
+        <v>99.868423000000007</v>
+      </c>
+      <c r="C24" s="10">
+        <v>276</v>
+      </c>
+      <c r="D24" s="10">
+        <v>95.294117999999997</v>
+      </c>
+      <c r="E24" s="10">
+        <v>3</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1.26E-2</v>
+      </c>
+      <c r="G24" s="10">
+        <v>299</v>
+      </c>
+      <c r="H24" s="10">
+        <v>7.8516000000000002E-2</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <v>63.157891999999997</v>
+      </c>
+      <c r="K24" s="10">
+        <v>5.7868009999999996</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="1"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="2"/>
+      <c r="A26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="11">
+        <v>98.092544000000004</v>
+      </c>
+      <c r="C26" s="11">
+        <v>289</v>
+      </c>
+      <c r="D26" s="11">
+        <v>94.705883</v>
+      </c>
+      <c r="E26" s="11">
+        <v>35</v>
+      </c>
+      <c r="F26" s="11">
+        <v>5.4133000000000001E-2</v>
+      </c>
+      <c r="G26" s="11">
+        <v>286</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0.11064499999999999</v>
+      </c>
+      <c r="I26" s="11">
+        <v>94</v>
+      </c>
+      <c r="J26" s="11">
+        <v>68.421053999999998</v>
+      </c>
+      <c r="K26" s="11">
+        <v>2.83196</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="6"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="8"/>
+      <c r="A27" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27" s="10">
+        <v>99.736845000000002</v>
+      </c>
+      <c r="C27" s="7">
+        <v>238</v>
+      </c>
+      <c r="D27" s="7">
+        <v>95.882352999999995</v>
+      </c>
+      <c r="E27" s="7">
+        <v>77</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1.1191E-2</v>
+      </c>
+      <c r="G27" s="7">
+        <v>269</v>
+      </c>
+      <c r="H27" s="7">
+        <v>7.8809000000000004E-2</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1</v>
+      </c>
+      <c r="J27" s="7">
+        <v>57.894736999999999</v>
+      </c>
+      <c r="K27" s="7">
+        <v>8.2687380000000008</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="14"/>
+      <c r="A29" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29" s="13">
+        <v>99.802625000000006</v>
+      </c>
+      <c r="C29" s="13">
+        <v>280</v>
+      </c>
+      <c r="D29" s="13">
+        <v>98.823528999999994</v>
+      </c>
+      <c r="E29" s="13">
+        <v>96</v>
+      </c>
+      <c r="F29" s="13">
+        <v>9.9469999999999992E-3</v>
+      </c>
+      <c r="G29" s="13">
+        <v>265</v>
+      </c>
+      <c r="H29" s="13">
+        <v>4.3050999999999999E-2</v>
+      </c>
+      <c r="I29" s="13">
+        <v>185</v>
+      </c>
+      <c r="J29" s="13">
+        <v>57.894736999999999</v>
+      </c>
+      <c r="K29" s="13">
+        <v>5.7260920000000004</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>243</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/verification.xlsx
+++ b/verification.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
-    <sheet name="mataa" sheetId="7" r:id="rId2"/>
-    <sheet name="kutose" sheetId="6" r:id="rId3"/>
-    <sheet name="keshimi" sheetId="5" r:id="rId4"/>
-    <sheet name="gomata" sheetId="4" r:id="rId5"/>
-    <sheet name="ekutsu" sheetId="2" r:id="rId6"/>
+    <sheet name="meguta" sheetId="8" r:id="rId2"/>
+    <sheet name="mataa" sheetId="7" r:id="rId3"/>
+    <sheet name="kutose" sheetId="6" r:id="rId4"/>
+    <sheet name="keshimi" sheetId="5" r:id="rId5"/>
+    <sheet name="gomata" sheetId="4" r:id="rId6"/>
+    <sheet name="ekutsu" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="255">
   <si>
     <t>特徴量</t>
     <rPh sb="0" eb="2">
@@ -933,6 +934,43 @@
   </si>
   <si>
     <t>mfcc+frame+segmentation+score+dtw+formant_mlp_2020-04-28_final03_94.1%.h5</t>
+  </si>
+  <si>
+    <t>FSS手法（meguta）</t>
+    <rPh sb="3" eb="5">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> mfcc_mlp_2020-04-28_final09_100.0%.h5</t>
+  </si>
+  <si>
+    <t>score_mlp_2020-04-28_final06_62.5%.h5</t>
+  </si>
+  <si>
+    <t>frame_mlp_2020-04-28_final06_62.5%.h5</t>
+  </si>
+  <si>
+    <t>dtw_mlp_2020-04-28_final02_88.9%.h5</t>
+  </si>
+  <si>
+    <t>formant_mlp_2020-04-28_final02_77.8%.h5</t>
+  </si>
+  <si>
+    <t>segmentation_mlp_2020-04-28_final04_66.7%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+score_mlp_2020-04-28_final06_87.5%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+frame_mlp_2020-04-28_final07_75.0%.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mfcc+dtw_mlp_2020-04-28_final01_44.4%.h5</t>
+  </si>
+  <si>
+    <t>mfcc+formant_mlp_2020-04-28_final01_44.4%.h5</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1153,49 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1604,7 +1684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0"/>
+    <sheetView topLeftCell="A40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -2894,6 +2974,680 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.875" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="81" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.875" customWidth="1"/>
+    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9">
+        <v>96.673691000000005</v>
+      </c>
+      <c r="C4" s="9">
+        <v>252</v>
+      </c>
+      <c r="D4" s="9">
+        <v>95.555555999999996</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>9.2365000000000003E-2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>290</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.126416</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>73.684209999999993</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2.4918740000000001</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9">
+        <v>54.761398</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>54.722223</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.68858699999999995</v>
+      </c>
+      <c r="G5" s="9">
+        <v>293</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.68949899999999997</v>
+      </c>
+      <c r="I5" s="9">
+        <v>87</v>
+      </c>
+      <c r="J5" s="4">
+        <v>47.368422000000002</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.70024299999999995</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9">
+        <v>54.761398</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>54.722223</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.68859999999999999</v>
+      </c>
+      <c r="G6" s="9">
+        <v>296</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.68947899999999995</v>
+      </c>
+      <c r="I6" s="9">
+        <v>66</v>
+      </c>
+      <c r="J6" s="4">
+        <v>47.368422000000002</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.70041600000000004</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9">
+        <v>99.199997999999994</v>
+      </c>
+      <c r="C7" s="9">
+        <v>275</v>
+      </c>
+      <c r="D7" s="9">
+        <v>97.777777999999998</v>
+      </c>
+      <c r="E7" s="9">
+        <v>67</v>
+      </c>
+      <c r="F7" s="9">
+        <v>3.4647999999999998E-2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>298</v>
+      </c>
+      <c r="H7" s="9">
+        <v>6.4044000000000004E-2</v>
+      </c>
+      <c r="I7" s="9">
+        <v>156</v>
+      </c>
+      <c r="J7" s="4">
+        <v>47.368422000000002</v>
+      </c>
+      <c r="K7" s="4">
+        <v>3.007806</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>115</v>
+      </c>
+      <c r="D8">
+        <v>95.555555999999996</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>3.637E-3</v>
+      </c>
+      <c r="G8">
+        <v>218</v>
+      </c>
+      <c r="H8">
+        <v>7.3477000000000001E-2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>63.157891999999997</v>
+      </c>
+      <c r="K8">
+        <v>5.5310779999999999</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10">
+        <v>78.142106999999996</v>
+      </c>
+      <c r="C9" s="10">
+        <v>235</v>
+      </c>
+      <c r="D9" s="10">
+        <v>74.861112000000006</v>
+      </c>
+      <c r="E9" s="10">
+        <v>53</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.43492199999999998</v>
+      </c>
+      <c r="G9" s="10">
+        <v>213</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.480319</v>
+      </c>
+      <c r="I9" s="10">
+        <v>2</v>
+      </c>
+      <c r="J9" s="7">
+        <v>63.157891999999997</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.64127100000000004</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="11">
+        <v>96.407014000000004</v>
+      </c>
+      <c r="C11" s="11">
+        <v>255</v>
+      </c>
+      <c r="D11" s="11">
+        <v>93.333333999999994</v>
+      </c>
+      <c r="E11" s="11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.107628</v>
+      </c>
+      <c r="G11" s="11">
+        <v>290</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.15961600000000001</v>
+      </c>
+      <c r="I11" s="11">
+        <v>2</v>
+      </c>
+      <c r="J11" s="11">
+        <v>63.157891999999997</v>
+      </c>
+      <c r="K11" s="11">
+        <v>1.9727779999999999</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="4">
+        <v>94.405258000000003</v>
+      </c>
+      <c r="C12" s="4">
+        <v>296</v>
+      </c>
+      <c r="D12" s="4">
+        <v>94.444445000000002</v>
+      </c>
+      <c r="E12" s="4">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.13691999999999999</v>
+      </c>
+      <c r="G12" s="4">
+        <v>270</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.17685799999999999</v>
+      </c>
+      <c r="I12" s="4">
+        <v>59</v>
+      </c>
+      <c r="J12" s="4">
+        <v>68.421053999999998</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2.704278</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="9">
+        <v>99.466669999999993</v>
+      </c>
+      <c r="C13" s="9">
+        <v>263</v>
+      </c>
+      <c r="D13" s="9">
+        <v>97.777777999999998</v>
+      </c>
+      <c r="E13" s="9">
+        <v>128</v>
+      </c>
+      <c r="F13" s="9">
+        <v>2.9409000000000001E-2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>298</v>
+      </c>
+      <c r="H13" s="9">
+        <v>8.4307000000000007E-2</v>
+      </c>
+      <c r="I13" s="9">
+        <v>129</v>
+      </c>
+      <c r="J13" s="9">
+        <v>52.631580999999997</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0.97280599999999995</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="9">
+        <v>100</v>
+      </c>
+      <c r="C14" s="9">
+        <v>136</v>
+      </c>
+      <c r="D14" s="9">
+        <v>95.555555999999996</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>2.2269999999999998E-3</v>
+      </c>
+      <c r="G14" s="9">
+        <v>298</v>
+      </c>
+      <c r="H14" s="9">
+        <v>7.6008000000000006E-2</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>68.421053999999998</v>
+      </c>
+      <c r="K14" s="9">
+        <v>2.8203230000000001</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" s="6"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A27" s="6"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="J4:J9">
+    <cfRule type="top10" dxfId="5" priority="6" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J15">
+    <cfRule type="top10" dxfId="4" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:J20">
+    <cfRule type="top10" dxfId="3" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:J24">
+    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J27">
+    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
@@ -3805,29 +4559,29 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J4:J9">
-    <cfRule type="top10" dxfId="29" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="35" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J15">
-    <cfRule type="top10" dxfId="28" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="34" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J20">
-    <cfRule type="top10" dxfId="27" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="33" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J24">
-    <cfRule type="top10" dxfId="26" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="32" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:J27">
-    <cfRule type="top10" dxfId="25" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="31" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="top10" dxfId="24" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="30" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
@@ -4741,29 +5495,29 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J4:J9">
-    <cfRule type="top10" dxfId="23" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="29" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J15">
-    <cfRule type="top10" dxfId="22" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J20">
-    <cfRule type="top10" dxfId="21" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="27" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J24">
-    <cfRule type="top10" dxfId="20" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="26" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:J27">
-    <cfRule type="top10" dxfId="19" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="25" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="top10" dxfId="18" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="24" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
@@ -5675,29 +6429,29 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J4:J9">
-    <cfRule type="top10" dxfId="17" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="23" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J15">
-    <cfRule type="top10" dxfId="16" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J20">
-    <cfRule type="top10" dxfId="15" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="21" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J24">
-    <cfRule type="top10" dxfId="14" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:J27">
-    <cfRule type="top10" dxfId="13" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="19" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="top10" dxfId="12" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
@@ -6611,29 +7365,29 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J4:J9">
-    <cfRule type="top10" dxfId="11" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="17" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J15">
-    <cfRule type="top10" dxfId="10" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J20">
-    <cfRule type="top10" dxfId="9" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="15" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J24">
-    <cfRule type="top10" dxfId="8" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="top10" dxfId="7" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="13" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="top10" dxfId="6" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
@@ -7545,22 +8299,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J4:J9">
-    <cfRule type="top10" dxfId="5" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="11" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J15">
-    <cfRule type="top10" dxfId="4" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J20">
-    <cfRule type="top10" dxfId="3" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J24">
-    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:J27">
-    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/verification.xlsx
+++ b/verification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11955" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11955" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="893">
   <si>
     <t>特徴量</t>
     <rPh sb="0" eb="2">
@@ -590,15 +590,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mfcc_mlp_2020-04-12_final01_71.4%.h5</t>
-  </si>
-  <si>
-    <t>dtw_mlp_2020-04-12_final01_28.6%.h5</t>
-  </si>
-  <si>
-    <t>formant_mlp_2020-04-12_final01_57.1%.h5</t>
-  </si>
-  <si>
     <t>Frame+MFCC</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -619,18 +610,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> frame+mfcc_mlp_2020-04-12_final08_100.0%.h5</t>
-  </si>
-  <si>
-    <t>frame+dtw_mlp_2020-04-12_final04_100.0%.h5</t>
-  </si>
-  <si>
     <t>frame+formant_mlp_2020-04-12_final09_83.3%.h5</t>
   </si>
   <si>
-    <t>frame+segmentation_mlp_2020-04-12_final02_100.0%.h5</t>
-  </si>
-  <si>
     <t>Frame+Score+MFCC</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -647,18 +629,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>frame+score+mfcc_mlp_2020-04-12_final01_71.4%.h5</t>
-  </si>
-  <si>
-    <t>frame+score+dtw_mlp_2020-04-12_final01_57.1%.h5</t>
-  </si>
-  <si>
-    <t>frame+score+formant_mlp_2020-04-12_final02_57.1%.h5</t>
-  </si>
-  <si>
-    <t>frame+score+segmentation_mlp_2020-04-12_final07_83.3%.h5</t>
-  </si>
-  <si>
     <t>Frame+Score+Segmentation+MFCC</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -674,12 +644,6 @@
     <t>frame+score+segmentation+mfcc_mlp_2020-04-12_final01_85.7%.h5</t>
   </si>
   <si>
-    <t>frame+score+segmentation+dtw_mlp_2020-04-12_final05_100.0%.h5</t>
-  </si>
-  <si>
-    <t>frame+score+segmentation+formant_mlp_2020-04-12_final02_71.4%.h5</t>
-  </si>
-  <si>
     <t>Frame+Score+Segmentation+MFCC+DTW</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -688,17 +652,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>frame+score+segmentation+mfcc+dtw_mlp_2020-04-12_final01_42.9%.h5</t>
-  </si>
-  <si>
-    <t>frame+score+segmentation+mfcc+formant_mlp_2020-04-12_final04_66.7%.h5</t>
-  </si>
-  <si>
     <t>Frame+Score+Segmentation+MFCC+DTW+Formant</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> frame+score+segmentation+mfcc+dtw+formant_mlp_2020-04-12_final02_100.0%.h5</t>
   </si>
   <si>
     <t>FSS手法（kutose）</t>
@@ -804,9 +759,6 @@
   </si>
   <si>
     <t>mfcc+frame+segmentation+score+formant_mlp_2020-04-13_final10_100.0%.h5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> segmentation_mlp_2020-04-13_final07_100.0%.h5</t>
   </si>
   <si>
     <t>FSS手法（mataa）</t>
@@ -1320,13 +1272,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>相関なし</t>
-    <rPh sb="0" eb="2">
-      <t>ソウカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データ数</t>
     <rPh sb="3" eb="4">
       <t>スウ</t>
@@ -1377,10 +1322,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Frame+Score</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MFCC+Frame</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1405,9 +1346,6 @@
   </si>
   <si>
     <t>frame_mlp_2020-04-12_final01_42.9%.h5</t>
-  </si>
-  <si>
-    <t>frame+score_mlp_2020-04-12_final01_42.9%.h5</t>
   </si>
   <si>
     <t>akagi.m_learn_No.01a.wav</t>
@@ -3264,6 +3202,76 @@
   <si>
     <t>keshimi</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mfcc_mlp_2020-04-12_final05_83.3%.h5</t>
+  </si>
+  <si>
+    <t>dtw_mlp_2020-04-12_final07_100.0%.h5</t>
+  </si>
+  <si>
+    <t>formant_mlp_2020-04-12_final06_83.3%.h5</t>
+  </si>
+  <si>
+    <t>segmentation_mlp_2020-04-13_final03_28.6%.h5</t>
+  </si>
+  <si>
+    <t>frame+mfcc_mlp_2020-04-12_final05_100.0%.h5</t>
+  </si>
+  <si>
+    <t>frame+score_mlp_2020-04-12_final02_57.1%.h5</t>
+  </si>
+  <si>
+    <t>frame+dtw_mlp_2020-04-12_final01_71.4%.h5</t>
+  </si>
+  <si>
+    <t>frame+segmentation_mlp_2020-04-12_final08_66.7%.h5</t>
+  </si>
+  <si>
+    <t>frame+score+mfcc_mlp_2020-04-12_final02_71.4%.h5</t>
+  </si>
+  <si>
+    <t>frame+score+dtw_mlp_2020-04-12_final02_71.4%.h5</t>
+  </si>
+  <si>
+    <t>frame+score+formant_mlp_2020-04-12_final04_83.3%.h5</t>
+  </si>
+  <si>
+    <t>frame+score+segmentation_mlp_2020-04-12_final04_66.7%.h5</t>
+  </si>
+  <si>
+    <t>frame+score+segmentation+dtw_mlp_2020-04-12_final04_100.0%.h5</t>
+  </si>
+  <si>
+    <t>frame+score+segmentation+formant_mlp_2020-04-12_final01_71.4%.h5</t>
+  </si>
+  <si>
+    <t>frame+score+segmentation+mfcc+dtw_mlp_2020-04-12_final10_100.0%.h5</t>
+  </si>
+  <si>
+    <t>frame+score+segmentation+mfcc+formant_mlp_2020-04-12_final07_100.0%.h5</t>
+  </si>
+  <si>
+    <t>Frame+Score+Segmentation+MFCC</t>
+  </si>
+  <si>
+    <t>弱弱正の相関</t>
+    <rPh sb="0" eb="1">
+      <t>ジャク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ジャク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>frame+score+segmentation+mfcc+dtw+formant_mlp_2020-04-12_final02_100.0%.h5</t>
   </si>
 </sst>
 </file>
@@ -3451,7 +3459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -3476,6 +3484,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4093,7 +4102,7 @@
                   <c:v>85.000001999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>89.999998000000005</c:v>
@@ -6506,12 +6515,12 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>881</v>
+        <v>862</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
-        <v>882</v>
+        <v>863</v>
       </c>
       <c r="C68">
         <v>981</v>
@@ -6519,7 +6528,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
-        <v>883</v>
+        <v>864</v>
       </c>
       <c r="C69">
         <v>50</v>
@@ -6527,7 +6536,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>884</v>
+        <v>865</v>
       </c>
       <c r="C70">
         <f>C68-C69</f>
@@ -6536,7 +6545,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
-        <v>885</v>
+        <v>866</v>
       </c>
       <c r="C71">
         <v>649</v>
@@ -6544,7 +6553,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
-        <v>886</v>
+        <v>867</v>
       </c>
       <c r="C72">
         <v>50</v>
@@ -6552,7 +6561,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
-        <v>887</v>
+        <v>868</v>
       </c>
       <c r="C73">
         <f>C71-C72</f>
@@ -6571,7 +6580,7 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:H14"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6590,36 +6599,36 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>345</v>
-      </c>
       <c r="C1" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>357</v>
-      </c>
       <c r="J1" t="s">
-        <v>877</v>
+        <v>858</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="B2" s="16">
         <v>499</v>
@@ -6631,7 +6640,7 @@
         <v>0.222523</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="F2" s="18">
         <v>1</v>
@@ -6643,27 +6652,27 @@
         <v>0.94736842105263097</v>
       </c>
       <c r="J2" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="O2" s="18" t="s">
         <v>339</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="16" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="B3" s="16">
         <v>117</v>
@@ -6675,7 +6684,7 @@
         <v>0.19327900000000001</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="F3" s="16">
         <v>1</v>
@@ -6693,7 +6702,7 @@
         <v>0.92317099999999996</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>879</v>
+        <v>860</v>
       </c>
       <c r="M3" s="18">
         <v>0.75</v>
@@ -6707,33 +6716,33 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="16" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="B4" s="16">
         <v>84</v>
       </c>
       <c r="C4" s="16">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D4" s="16">
-        <v>0.65734999999999999</v>
+        <v>0.68744000000000005</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>353</v>
+        <v>890</v>
       </c>
       <c r="F4" s="16">
-        <v>0</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G4" s="16">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H4" s="16">
-        <v>0</v>
+        <v>0.76190476190476197</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="16" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B5" s="16">
         <v>96</v>
@@ -6757,12 +6766,12 @@
         <v>0.9</v>
       </c>
       <c r="J5" t="s">
-        <v>878</v>
+        <v>859</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="16" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B6" s="16">
         <v>190</v>
@@ -6774,7 +6783,7 @@
         <v>0.40670099999999998</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="F6" s="16">
         <v>1</v>
@@ -6786,27 +6795,27 @@
         <v>0.88888888888888895</v>
       </c>
       <c r="J6" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="O6" s="18" t="s">
         <v>339</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="O6" s="18" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="16" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="B7" s="16">
         <v>105</v>
@@ -6818,7 +6827,7 @@
         <v>1.0487660000000001</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="F7" s="16">
         <v>0.85714285714285698</v>
@@ -6850,7 +6859,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="16" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B8" s="16">
         <v>68</v>
@@ -6862,7 +6871,7 @@
         <v>0.24401300000000001</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -6876,7 +6885,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="16" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B9" s="16">
         <v>83</v>
@@ -6902,51 +6911,51 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="C11">
         <f>AVERAGE(C2:C9)</f>
-        <v>90.624999375000002</v>
+        <v>87.499999375000002</v>
       </c>
       <c r="D11">
         <f>AVERAGE(D2:D9)</f>
-        <v>0.44496950000000002</v>
+        <v>0.44873074999999996</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>345</v>
-      </c>
       <c r="C14" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="H14" s="18" t="s">
         <v>339</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="16" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B15" s="16">
         <v>68</v>
@@ -6958,7 +6967,7 @@
         <v>0.24401300000000001</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>358</v>
+        <v>268</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
@@ -6972,7 +6981,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="16" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B16" s="16">
         <v>83</v>
@@ -6998,33 +7007,33 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="16" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="B17" s="16">
         <v>84</v>
       </c>
       <c r="C17" s="16">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D17" s="16">
-        <v>0.65734999999999999</v>
+        <v>0.68744000000000005</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>145</v>
+        <v>890</v>
       </c>
       <c r="F17" s="16">
-        <v>0</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G17" s="16">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H17" s="16">
-        <v>0</v>
+        <v>0.76190476190476197</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="16" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B18" s="16">
         <v>96</v>
@@ -7050,7 +7059,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="16" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="B19" s="16">
         <v>105</v>
@@ -7062,7 +7071,7 @@
         <v>1.0487660000000001</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="F19" s="16">
         <v>0.85714285714285698</v>
@@ -7076,7 +7085,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="16" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="B20" s="16">
         <v>117</v>
@@ -7102,7 +7111,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="16" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B21" s="16">
         <v>190</v>
@@ -7128,7 +7137,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="16" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="B22" s="16">
         <v>499</v>
@@ -7154,16 +7163,16 @@
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B38">
         <f>PEARSON(B15:B22,C15:C22)</f>
-        <v>0.19113156606816067</v>
+        <v>0.38492202059969804</v>
       </c>
       <c r="C38" t="s">
-        <v>344</v>
+        <v>891</v>
       </c>
     </row>
   </sheetData>
@@ -7172,7 +7181,7 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -7187,12 +7196,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -7207,7 +7216,7 @@
         <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="G2" t="s">
         <v>82</v>
@@ -8466,7 +8475,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="B52">
         <f>MAX(B3:B50)</f>
@@ -8503,7 +8512,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H54" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="I54">
         <f>AVERAGE(B52:I52)</f>
@@ -8521,7 +8530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -8534,7 +8543,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>890</v>
+        <v>871</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
@@ -8569,13 +8578,13 @@
         <v>6</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -8624,7 +8633,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>891</v>
+        <v>872</v>
       </c>
       <c r="B4">
         <v>99.761903000000004</v>
@@ -8668,7 +8677,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>892</v>
+        <v>873</v>
       </c>
       <c r="B5">
         <v>98.095237999999995</v>
@@ -8940,7 +8949,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>885</v>
+        <v>866</v>
       </c>
       <c r="B13">
         <v>23</v>
@@ -8986,25 +8995,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="B1" t="s">
-        <v>837</v>
+        <v>818</v>
       </c>
       <c r="C1" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="E1" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="F1" t="s">
-        <v>838</v>
+        <v>819</v>
       </c>
       <c r="G1" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="H1" t="s">
-        <v>854</v>
+        <v>835</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -9012,22 +9021,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="C2" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>839</v>
+        <v>820</v>
       </c>
       <c r="G2" t="s">
-        <v>849</v>
+        <v>830</v>
       </c>
       <c r="H2" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -9035,22 +9044,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="C3" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
       <c r="G3" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
       <c r="H3" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -9058,22 +9067,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="C4" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>841</v>
+        <v>822</v>
       </c>
       <c r="G4" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
       <c r="H4" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -9081,22 +9090,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="C5" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="G5" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
       <c r="H5" t="s">
-        <v>856</v>
+        <v>837</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -9104,22 +9113,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="C6" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="G6" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="H6" t="s">
-        <v>857</v>
+        <v>838</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -9127,22 +9136,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="C7" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="G7" t="s">
-        <v>850</v>
+        <v>831</v>
       </c>
       <c r="H7" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -9150,22 +9159,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="C8" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>845</v>
+        <v>826</v>
       </c>
       <c r="G8" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="H8" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -9173,22 +9182,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="C9" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>846</v>
+        <v>827</v>
       </c>
       <c r="G9" t="s">
-        <v>851</v>
+        <v>832</v>
       </c>
       <c r="H9" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -9196,22 +9205,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="C10" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
       <c r="G10" t="s">
-        <v>852</v>
+        <v>833</v>
       </c>
       <c r="H10" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -9219,22 +9228,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="C11" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>848</v>
+        <v>829</v>
       </c>
       <c r="G11" t="s">
-        <v>853</v>
+        <v>834</v>
       </c>
       <c r="H11" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -9242,10 +9251,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C12" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -9253,10 +9262,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C13" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -9264,13 +9273,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="C14" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="F14" t="s">
-        <v>863</v>
+        <v>844</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -9278,22 +9287,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="C15" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="G15" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
       <c r="H15" t="s">
-        <v>857</v>
+        <v>838</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -9301,22 +9310,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="C16" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="G16" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="H16" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -9324,22 +9333,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="C17" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="G17" t="s">
-        <v>850</v>
+        <v>831</v>
       </c>
       <c r="H17" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -9347,22 +9356,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="C18" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="E18">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>845</v>
+        <v>826</v>
       </c>
       <c r="G18" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="H18" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -9370,22 +9379,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="C19" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="E19">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>846</v>
+        <v>827</v>
       </c>
       <c r="G19" t="s">
-        <v>851</v>
+        <v>832</v>
       </c>
       <c r="H19" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -9393,22 +9402,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="C20" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="E20">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>872</v>
+        <v>853</v>
       </c>
       <c r="G20" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="H20" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -9416,22 +9425,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="C21" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="E21">
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="G21" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="H21" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -9439,22 +9448,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="C22" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="E22">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="G22" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="H22" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -9462,22 +9471,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="C23" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="E23">
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>875</v>
+        <v>856</v>
       </c>
       <c r="G23" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="H23" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -9485,22 +9494,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="C24" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="E24">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>876</v>
+        <v>857</v>
       </c>
       <c r="G24" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="H24" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
@@ -9508,10 +9517,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="C25" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
@@ -9519,10 +9528,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="C26" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
@@ -9530,13 +9539,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="C27" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="F27" t="s">
-        <v>862</v>
+        <v>843</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -9544,22 +9553,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="C28" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
       <c r="G28" t="s">
-        <v>852</v>
+        <v>833</v>
       </c>
       <c r="H28" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
@@ -9567,22 +9576,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="C29" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>848</v>
+        <v>829</v>
       </c>
       <c r="G29" t="s">
-        <v>853</v>
+        <v>834</v>
       </c>
       <c r="H29" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
@@ -9590,22 +9599,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="C30" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="E30">
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>865</v>
+        <v>846</v>
       </c>
       <c r="G30" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="H30" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
@@ -9613,22 +9622,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="C31" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="E31">
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>866</v>
+        <v>847</v>
       </c>
       <c r="G31" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="H31" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
@@ -9636,22 +9645,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="C32" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
       <c r="E32">
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>867</v>
+        <v>848</v>
       </c>
       <c r="G32" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="H32" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
@@ -9659,22 +9668,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="C33" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="E33">
         <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>870</v>
+        <v>851</v>
       </c>
       <c r="G33" t="s">
-        <v>859</v>
+        <v>840</v>
       </c>
       <c r="H33" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
@@ -9682,22 +9691,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="C34" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="E34">
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>864</v>
+        <v>845</v>
       </c>
       <c r="G34" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="H34" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
@@ -9705,22 +9714,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="C35" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="E35">
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>869</v>
+        <v>850</v>
       </c>
       <c r="G35" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="H35" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
@@ -9728,22 +9737,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="C36" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="E36">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>868</v>
+        <v>849</v>
       </c>
       <c r="G36" t="s">
-        <v>861</v>
+        <v>842</v>
       </c>
       <c r="H36" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -9751,22 +9760,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="C37" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="E37">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="G37" t="s">
-        <v>871</v>
+        <v>852</v>
       </c>
       <c r="H37" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -9774,10 +9783,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="C38" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
@@ -9785,10 +9794,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="C39" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
@@ -9796,10 +9805,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="C40" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
@@ -9807,10 +9816,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="C41" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
@@ -9818,10 +9827,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="C42" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
@@ -9829,10 +9838,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="C43" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
@@ -9840,10 +9849,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="C44" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
@@ -9851,10 +9860,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="C45" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
@@ -9862,10 +9871,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="C46" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
@@ -9873,10 +9882,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="C47" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
@@ -9884,10 +9893,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="C48" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
@@ -9895,10 +9904,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="C49" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
@@ -9906,10 +9915,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="C50" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
@@ -9917,10 +9926,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="C51" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
@@ -9928,10 +9937,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="C52" t="s">
-        <v>686</v>
+        <v>667</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
@@ -9939,10 +9948,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="C53" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
@@ -9950,10 +9959,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="C54" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
@@ -9961,10 +9970,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="C55" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
@@ -9972,10 +9981,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="C56" t="s">
-        <v>689</v>
+        <v>670</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
@@ -9983,10 +9992,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="C57" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
@@ -9994,10 +10003,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="C58" t="s">
-        <v>691</v>
+        <v>672</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
@@ -10005,10 +10014,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="C59" t="s">
-        <v>692</v>
+        <v>673</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
@@ -10016,10 +10025,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="C60" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
@@ -10027,10 +10036,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="C61" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
@@ -10038,10 +10047,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="C62" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
@@ -10049,10 +10058,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="C63" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
@@ -10060,10 +10069,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="C64" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
@@ -10071,10 +10080,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="C65" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
@@ -10082,10 +10091,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="C66" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
@@ -10093,10 +10102,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="C67" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
@@ -10104,10 +10113,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="C68" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
@@ -10115,10 +10124,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="C69" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
@@ -10126,10 +10135,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="C70" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
@@ -10137,10 +10146,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="C71" t="s">
-        <v>704</v>
+        <v>685</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
@@ -10148,10 +10157,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="C72" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
@@ -10159,10 +10168,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="C73" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
@@ -10170,10 +10179,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="C74" t="s">
-        <v>707</v>
+        <v>688</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
@@ -10181,10 +10190,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="C75" t="s">
-        <v>708</v>
+        <v>689</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
@@ -10192,10 +10201,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="C76" t="s">
-        <v>709</v>
+        <v>690</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
@@ -10203,10 +10212,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="C77" t="s">
-        <v>710</v>
+        <v>691</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
@@ -10214,10 +10223,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="C78" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
@@ -10225,10 +10234,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="C79" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
@@ -10236,10 +10245,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="C80" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
@@ -10247,10 +10256,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="C81" t="s">
-        <v>713</v>
+        <v>694</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
@@ -10258,10 +10267,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="C82" t="s">
-        <v>714</v>
+        <v>695</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
@@ -10269,10 +10278,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="C83" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
@@ -10280,10 +10289,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="C84" t="s">
-        <v>716</v>
+        <v>697</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
@@ -10291,10 +10300,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="C85" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
@@ -10302,10 +10311,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="C86" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
@@ -10313,10 +10322,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="C87" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
@@ -10324,10 +10333,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="C88" t="s">
-        <v>720</v>
+        <v>701</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
@@ -10335,10 +10344,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="C89" t="s">
-        <v>721</v>
+        <v>702</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
@@ -10346,10 +10355,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="C90" t="s">
-        <v>722</v>
+        <v>703</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
@@ -10357,10 +10366,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="C91" t="s">
-        <v>723</v>
+        <v>704</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
@@ -10368,10 +10377,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="C92" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
@@ -10379,10 +10388,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="C93" t="s">
-        <v>725</v>
+        <v>706</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
@@ -10390,10 +10399,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="C94" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
@@ -10401,10 +10410,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="C95" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
@@ -10412,10 +10421,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="C96" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
@@ -10423,10 +10432,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="C97" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
@@ -10434,10 +10443,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="C98" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
@@ -10445,10 +10454,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="C99" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
@@ -10456,10 +10465,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C100" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
@@ -10467,10 +10476,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="C101" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
@@ -10478,10 +10487,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="C102" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
@@ -10489,10 +10498,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="C103" t="s">
-        <v>732</v>
+        <v>713</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
@@ -10500,10 +10509,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="C104" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
@@ -10511,10 +10520,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="C105" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
@@ -10522,10 +10531,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="C106" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
@@ -10533,10 +10542,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="C107" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.4">
@@ -10544,10 +10553,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="C108" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
@@ -10555,10 +10564,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="C109" t="s">
-        <v>736</v>
+        <v>717</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
@@ -10566,10 +10575,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="C110" t="s">
-        <v>737</v>
+        <v>718</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
@@ -10577,10 +10586,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="C111" t="s">
-        <v>738</v>
+        <v>719</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.4">
@@ -10588,10 +10597,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="C112" t="s">
-        <v>739</v>
+        <v>720</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.4">
@@ -10599,10 +10608,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="C113" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.4">
@@ -10610,10 +10619,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="C114" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.4">
@@ -10621,10 +10630,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="C115" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.4">
@@ -10632,10 +10641,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="C116" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.4">
@@ -10643,10 +10652,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="C117" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.4">
@@ -10654,10 +10663,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="C118" t="s">
-        <v>745</v>
+        <v>726</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.4">
@@ -10665,10 +10674,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="C119" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.4">
@@ -10676,10 +10685,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="C120" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.4">
@@ -10687,10 +10696,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="C121" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
@@ -10698,10 +10707,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="C122" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.4">
@@ -10709,10 +10718,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="C123" t="s">
-        <v>749</v>
+        <v>730</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.4">
@@ -10720,10 +10729,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="C124" t="s">
-        <v>750</v>
+        <v>731</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.4">
@@ -10731,10 +10740,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="C125" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
@@ -10742,10 +10751,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="C126" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
@@ -10753,10 +10762,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="C127" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
@@ -10764,10 +10773,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="C128" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
@@ -10775,10 +10784,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="C129" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
@@ -10786,10 +10795,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="C130" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
@@ -10797,10 +10806,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="C131" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
@@ -10808,10 +10817,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="C132" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
@@ -10819,10 +10828,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="C133" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.4">
@@ -10830,10 +10839,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="C134" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.4">
@@ -10841,10 +10850,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="C135" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
@@ -10852,10 +10861,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="C136" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
@@ -10863,10 +10872,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="C137" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.4">
@@ -10874,10 +10883,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="C138" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.4">
@@ -10885,10 +10894,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="C139" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.4">
@@ -10896,10 +10905,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="C140" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.4">
@@ -10907,10 +10916,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="C141" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.4">
@@ -10918,10 +10927,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="C142" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.4">
@@ -10929,10 +10938,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="C143" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.4">
@@ -10940,10 +10949,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="C144" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.4">
@@ -10951,10 +10960,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="C145" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.4">
@@ -10962,10 +10971,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="C146" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.4">
@@ -10973,10 +10982,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="C147" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.4">
@@ -10984,10 +10993,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="C148" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
@@ -10995,10 +11004,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="C149" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.4">
@@ -11006,10 +11015,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="C150" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.4">
@@ -11017,10 +11026,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="C151" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">
@@ -11028,10 +11037,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="C152" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.4">
@@ -11039,10 +11048,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="C153" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.4">
@@ -11050,10 +11059,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="17" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="C154" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.4">
@@ -11061,10 +11070,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="17" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="C155" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.4">
@@ -11072,10 +11081,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="C156" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.4">
@@ -11083,10 +11092,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="C157" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.4">
@@ -11094,10 +11103,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="17" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="C158" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.4">
@@ -11105,10 +11114,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="17" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="C159" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.4">
@@ -11116,10 +11125,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="17" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="C160" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.4">
@@ -11127,10 +11136,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="17" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="C161" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.4">
@@ -11138,10 +11147,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="17" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="C162" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.4">
@@ -11149,10 +11158,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="17" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="C163" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.4">
@@ -11160,10 +11169,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="17" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="C164" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.4">
@@ -11171,10 +11180,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="17" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="C165" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.4">
@@ -11182,10 +11191,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="17" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="C166" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.4">
@@ -11193,10 +11202,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="17" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="C167" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.4">
@@ -11204,10 +11213,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="17" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="C168" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.4">
@@ -11215,10 +11224,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="17" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="C169" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.4">
@@ -11226,10 +11235,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="17" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="C170" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.4">
@@ -11237,10 +11246,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="17" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="C171" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.4">
@@ -11248,10 +11257,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="17" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="C172" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.4">
@@ -11259,10 +11268,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="17" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="C173" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.4">
@@ -11270,10 +11279,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="17" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="C174" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.4">
@@ -11281,10 +11290,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="17" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="C175" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.4">
@@ -11292,10 +11301,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="17" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="C176" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="F176" s="17"/>
     </row>
@@ -11304,10 +11313,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="17" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="C177" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.4">
@@ -11315,10 +11324,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="17" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="C178" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.4">
@@ -11326,10 +11335,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="17" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="C179" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.4">
@@ -11337,10 +11346,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="17" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="C180" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.4">
@@ -11348,10 +11357,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="17" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="C181" t="s">
-        <v>788</v>
+        <v>769</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.4">
@@ -11359,10 +11368,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="17" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="C182" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.4">
@@ -11370,10 +11379,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="17" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="C183" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.4">
@@ -11381,10 +11390,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="17" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="C184" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.4">
@@ -11392,10 +11401,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="17" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="C185" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.4">
@@ -11403,10 +11412,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="17" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="C186" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.4">
@@ -11414,10 +11423,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="17" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="C187" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.4">
@@ -11425,10 +11434,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="17" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="C188" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.4">
@@ -11436,10 +11445,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="C189" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.4">
@@ -11447,10 +11456,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="C190" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.4">
@@ -11458,10 +11467,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="17" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="C191" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.4">
@@ -11469,10 +11478,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="17" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="C192" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
@@ -11480,10 +11489,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="17" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="C193" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.4">
@@ -11491,10 +11500,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="17" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="C194" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.4">
@@ -11502,10 +11511,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="17" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="C195" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.4">
@@ -11513,10 +11522,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="17" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="C196" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.4">
@@ -11524,10 +11533,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="17" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="C197" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.4">
@@ -11535,10 +11544,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="17" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="C198" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.4">
@@ -11546,10 +11555,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="17" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="C199" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.4">
@@ -11557,10 +11566,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="17" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="C200" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.4">
@@ -11568,10 +11577,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="17" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="C201" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.4">
@@ -11579,10 +11588,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="17" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="C202" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.4">
@@ -11590,10 +11599,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="17" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="C203" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.4">
@@ -11601,10 +11610,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="17" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="C204" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.4">
@@ -11612,10 +11621,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="17" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="C205" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.4">
@@ -11623,10 +11632,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="17" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
       <c r="C206" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.4">
@@ -11634,10 +11643,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="17" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="C207" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.4">
@@ -11645,10 +11654,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="17" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="C208" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.4">
@@ -11656,10 +11665,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="17" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="C209" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.4">
@@ -11667,10 +11676,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="17" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="C210" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.4">
@@ -11678,10 +11687,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="17" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="C211" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.4">
@@ -11689,10 +11698,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="17" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="C212" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.4">
@@ -11700,10 +11709,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="17" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="C213" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.4">
@@ -11711,10 +11720,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="17" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="C214" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.4">
@@ -11722,10 +11731,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="17" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="C215" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.4">
@@ -11733,10 +11742,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="17" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="C216" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.4">
@@ -11744,10 +11753,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="17" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="C217" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.4">
@@ -11755,10 +11764,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="17" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="C218" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.4">
@@ -11766,10 +11775,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="17" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="C219" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.4">
@@ -11777,10 +11786,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="17" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="C220" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.4">
@@ -11788,10 +11797,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="17" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="C221" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.4">
@@ -11799,10 +11808,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="17" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="C222" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.4">
@@ -11810,10 +11819,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="17" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="C223" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.4">
@@ -11821,10 +11830,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="17" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="C224" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.4">
@@ -11832,10 +11841,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="17" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="C225" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.4">
@@ -11843,10 +11852,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="17" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="C226" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.4">
@@ -11854,10 +11863,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="17" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="C227" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.4">
@@ -11865,10 +11874,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="17" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="C228" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.4">
@@ -11876,10 +11885,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="17" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="C229" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.4">
@@ -11887,10 +11896,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="17" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="C230" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.4">
@@ -11898,10 +11907,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="17" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="C231" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.4">
@@ -11909,10 +11918,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="17" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="C232" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.4">
@@ -11920,10 +11929,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="17" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="C233" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.4">
@@ -11931,10 +11940,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="17" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="C234" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.4">
@@ -11942,10 +11951,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="17" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="C235" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.4">
@@ -11953,10 +11962,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="17" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
       <c r="C236" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.4">
@@ -11964,10 +11973,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="17" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="C237" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.4">
@@ -11975,10 +11984,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="17" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="C238" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.4">
@@ -11986,10 +11995,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="17" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="C239" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.4">
@@ -11997,10 +12006,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="17" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="C240" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.4">
@@ -12008,10 +12017,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="17" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="C241" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.4">
@@ -12019,10 +12028,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="17" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="C242" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.4">
@@ -12030,10 +12039,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="17" t="s">
-        <v>603</v>
+        <v>584</v>
       </c>
       <c r="C243" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.4">
@@ -12041,10 +12050,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="17" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
       <c r="C244" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.4">
@@ -12052,10 +12061,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="17" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
       <c r="C245" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.4">
@@ -12063,10 +12072,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="17" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="C246" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.4">
@@ -12074,10 +12083,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="17" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="C247" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.4">
@@ -12085,10 +12094,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="17" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="C248" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.4">
@@ -12096,10 +12105,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="17" t="s">
-        <v>609</v>
+        <v>590</v>
       </c>
       <c r="C249" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.4">
@@ -12107,10 +12116,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="17" t="s">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="C250" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.4">
@@ -12118,10 +12127,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="17" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="C251" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.4">
@@ -12129,10 +12138,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="17" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="C252" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.4">
@@ -12140,10 +12149,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="17" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="C253" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.4">
@@ -12151,10 +12160,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="17" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="C254" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.4">
@@ -12162,10 +12171,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="17" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="C255" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.4">
@@ -12173,10 +12182,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="17" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="C256" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.4">
@@ -12184,10 +12193,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="17" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="C257" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.4">
@@ -12195,10 +12204,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="17" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="C258" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.4">
@@ -12206,10 +12215,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="17" t="s">
-        <v>619</v>
+        <v>600</v>
       </c>
       <c r="C259" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.4">
@@ -12217,10 +12226,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="17" t="s">
-        <v>620</v>
+        <v>601</v>
       </c>
       <c r="C260" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.4">
@@ -12228,10 +12237,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="17" t="s">
-        <v>621</v>
+        <v>602</v>
       </c>
       <c r="C261" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.4">
@@ -12239,10 +12248,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="17" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="C262" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.4">
@@ -12250,10 +12259,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="17" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
       <c r="C263" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.4">
@@ -12261,10 +12270,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="17" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
       <c r="C264" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.4">
@@ -12272,10 +12281,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="17" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="C265" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.4">
@@ -12283,10 +12292,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="17" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="C266" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.4">
@@ -12294,10 +12303,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="17" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
       <c r="C267" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.4">
@@ -12305,10 +12314,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="17" t="s">
-        <v>628</v>
+        <v>609</v>
       </c>
       <c r="C268" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.4">
@@ -12316,10 +12325,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="17" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="C269" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.4">
@@ -12327,10 +12336,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="17" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="C270" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.4">
@@ -12338,10 +12347,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="17" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="C271" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.4">
@@ -12349,10 +12358,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="17" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
       <c r="C272" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.4">
@@ -12360,10 +12369,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="17" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="C273" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.4">
@@ -12371,10 +12380,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="17" t="s">
-        <v>634</v>
+        <v>615</v>
       </c>
       <c r="C274" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.4">
@@ -12382,10 +12391,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="17" t="s">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="C275" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.4">
@@ -12393,10 +12402,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="17" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="C276" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.4">
@@ -12404,10 +12413,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="17" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="C277" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.4">
@@ -12415,10 +12424,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="17" t="s">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="C278" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.4">
@@ -12426,10 +12435,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="17" t="s">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="C279" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.4">
@@ -12437,10 +12446,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="17" t="s">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="C280" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.4">
@@ -12448,10 +12457,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="17" t="s">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="C281" t="s">
-        <v>829</v>
+        <v>810</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.4">
@@ -12459,10 +12468,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="17" t="s">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="C282" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.4">
@@ -12470,10 +12479,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="17" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="C283" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.4">
@@ -12481,10 +12490,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="17" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="C284" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.4">
@@ -12492,10 +12501,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="17" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="C285" t="s">
-        <v>832</v>
+        <v>813</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.4">
@@ -12503,10 +12512,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="17" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="C286" t="s">
-        <v>833</v>
+        <v>814</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.4">
@@ -12514,10 +12523,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="17" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="C287" t="s">
-        <v>834</v>
+        <v>815</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.4">
@@ -12525,10 +12534,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="17" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="C288" t="s">
-        <v>835</v>
+        <v>816</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.4">
@@ -12536,10 +12545,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="17" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="C289" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.4">
@@ -12547,10 +12556,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="17" t="s">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="C290" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.4">
@@ -12558,10 +12567,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="17" t="s">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="C291" t="s">
-        <v>836</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -12617,10 +12626,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="I1" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="J1">
         <v>85.000001999999995</v>
@@ -12707,7 +12716,7 @@
         <v>0.56369899999999995</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
@@ -12745,7 +12754,7 @@
         <v>0.70424600000000004</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
@@ -12783,7 +12792,7 @@
         <v>0.70468299999999995</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
@@ -12821,7 +12830,7 @@
         <v>0.91949199999999998</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
@@ -12859,7 +12868,7 @@
         <v>5.1509330000000002</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
@@ -12897,7 +12906,7 @@
         <v>0.45780199999999999</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
@@ -12935,7 +12944,7 @@
         <v>0.84303799999999995</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -12975,7 +12984,7 @@
         <v>0.53786299999999998</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -13016,7 +13025,7 @@
         <v>0.36853000000000002</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -13057,7 +13066,7 @@
         <v>1.3001959999999999</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -13098,7 +13107,7 @@
         <v>4.5006139999999997</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -13122,7 +13131,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B17" s="11">
         <v>97.100650999999999</v>
@@ -13155,14 +13164,14 @@
         <v>0.47746100000000002</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B18" s="4">
         <v>73.272734999999997</v>
@@ -13195,12 +13204,12 @@
         <v>0.437917</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B19" s="9">
         <v>99.090909999999994</v>
@@ -13233,12 +13242,12 @@
         <v>3.8579750000000002</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="B20" s="7">
         <v>100</v>
@@ -13271,12 +13280,12 @@
         <v>3.3545889999999998</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="B22" s="11">
         <v>95.113641000000001</v>
@@ -13309,12 +13318,12 @@
         <v>0.50254299999999996</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="B23" s="9">
         <v>99.636364</v>
@@ -13347,12 +13356,12 @@
         <v>2.3403170000000002</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B24" s="10">
         <v>100</v>
@@ -13385,12 +13394,12 @@
         <v>3.3152710000000001</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="B26" s="11">
         <v>98.185062000000002</v>
@@ -13423,12 +13432,12 @@
         <v>1.985114</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B27" s="10">
         <v>100</v>
@@ -13461,12 +13470,12 @@
         <v>4.7478879999999997</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="B29" s="13">
         <v>100</v>
@@ -13499,7 +13508,7 @@
         <v>3.358762</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -13561,10 +13570,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="I1" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="J1">
         <v>94.999999000000003</v>
@@ -13651,7 +13660,7 @@
         <v>3.853945</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
@@ -13689,7 +13698,7 @@
         <v>0.69313199999999997</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
@@ -13727,7 +13736,7 @@
         <v>0.69296599999999997</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
@@ -13765,7 +13774,7 @@
         <v>3.5872639999999998</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
@@ -13803,7 +13812,7 @@
         <v>3.3860239999999999</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
@@ -13841,7 +13850,7 @@
         <v>0.38200299999999998</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
@@ -13879,7 +13888,7 @@
         <v>0.407721</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -13919,7 +13928,7 @@
         <v>0.25570300000000001</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -13927,7 +13936,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="B13" s="9">
         <v>91.677743000000007</v>
@@ -13960,7 +13969,7 @@
         <v>0.24401300000000001</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -14001,7 +14010,7 @@
         <v>2.090894</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -14042,7 +14051,7 @@
         <v>5.4365649999999999</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -14066,7 +14075,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B17" s="11">
         <v>98.571432000000001</v>
@@ -14099,14 +14108,14 @@
         <v>0.48214899999999999</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B18" s="4">
         <v>90.282381000000001</v>
@@ -14139,12 +14148,12 @@
         <v>0.30538300000000002</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B19" s="9">
         <v>100</v>
@@ -14177,12 +14186,12 @@
         <v>2.5355219999999998</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="B20" s="7">
         <v>100</v>
@@ -14215,12 +14224,12 @@
         <v>5.0212479999999999</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="B22" s="11">
         <v>98.571432000000001</v>
@@ -14253,12 +14262,12 @@
         <v>0.31296499999999999</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="B23" s="9">
         <v>99.523813000000004</v>
@@ -14291,12 +14300,12 @@
         <v>1.568149</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B24" s="10">
         <v>100</v>
@@ -14329,12 +14338,12 @@
         <v>5.5777099999999997</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="B26" s="11">
         <v>99.761903000000004</v>
@@ -14367,12 +14376,12 @@
         <v>1.3575360000000001</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B27" s="10">
         <v>100</v>
@@ -14405,12 +14414,12 @@
         <v>5.7111939999999999</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="B29" s="13">
         <v>100</v>
@@ -14443,7 +14452,7 @@
         <v>4.4613779999999998</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -14505,10 +14514,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="I1" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="J1">
         <v>75</v>
@@ -14595,7 +14604,7 @@
         <v>2.4918740000000001</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
@@ -14633,7 +14642,7 @@
         <v>0.70024299999999995</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
@@ -14671,7 +14680,7 @@
         <v>0.70041600000000004</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
@@ -14709,7 +14718,7 @@
         <v>3.007806</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
@@ -14747,7 +14756,7 @@
         <v>5.5310779999999999</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
@@ -14785,7 +14794,7 @@
         <v>0.64127100000000004</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
@@ -14823,7 +14832,7 @@
         <v>1.9727779999999999</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -14863,7 +14872,7 @@
         <v>2.704278</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -14904,7 +14913,7 @@
         <v>0.97280599999999995</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -14945,7 +14954,7 @@
         <v>2.8203230000000001</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -14986,7 +14995,7 @@
         <v>1.1102449999999999</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -15010,7 +15019,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B17" s="11">
         <v>96.801758000000007</v>
@@ -15043,14 +15052,14 @@
         <v>0.91439999999999999</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B18" s="4">
         <v>97.203511000000006</v>
@@ -15083,12 +15092,12 @@
         <v>1.726173</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B19" s="9">
         <v>99.599998999999997</v>
@@ -15121,12 +15130,12 @@
         <v>6.9073560000000001</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B20" s="7">
         <v>100</v>
@@ -15159,12 +15168,12 @@
         <v>5.3085810000000002</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B22" s="11">
         <v>96.401757000000003</v>
@@ -15197,12 +15206,12 @@
         <v>1.0487660000000001</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B23" s="9">
         <v>98.935091</v>
@@ -15235,12 +15244,12 @@
         <v>1.2554320000000001</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B24" s="10">
         <v>100</v>
@@ -15273,12 +15282,12 @@
         <v>3.7620110000000002</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B26" s="11">
         <v>98.933333000000005</v>
@@ -15311,12 +15320,12 @@
         <v>4.9614880000000001</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B27" s="10">
         <v>100</v>
@@ -15349,12 +15358,12 @@
         <v>7.0511239999999997</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B29" s="13">
         <v>100</v>
@@ -15387,7 +15396,7 @@
         <v>0.10889</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -15449,10 +15458,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="I1" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="J1">
         <v>89.999998000000005</v>
@@ -15539,7 +15548,7 @@
         <v>0.42875999999999997</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
@@ -15577,7 +15586,7 @@
         <v>0.69853399999999999</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
@@ -15615,7 +15624,7 @@
         <v>0.69802200000000003</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
@@ -15653,7 +15662,7 @@
         <v>2.8107129999999998</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
@@ -15691,7 +15700,7 @@
         <v>4.673826</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
@@ -15729,12 +15738,12 @@
         <v>0.553149</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B11" s="11">
         <v>97.632014999999996</v>
@@ -15767,14 +15776,14 @@
         <v>0.42116599999999998</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B12" s="4">
         <v>98.223686000000001</v>
@@ -15807,7 +15816,7 @@
         <v>0.40670099999999998</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -15815,7 +15824,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B13" s="9">
         <v>97.960960999999998</v>
@@ -15848,7 +15857,7 @@
         <v>2.7743890000000002</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -15856,7 +15865,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B14" s="9">
         <v>99.802625000000006</v>
@@ -15889,7 +15898,7 @@
         <v>8.0651600000000006</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -15897,7 +15906,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B15" s="7">
         <v>98.421060999999995</v>
@@ -15930,7 +15939,7 @@
         <v>0.513486</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -15954,7 +15963,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B17" s="11">
         <v>97.63158</v>
@@ -15987,14 +15996,14 @@
         <v>0.42846099999999998</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B18" s="4">
         <v>98.618859</v>
@@ -16027,12 +16036,12 @@
         <v>1.4710430000000001</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B19" s="9">
         <v>99.736845000000002</v>
@@ -16065,12 +16074,12 @@
         <v>4.8232369999999998</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B20" s="7">
         <v>98.356121999999999</v>
@@ -16103,12 +16112,12 @@
         <v>0.72655700000000001</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B22" s="11">
         <v>98.684216000000006</v>
@@ -16141,12 +16150,12 @@
         <v>0.57771499999999998</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B23" s="9">
         <v>98.224114999999998</v>
@@ -16179,7 +16188,7 @@
         <v>2.9746760000000001</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
@@ -16217,7 +16226,7 @@
         <v>5.7868009999999996</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
@@ -16255,12 +16264,12 @@
         <v>2.83196</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B27" s="10">
         <v>99.736845000000002</v>
@@ -16293,12 +16302,12 @@
         <v>8.2687380000000008</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B29" s="13">
         <v>99.802625000000006</v>
@@ -16331,7 +16340,7 @@
         <v>5.7260920000000004</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -16392,10 +16401,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="I1" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="J1">
         <v>89.999998000000005</v>
@@ -16482,7 +16491,7 @@
         <v>0.53095899999999996</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
@@ -16520,7 +16529,7 @@
         <v>0.730881</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
@@ -16558,7 +16567,7 @@
         <v>0.73018300000000003</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
@@ -16596,7 +16605,7 @@
         <v>4.5217460000000003</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
@@ -16634,7 +16643,7 @@
         <v>2.7366670000000002</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
@@ -16672,12 +16681,12 @@
         <v>0.59016199999999996</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B11" s="11">
         <v>94.034243000000004</v>
@@ -16710,7 +16719,7 @@
         <v>0.53987700000000005</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -16750,7 +16759,7 @@
         <v>0.50683800000000001</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -16791,7 +16800,7 @@
         <v>3.9723869999999999</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -16832,7 +16841,7 @@
         <v>3.640549</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -16873,7 +16882,7 @@
         <v>0.52136000000000005</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -16930,7 +16939,7 @@
         <v>0.41859400000000002</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -16970,7 +16979,7 @@
         <v>2.4198789999999999</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
@@ -17008,12 +17017,12 @@
         <v>3.450186</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B20" s="7">
         <v>96.417916000000005</v>
@@ -17046,12 +17055,12 @@
         <v>2.7695829999999999</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B22" s="11">
         <v>98.805970000000002</v>
@@ -17084,12 +17093,12 @@
         <v>1.9690240000000001</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B23" s="9">
         <v>100</v>
@@ -17122,12 +17131,12 @@
         <v>2.2742390000000001</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B24" s="10">
         <v>97.019309000000007</v>
@@ -17160,12 +17169,12 @@
         <v>0.60768999999999995</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B26" s="11">
         <v>98.959619000000004</v>
@@ -17198,12 +17207,12 @@
         <v>1.5407839999999999</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B27" s="10">
         <v>100</v>
@@ -17236,12 +17245,12 @@
         <v>5.510815</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B29" s="13">
         <v>100</v>
@@ -17274,7 +17283,7 @@
         <v>3.7593480000000001</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -17306,9 +17315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -17325,8 +17332,8 @@
     <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="81" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="47.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.875" customWidth="1"/>
+    <col min="14" max="14" width="13.625" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
     <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.75" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
@@ -17340,13 +17347,13 @@
         <v>140</v>
       </c>
       <c r="I1" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="J1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K1">
-        <v>0.65734999999999999</v>
+        <v>0.68744000000000005</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
@@ -17391,6 +17398,15 @@
       <c r="L3" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="M3" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
@@ -17421,13 +17437,22 @@
         <v>68</v>
       </c>
       <c r="J4" s="4">
-        <v>66.666668999999999</v>
+        <v>64.999998000000005</v>
       </c>
       <c r="K4" s="4">
-        <v>0.67117199999999999</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>141</v>
+        <v>2.9860630000000001</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="M4" s="20">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="N4" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.63157894736842102</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
@@ -17464,8 +17489,17 @@
       <c r="K5" s="4">
         <v>0.69315099999999996</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>359</v>
+      <c r="L5" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
@@ -17502,8 +17536,17 @@
       <c r="K6" s="4">
         <v>0.69315099999999996</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>360</v>
+      <c r="L6" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
@@ -17535,13 +17578,22 @@
         <v>68</v>
       </c>
       <c r="J7" s="4">
-        <v>66.666668999999999</v>
+        <v>60.000002000000002</v>
       </c>
       <c r="K7" s="4">
-        <v>0.69619699999999995</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>142</v>
+        <v>2.443222</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.63636363636363602</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
@@ -17573,13 +17625,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>55.555557999999998</v>
+        <v>64.999998000000005</v>
       </c>
       <c r="K8">
-        <v>4.2817530000000001</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>143</v>
+        <v>6.7500229999999997</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.69565217391304301</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
@@ -17611,18 +17672,27 @@
         <v>29</v>
       </c>
       <c r="J9" s="7">
-        <v>88.888890000000004</v>
+        <v>55.000000999999997</v>
       </c>
       <c r="K9" s="7">
-        <v>0.26090999999999998</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>204</v>
+        <v>0.98279700000000003</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B11" s="11">
         <v>97.152251000000007</v>
@@ -17649,20 +17719,27 @@
         <v>4</v>
       </c>
       <c r="J11" s="11">
-        <v>66.666668999999999</v>
+        <v>69.999999000000003</v>
       </c>
       <c r="K11" s="11">
-        <v>2.1336979999999999</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+        <v>2.6061480000000001</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>878</v>
+      </c>
+      <c r="M11" s="20">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="N11" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.72727272727272696</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B12" s="4">
         <v>52.756894000000003</v>
@@ -17692,18 +17769,24 @@
         <v>50</v>
       </c>
       <c r="K12" s="4">
-        <v>0.69316699999999998</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
+        <v>0.69317600000000001</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B13" s="9">
         <v>99.464285000000004</v>
@@ -17730,21 +17813,27 @@
         <v>7</v>
       </c>
       <c r="J13" s="9">
-        <v>55.555557999999998</v>
+        <v>55.000000999999997</v>
       </c>
       <c r="K13" s="9">
-        <v>3.217438</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+        <v>1.069896</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B14" s="9">
         <v>99.288844999999995</v>
@@ -17771,21 +17860,27 @@
         <v>0</v>
       </c>
       <c r="J14" s="9">
-        <v>66.666668999999999</v>
+        <v>64.999998000000005</v>
       </c>
       <c r="K14" s="9">
-        <v>13.23906</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
+        <v>7.9008979999999998</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.66666666666666596</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B15" s="7">
         <v>86.015034</v>
@@ -17812,17 +17907,23 @@
         <v>2</v>
       </c>
       <c r="J15" s="7">
-        <v>88.888890000000004</v>
+        <v>55.000000999999997</v>
       </c>
       <c r="K15" s="7">
-        <v>0.506073</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
+        <v>1.6213070000000001</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0.47058823529411697</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
@@ -17840,9 +17941,9 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B17" s="11">
         <v>98.035717000000005</v>
@@ -17869,20 +17970,27 @@
         <v>22</v>
       </c>
       <c r="J17" s="11">
-        <v>77.777778999999995</v>
+        <v>64.999998000000005</v>
       </c>
       <c r="K17" s="11">
-        <v>0.39181500000000002</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+        <v>1.2463120000000001</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>882</v>
+      </c>
+      <c r="M17" s="20">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="N17" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B18" s="4">
         <v>99.288844999999995</v>
@@ -17909,18 +18017,27 @@
         <v>8</v>
       </c>
       <c r="J18" s="4">
-        <v>66.666668999999999</v>
+        <v>60.000002000000002</v>
       </c>
       <c r="K18" s="4">
-        <v>0.76087700000000003</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+        <v>1.3274509999999999</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.63636363636363602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B19" s="9">
         <v>99.291979999999995</v>
@@ -17947,18 +18064,27 @@
         <v>2</v>
       </c>
       <c r="J19" s="9">
-        <v>55.555557999999998</v>
+        <v>60.000002000000002</v>
       </c>
       <c r="K19" s="9">
-        <v>5.1164969999999999</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+        <v>5.7387290000000002</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0.63636363636363602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B20" s="7">
         <v>87.268174000000002</v>
@@ -17985,18 +18111,27 @@
         <v>0</v>
       </c>
       <c r="J20" s="7">
-        <v>88.888890000000004</v>
+        <v>55.000000999999997</v>
       </c>
       <c r="K20" s="7">
-        <v>0.37719799999999998</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+        <v>1.03166</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B22" s="11">
         <v>98.035717000000005</v>
@@ -18023,18 +18158,27 @@
         <v>0</v>
       </c>
       <c r="J22" s="11">
-        <v>66.666668999999999</v>
+        <v>75</v>
       </c>
       <c r="K22" s="11">
-        <v>0.76552799999999999</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+        <v>0.68744000000000005</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="M22" s="20">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="N22" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.76190476190476197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B23" s="9">
         <v>99.285715999999994</v>
@@ -18061,18 +18205,27 @@
         <v>298</v>
       </c>
       <c r="J23" s="4">
-        <v>66.666668999999999</v>
+        <v>69.999999000000003</v>
       </c>
       <c r="K23" s="4">
-        <v>2.0414759999999998</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+        <v>2.0021529999999998</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B24" s="10">
         <v>99.467421000000002</v>
@@ -18099,18 +18252,27 @@
         <v>0</v>
       </c>
       <c r="J24" s="10">
-        <v>66.666668999999999</v>
+        <v>75</v>
       </c>
       <c r="K24" s="10">
-        <v>5.8941730000000003</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+        <v>2.392566</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1</v>
+      </c>
+      <c r="O24" s="8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B26" s="11">
         <v>99.821436000000006</v>
@@ -18137,18 +18299,27 @@
         <v>42</v>
       </c>
       <c r="J26" s="11">
-        <v>77.777778999999995</v>
+        <v>69.999999000000003</v>
       </c>
       <c r="K26" s="11">
-        <v>0.320766</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+        <v>2.8019470000000002</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>888</v>
+      </c>
+      <c r="M26" s="20">
+        <v>0.625</v>
+      </c>
+      <c r="N26" s="20">
+        <v>1</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0.76923076923076905</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B27" s="10">
         <v>99.642860999999996</v>
@@ -18175,18 +18346,27 @@
         <v>0</v>
       </c>
       <c r="J27" s="7">
-        <v>66.666668999999999</v>
+        <v>69.999999000000003</v>
       </c>
       <c r="K27" s="7">
-        <v>5.2759840000000002</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+        <v>4.8565379999999996</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="O27" s="8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B29" s="13">
         <v>100</v>
@@ -18213,13 +18393,22 @@
         <v>4</v>
       </c>
       <c r="J29" s="13">
-        <v>66.666668999999999</v>
+        <v>60.000002000000002</v>
       </c>
       <c r="K29" s="13">
-        <v>5.0722449999999997</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>172</v>
+        <v>3.2190919999999998</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>892</v>
+      </c>
+      <c r="M29" s="13">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="N29" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="O29" s="14">
+        <v>0.63636363636363602</v>
       </c>
     </row>
   </sheetData>
@@ -18283,7 +18472,7 @@
         <v>104</v>
       </c>
       <c r="I1" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="J1">
         <v>94.999999000000003</v>
@@ -19124,7 +19313,7 @@
         <v>10.352601999999999</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
@@ -19228,7 +19417,7 @@
         <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="J1">
         <v>94.999999000000003</v>
@@ -20031,7 +20220,7 @@
         <v>3.6173790000000001</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
@@ -20112,7 +20301,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>880</v>
+        <v>861</v>
       </c>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
@@ -20153,7 +20342,7 @@
         <v>0.519652</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>888</v>
+        <v>869</v>
       </c>
       <c r="M33" s="19">
         <v>0.94</v>

--- a/verification.xlsx
+++ b/verification.xlsx
@@ -3883,7 +3883,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4319,7 +4318,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>

--- a/verification.xlsx
+++ b/verification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11955" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11955" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="892">
   <si>
     <t>特徴量</t>
     <rPh sb="0" eb="2">
@@ -3146,16 +3146,6 @@
       <t>ワシャ</t>
     </rPh>
     <rPh sb="6" eb="8">
-      <t>ジッケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>話者クロー実験</t>
-    <rPh sb="0" eb="2">
-      <t>ワシャ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
       <t>ジッケン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -3883,6 +3873,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4318,6 +4309,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5227,9 +5219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -6513,12 +6503,12 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C68">
         <v>981</v>
@@ -6526,7 +6516,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C69">
         <v>50</v>
@@ -6534,7 +6524,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C70">
         <f>C68-C69</f>
@@ -6543,7 +6533,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C71">
         <v>649</v>
@@ -6551,7 +6541,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C72">
         <v>50</v>
@@ -6559,7 +6549,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C73">
         <f>C71-C72</f>
@@ -6577,9 +6567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6726,7 +6714,7 @@
         <v>0.68744000000000005</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F4" s="16">
         <v>0.72727272727272696</v>
@@ -7017,7 +7005,7 @@
         <v>0.68744000000000005</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F17" s="16">
         <v>0.72727272727272696</v>
@@ -7170,7 +7158,7 @@
         <v>0.38492202059969804</v>
       </c>
       <c r="C38" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
   </sheetData>
@@ -8541,7 +8529,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
@@ -8631,7 +8619,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B4">
         <v>99.761903000000004</v>
@@ -8675,7 +8663,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B5">
         <v>98.095237999999995</v>
@@ -8947,7 +8935,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B13">
         <v>23</v>
@@ -17313,7 +17301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -17441,7 +17429,7 @@
         <v>2.9860630000000001</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="M4" s="20">
         <v>0.66666666666666596</v>
@@ -17582,7 +17570,7 @@
         <v>2.443222</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="M7" s="4">
         <v>0.58333333333333304</v>
@@ -17629,7 +17617,7 @@
         <v>6.7500229999999997</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="M8" s="4">
         <v>0.61538461538461497</v>
@@ -17676,7 +17664,7 @@
         <v>0.98279700000000003</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="M9" s="7">
         <v>0.6</v>
@@ -17723,7 +17711,7 @@
         <v>2.6061480000000001</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="M11" s="20">
         <v>0.66666666666666596</v>
@@ -17770,7 +17758,7 @@
         <v>0.69317600000000001</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
@@ -17817,7 +17805,7 @@
         <v>1.069896</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="M13" s="4">
         <v>0.53333333333333299</v>
@@ -17911,7 +17899,7 @@
         <v>1.6213070000000001</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="M15" s="7">
         <v>0.57142857142857095</v>
@@ -17974,7 +17962,7 @@
         <v>1.2463120000000001</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="M17" s="20">
         <v>0.63636363636363602</v>
@@ -18021,7 +18009,7 @@
         <v>1.3274509999999999</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="M18" s="4">
         <v>0.58333333333333304</v>
@@ -18068,7 +18056,7 @@
         <v>5.7387290000000002</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="M19" s="4">
         <v>0.58333333333333304</v>
@@ -18115,7 +18103,7 @@
         <v>1.03166</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="M20" s="7">
         <v>0.6</v>
@@ -18209,7 +18197,7 @@
         <v>2.0021529999999998</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="M23" s="4">
         <v>0.64285714285714202</v>
@@ -18256,7 +18244,7 @@
         <v>2.392566</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="M24" s="7">
         <v>0.66666666666666596</v>
@@ -18303,7 +18291,7 @@
         <v>2.8019470000000002</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="M26" s="20">
         <v>0.625</v>
@@ -18350,7 +18338,7 @@
         <v>4.8565379999999996</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="M27" s="7">
         <v>0.7</v>
@@ -18397,7 +18385,7 @@
         <v>3.2190919999999998</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="M29" s="13">
         <v>0.58333333333333304</v>
@@ -19381,7 +19369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:K3"/>
     </sheetView>
   </sheetViews>
@@ -20218,7 +20206,7 @@
         <v>3.6173790000000001</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
@@ -20340,7 +20328,7 @@
         <v>0.519652</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="M33" s="19">
         <v>0.94</v>
